--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
@@ -1102,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1189,6 +1189,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1392,24 +1413,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1556,384 +1559,6 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>17515</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>116158</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="576332" cy="196675"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0767A60D-8811-4DB6-BB31-FCDDC201134B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="7394" t="86243"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="17515" y="6374083"/>
-          <a:ext cx="576332" cy="196675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>37171</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>116159</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="551567" cy="178147"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7EB3B9-5B69-4F6D-98E2-A3666EB41DC5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="7394" t="72677" b="14310"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="37171" y="5974034"/>
-          <a:ext cx="551567" cy="178147"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>39075</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>133908</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="549662" cy="175405"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC8D081-88D8-45F5-B487-B892AE919BBA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="7394" t="57210" b="30350"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="39075" y="5591733"/>
-          <a:ext cx="549662" cy="175405"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>41817</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>122710</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="551567" cy="191250"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DB5776-8111-4590-9073-F0D9A51DAAB7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="7394" t="42791" b="43732"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="41817" y="5180485"/>
-          <a:ext cx="551567" cy="191250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>56824</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>4645</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="455900" cy="187183"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E698E86-73E4-41DF-BAC8-7519D2D92B83}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="7393" t="29125" r="15468" b="57871"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="56824" y="4795720"/>
-          <a:ext cx="455900" cy="187183"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>41817</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>130098</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="568816" cy="238783"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E93E17-D781-4CC7-8BD9-57910C74C7F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="12148" t="15845" r="19703" b="71519"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="41817" y="4387773"/>
-          <a:ext cx="568816" cy="238783"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>111512</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="324221" cy="227557"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2C238B-A62F-43A0-B813-98E260E855FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="7394" t="-340" r="39106" b="85194"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="111512" y="3994785"/>
-          <a:ext cx="324221" cy="227557"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>39379</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>36635</xdr:rowOff>
@@ -1953,7 +1578,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2077,7 +1702,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2090,6 +1715,384 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>107461</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4885</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="324221" cy="227557"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C2C238B-A62F-43A0-B813-98E260E855FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7394" t="-340" r="39106" b="85194"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="107461" y="3951654"/>
+          <a:ext cx="324221" cy="227557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>48844</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131884</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="568816" cy="238783"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E93E17-D781-4CC7-8BD9-57910C74C7F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="12148" t="15845" r="19703" b="71519"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="48844" y="4342422"/>
+          <a:ext cx="568816" cy="238783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>92808</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="455900" cy="187183"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E698E86-73E4-41DF-BAC8-7519D2D92B83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7393" t="29125" r="15468" b="57871"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="92808" y="4733192"/>
+          <a:ext cx="455900" cy="187183"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>107462</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="551567" cy="191250"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5DB5776-8111-4590-9073-F0D9A51DAAB7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7394" t="42791" b="43732"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="63500" y="5109308"/>
+          <a:ext cx="551567" cy="191250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>58615</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="549662" cy="175405"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC8D081-88D8-45F5-B487-B892AE919BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7394" t="57210" b="30350"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="58615" y="5529385"/>
+          <a:ext cx="549662" cy="175405"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>29308</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="551567" cy="178147"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A7EB3B9-5B69-4F6D-98E2-A3666EB41DC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7394" t="72677" b="14310"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="29308" y="5939692"/>
+          <a:ext cx="551567" cy="178147"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>122116</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="576332" cy="196675"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0767A60D-8811-4DB6-BB31-FCDDC201134B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7394" t="86243"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14654" y="6310924"/>
+          <a:ext cx="576332" cy="196675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2498,94 +2501,94 @@
   </sheetPr>
   <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="AF26" sqref="AF26:AM26"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="2.28515625" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" customWidth="1"/>
-    <col min="6" max="48" width="2.28515625" customWidth="1"/>
+    <col min="1" max="4" width="2.26953125" customWidth="1"/>
+    <col min="5" max="5" width="2.54296875" customWidth="1"/>
+    <col min="6" max="48" width="2.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31"/>
       <c r="B1" s="30"/>
       <c r="C1" s="30"/>
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
-      <c r="F1" s="144" t="s">
+      <c r="F1" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="145"/>
-      <c r="J1" s="145"/>
-      <c r="K1" s="145"/>
-      <c r="L1" s="145"/>
-      <c r="M1" s="145"/>
-      <c r="N1" s="145"/>
-      <c r="O1" s="145"/>
-      <c r="P1" s="145"/>
-      <c r="Q1" s="145"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="145"/>
-      <c r="T1" s="145"/>
-      <c r="U1" s="145"/>
-      <c r="V1" s="145"/>
-      <c r="W1" s="145"/>
-      <c r="X1" s="145"/>
-      <c r="Y1" s="145"/>
-      <c r="Z1" s="145"/>
-      <c r="AA1" s="145"/>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="145"/>
-      <c r="AD1" s="145"/>
-      <c r="AE1" s="146"/>
-      <c r="AF1" s="135" t="s">
+      <c r="G1" s="148"/>
+      <c r="H1" s="148"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="148"/>
+      <c r="K1" s="148"/>
+      <c r="L1" s="148"/>
+      <c r="M1" s="148"/>
+      <c r="N1" s="148"/>
+      <c r="O1" s="148"/>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="148"/>
+      <c r="S1" s="148"/>
+      <c r="T1" s="148"/>
+      <c r="U1" s="148"/>
+      <c r="V1" s="148"/>
+      <c r="W1" s="148"/>
+      <c r="X1" s="148"/>
+      <c r="Y1" s="148"/>
+      <c r="Z1" s="148"/>
+      <c r="AA1" s="148"/>
+      <c r="AB1" s="148"/>
+      <c r="AC1" s="148"/>
+      <c r="AD1" s="148"/>
+      <c r="AE1" s="149"/>
+      <c r="AF1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="136"/>
-      <c r="AH1" s="136"/>
-      <c r="AI1" s="137"/>
-      <c r="AJ1" s="137"/>
+      <c r="AG1" s="139"/>
+      <c r="AH1" s="139"/>
+      <c r="AI1" s="140"/>
+      <c r="AJ1" s="140"/>
       <c r="AK1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="137"/>
-      <c r="AM1" s="138"/>
-    </row>
-    <row r="2" spans="1:39" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL1" s="140"/>
+      <c r="AM1" s="141"/>
+    </row>
+    <row r="2" spans="1:39" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23"/>
-      <c r="F2" s="139" t="s">
+      <c r="F2" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="140"/>
-      <c r="H2" s="140"/>
-      <c r="I2" s="140"/>
-      <c r="J2" s="140"/>
-      <c r="K2" s="140"/>
-      <c r="L2" s="140"/>
-      <c r="M2" s="140"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="140"/>
-      <c r="U2" s="140"/>
-      <c r="V2" s="140"/>
-      <c r="W2" s="140"/>
-      <c r="X2" s="140"/>
-      <c r="Y2" s="140"/>
-      <c r="Z2" s="140"/>
-      <c r="AA2" s="140"/>
-      <c r="AB2" s="140"/>
-      <c r="AC2" s="140"/>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="143"/>
+      <c r="R2" s="143"/>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="143"/>
+      <c r="AA2" s="143"/>
+      <c r="AB2" s="143"/>
+      <c r="AC2" s="143"/>
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
       <c r="AF2" s="28"/>
       <c r="AG2" s="27"/>
       <c r="AH2" s="27"/>
@@ -2595,193 +2598,193 @@
       <c r="AL2" s="25"/>
       <c r="AM2" s="24"/>
     </row>
-    <row r="3" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23"/>
-      <c r="F3" s="141" t="s">
+      <c r="F3" s="144" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142"/>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142"/>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="142"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="130" t="s">
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="145"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="O3" s="145"/>
+      <c r="P3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="145"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+      <c r="W3" s="145"/>
+      <c r="X3" s="145"/>
+      <c r="Y3" s="145"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="145"/>
+      <c r="AB3" s="145"/>
+      <c r="AC3" s="145"/>
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="AG3" s="131"/>
-      <c r="AH3" s="131"/>
-      <c r="AI3" s="143"/>
-      <c r="AJ3" s="126"/>
-      <c r="AK3" s="126"/>
-      <c r="AL3" s="126"/>
-      <c r="AM3" s="129"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG3" s="134"/>
+      <c r="AH3" s="134"/>
+      <c r="AI3" s="146"/>
+      <c r="AJ3" s="129"/>
+      <c r="AK3" s="129"/>
+      <c r="AL3" s="129"/>
+      <c r="AM3" s="132"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
-      <c r="F4" s="130" t="s">
+      <c r="F4" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="131"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
-      <c r="K4" s="132"/>
-      <c r="L4" s="132"/>
-      <c r="M4" s="132"/>
-      <c r="N4" s="130" t="s">
+      <c r="G4" s="134"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="131"/>
-      <c r="R4" s="131"/>
-      <c r="S4" s="133"/>
-      <c r="T4" s="133"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
+      <c r="R4" s="134"/>
+      <c r="S4" s="136"/>
+      <c r="T4" s="136"/>
       <c r="U4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="133"/>
-      <c r="W4" s="133"/>
-      <c r="X4" s="134"/>
-      <c r="Y4" s="133"/>
-      <c r="Z4" s="128" t="s">
+      <c r="V4" s="136"/>
+      <c r="W4" s="136"/>
+      <c r="X4" s="137"/>
+      <c r="Y4" s="136"/>
+      <c r="Z4" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="128"/>
-      <c r="AB4" s="128"/>
-      <c r="AC4" s="128"/>
-      <c r="AD4" s="128"/>
-      <c r="AE4" s="128"/>
-      <c r="AF4" s="130" t="s">
+      <c r="AA4" s="131"/>
+      <c r="AB4" s="131"/>
+      <c r="AC4" s="131"/>
+      <c r="AD4" s="131"/>
+      <c r="AE4" s="131"/>
+      <c r="AF4" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="AG4" s="131"/>
-      <c r="AH4" s="131"/>
-      <c r="AI4" s="126"/>
-      <c r="AJ4" s="126"/>
-      <c r="AK4" s="126"/>
-      <c r="AL4" s="126"/>
-      <c r="AM4" s="129"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="124" t="s">
+      <c r="AG4" s="134"/>
+      <c r="AH4" s="134"/>
+      <c r="AI4" s="129"/>
+      <c r="AJ4" s="129"/>
+      <c r="AK4" s="129"/>
+      <c r="AL4" s="129"/>
+      <c r="AM4" s="132"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A5" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="127" t="s">
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="129"/>
+      <c r="G5" s="129"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
-      <c r="U5" s="126"/>
-      <c r="V5" s="126"/>
-      <c r="W5" s="126"/>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
+      <c r="O5" s="131"/>
+      <c r="P5" s="131"/>
+      <c r="Q5" s="129"/>
+      <c r="R5" s="129"/>
+      <c r="S5" s="129"/>
+      <c r="T5" s="129"/>
+      <c r="U5" s="129"/>
+      <c r="V5" s="129"/>
+      <c r="W5" s="129"/>
+      <c r="X5" s="129"/>
+      <c r="Y5" s="129"/>
+      <c r="Z5" s="129"/>
+      <c r="AA5" s="129"/>
       <c r="AB5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="126"/>
-      <c r="AD5" s="126"/>
-      <c r="AE5" s="126"/>
-      <c r="AF5" s="126"/>
-      <c r="AG5" s="126"/>
-      <c r="AH5" s="126"/>
-      <c r="AI5" s="126"/>
-      <c r="AJ5" s="126"/>
-      <c r="AK5" s="126"/>
-      <c r="AL5" s="126"/>
-      <c r="AM5" s="129"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="119" t="s">
+      <c r="AC5" s="129"/>
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="129"/>
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="129"/>
+      <c r="AH5" s="129"/>
+      <c r="AI5" s="129"/>
+      <c r="AJ5" s="129"/>
+      <c r="AK5" s="129"/>
+      <c r="AL5" s="129"/>
+      <c r="AM5" s="132"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A6" s="122" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="120"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="121"/>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="121"/>
-      <c r="AA6" s="121"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="121"/>
-      <c r="AF6" s="121"/>
-      <c r="AG6" s="121"/>
-      <c r="AH6" s="121"/>
-      <c r="AI6" s="121"/>
-      <c r="AJ6" s="121"/>
-      <c r="AK6" s="121"/>
-      <c r="AL6" s="121"/>
-      <c r="AM6" s="122"/>
-    </row>
-    <row r="7" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="124"/>
+      <c r="K6" s="124"/>
+      <c r="L6" s="124"/>
+      <c r="M6" s="124"/>
+      <c r="N6" s="124"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="124"/>
+      <c r="Q6" s="124"/>
+      <c r="R6" s="124"/>
+      <c r="S6" s="124"/>
+      <c r="T6" s="124"/>
+      <c r="U6" s="124"/>
+      <c r="V6" s="124"/>
+      <c r="W6" s="124"/>
+      <c r="X6" s="124"/>
+      <c r="Y6" s="124"/>
+      <c r="Z6" s="124"/>
+      <c r="AA6" s="124"/>
+      <c r="AB6" s="124"/>
+      <c r="AC6" s="124"/>
+      <c r="AD6" s="124"/>
+      <c r="AE6" s="124"/>
+      <c r="AF6" s="124"/>
+      <c r="AG6" s="124"/>
+      <c r="AH6" s="124"/>
+      <c r="AI6" s="124"/>
+      <c r="AJ6" s="124"/>
+      <c r="AK6" s="124"/>
+      <c r="AL6" s="124"/>
+      <c r="AM6" s="125"/>
+    </row>
+    <row r="7" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="123"/>
-      <c r="F7" s="123"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
       <c r="G7" s="16" t="s">
         <v>14</v>
       </c>
@@ -2833,723 +2836,723 @@
       <c r="AE7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AF7" s="52" t="s">
+      <c r="AF7" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="AG7" s="52"/>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="52"/>
-      <c r="AJ7" s="52"/>
-      <c r="AK7" s="52"/>
-      <c r="AL7" s="52">
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61">
         <v>0</v>
       </c>
-      <c r="AM7" s="52"/>
-    </row>
-    <row r="8" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="86" t="s">
+      <c r="AM7" s="61"/>
+    </row>
+    <row r="8" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="106"/>
-      <c r="R8" s="106"/>
-      <c r="S8" s="106"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="106"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="106"/>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="106"/>
-      <c r="AC8" s="106"/>
-      <c r="AD8" s="106"/>
-      <c r="AE8" s="111"/>
-      <c r="AF8" s="77" t="s">
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="114"/>
+      <c r="AF8" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="AG8" s="78"/>
-      <c r="AH8" s="78"/>
-      <c r="AI8" s="78"/>
-      <c r="AJ8" s="78"/>
-      <c r="AK8" s="78"/>
-      <c r="AL8" s="78"/>
-      <c r="AM8" s="79"/>
-    </row>
-    <row r="9" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="62"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="63"/>
-      <c r="AF9" s="113"/>
-      <c r="AG9" s="114"/>
-      <c r="AH9" s="114"/>
-      <c r="AI9" s="114"/>
-      <c r="AJ9" s="114"/>
-      <c r="AK9" s="114"/>
-      <c r="AL9" s="114"/>
-      <c r="AM9" s="115"/>
-    </row>
-    <row r="10" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80"/>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="62"/>
-      <c r="T10" s="62"/>
-      <c r="U10" s="62"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="62"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="62"/>
-      <c r="AE10" s="63"/>
-      <c r="AF10" s="116"/>
-      <c r="AG10" s="117"/>
-      <c r="AH10" s="117"/>
-      <c r="AI10" s="117"/>
-      <c r="AJ10" s="117"/>
-      <c r="AK10" s="117"/>
-      <c r="AL10" s="117"/>
-      <c r="AM10" s="118"/>
-    </row>
-    <row r="11" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="80"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="63"/>
-      <c r="AF11" s="116"/>
-      <c r="AG11" s="117"/>
-      <c r="AH11" s="117"/>
-      <c r="AI11" s="117"/>
-      <c r="AJ11" s="117"/>
-      <c r="AK11" s="117"/>
-      <c r="AL11" s="117"/>
-      <c r="AM11" s="118"/>
-    </row>
-    <row r="12" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="80"/>
-      <c r="B12" s="81"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="68"/>
-      <c r="Y12" s="68"/>
-      <c r="Z12" s="68"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="68"/>
-      <c r="AC12" s="68"/>
-      <c r="AD12" s="68"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="116"/>
-      <c r="AG12" s="117"/>
-      <c r="AH12" s="117"/>
-      <c r="AI12" s="117"/>
-      <c r="AJ12" s="117"/>
-      <c r="AK12" s="117"/>
-      <c r="AL12" s="117"/>
-      <c r="AM12" s="118"/>
-    </row>
-    <row r="13" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="80"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="65"/>
-      <c r="O13" s="65"/>
-      <c r="P13" s="65"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="65"/>
-      <c r="AD13" s="65"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="116"/>
-      <c r="AG13" s="117"/>
-      <c r="AH13" s="117"/>
-      <c r="AI13" s="117"/>
-      <c r="AJ13" s="117"/>
-      <c r="AK13" s="117"/>
-      <c r="AL13" s="117"/>
-      <c r="AM13" s="118"/>
-    </row>
-    <row r="14" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="80"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="62"/>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="62"/>
-      <c r="U14" s="62"/>
-      <c r="V14" s="62"/>
-      <c r="W14" s="62"/>
-      <c r="X14" s="62"/>
-      <c r="Y14" s="62"/>
-      <c r="Z14" s="62"/>
-      <c r="AA14" s="62"/>
-      <c r="AB14" s="62"/>
-      <c r="AC14" s="62"/>
-      <c r="AD14" s="62"/>
-      <c r="AE14" s="63"/>
-      <c r="AF14" s="116"/>
-      <c r="AG14" s="117"/>
-      <c r="AH14" s="117"/>
-      <c r="AI14" s="117"/>
-      <c r="AJ14" s="117"/>
-      <c r="AK14" s="117"/>
-      <c r="AL14" s="117"/>
-      <c r="AM14" s="118"/>
-    </row>
-    <row r="15" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
-      <c r="B15" s="81"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="62"/>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="62"/>
-      <c r="AB15" s="62"/>
-      <c r="AC15" s="62"/>
-      <c r="AD15" s="62"/>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="116"/>
-      <c r="AG15" s="117"/>
-      <c r="AH15" s="117"/>
-      <c r="AI15" s="117"/>
-      <c r="AJ15" s="117"/>
-      <c r="AK15" s="117"/>
-      <c r="AL15" s="117"/>
-      <c r="AM15" s="118"/>
-    </row>
-    <row r="16" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80"/>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="62"/>
-      <c r="T16" s="62"/>
-      <c r="U16" s="62"/>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62"/>
-      <c r="X16" s="62"/>
-      <c r="Y16" s="62"/>
-      <c r="Z16" s="62"/>
-      <c r="AA16" s="62"/>
-      <c r="AB16" s="62"/>
-      <c r="AC16" s="62"/>
-      <c r="AD16" s="62"/>
-      <c r="AE16" s="63"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="117"/>
-      <c r="AH16" s="117"/>
-      <c r="AI16" s="117"/>
-      <c r="AJ16" s="117"/>
-      <c r="AK16" s="117"/>
-      <c r="AL16" s="117"/>
-      <c r="AM16" s="118"/>
-    </row>
-    <row r="17" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="80"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="68"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="116"/>
-      <c r="AG17" s="117"/>
-      <c r="AH17" s="117"/>
-      <c r="AI17" s="117"/>
-      <c r="AJ17" s="117"/>
-      <c r="AK17" s="117"/>
-      <c r="AL17" s="117"/>
-      <c r="AM17" s="118"/>
-    </row>
-    <row r="18" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="80"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="65"/>
-      <c r="X18" s="65"/>
-      <c r="Y18" s="65"/>
-      <c r="Z18" s="65"/>
-      <c r="AA18" s="65"/>
-      <c r="AB18" s="65"/>
-      <c r="AC18" s="65"/>
-      <c r="AD18" s="65"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="116"/>
-      <c r="AG18" s="117"/>
-      <c r="AH18" s="117"/>
-      <c r="AI18" s="117"/>
-      <c r="AJ18" s="117"/>
-      <c r="AK18" s="117"/>
-      <c r="AL18" s="117"/>
-      <c r="AM18" s="118"/>
-    </row>
-    <row r="19" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="80"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="63"/>
-      <c r="AF19" s="116"/>
-      <c r="AG19" s="117"/>
-      <c r="AH19" s="117"/>
-      <c r="AI19" s="117"/>
-      <c r="AJ19" s="117"/>
-      <c r="AK19" s="117"/>
-      <c r="AL19" s="117"/>
-      <c r="AM19" s="118"/>
-    </row>
-    <row r="20" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="80"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="63"/>
-      <c r="AF20" s="116"/>
-      <c r="AG20" s="117"/>
-      <c r="AH20" s="117"/>
-      <c r="AI20" s="117"/>
-      <c r="AJ20" s="117"/>
-      <c r="AK20" s="117"/>
-      <c r="AL20" s="117"/>
-      <c r="AM20" s="118"/>
-    </row>
-    <row r="21" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="80"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="63"/>
-      <c r="AF21" s="116"/>
-      <c r="AG21" s="117"/>
-      <c r="AH21" s="117"/>
-      <c r="AI21" s="117"/>
-      <c r="AJ21" s="117"/>
-      <c r="AK21" s="117"/>
-      <c r="AL21" s="117"/>
-      <c r="AM21" s="118"/>
-    </row>
-    <row r="22" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="116"/>
-      <c r="AG22" s="117"/>
-      <c r="AH22" s="117"/>
-      <c r="AI22" s="117"/>
-      <c r="AJ22" s="117"/>
-      <c r="AK22" s="117"/>
-      <c r="AL22" s="117"/>
-      <c r="AM22" s="118"/>
-    </row>
-    <row r="23" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="87"/>
+      <c r="AM8" s="88"/>
+    </row>
+    <row r="9" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="89"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="71"/>
+      <c r="U9" s="71"/>
+      <c r="V9" s="71"/>
+      <c r="W9" s="71"/>
+      <c r="X9" s="71"/>
+      <c r="Y9" s="71"/>
+      <c r="Z9" s="71"/>
+      <c r="AA9" s="71"/>
+      <c r="AB9" s="71"/>
+      <c r="AC9" s="71"/>
+      <c r="AD9" s="71"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="116"/>
+      <c r="AG9" s="117"/>
+      <c r="AH9" s="117"/>
+      <c r="AI9" s="117"/>
+      <c r="AJ9" s="117"/>
+      <c r="AK9" s="117"/>
+      <c r="AL9" s="117"/>
+      <c r="AM9" s="118"/>
+    </row>
+    <row r="10" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="89"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="72"/>
+      <c r="AF10" s="119"/>
+      <c r="AG10" s="120"/>
+      <c r="AH10" s="120"/>
+      <c r="AI10" s="120"/>
+      <c r="AJ10" s="120"/>
+      <c r="AK10" s="120"/>
+      <c r="AL10" s="120"/>
+      <c r="AM10" s="121"/>
+    </row>
+    <row r="11" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="89"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+      <c r="R11" s="71"/>
+      <c r="S11" s="71"/>
+      <c r="T11" s="71"/>
+      <c r="U11" s="71"/>
+      <c r="V11" s="71"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="71"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="71"/>
+      <c r="AA11" s="71"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="71"/>
+      <c r="AE11" s="72"/>
+      <c r="AF11" s="119"/>
+      <c r="AG11" s="120"/>
+      <c r="AH11" s="120"/>
+      <c r="AI11" s="120"/>
+      <c r="AJ11" s="120"/>
+      <c r="AK11" s="120"/>
+      <c r="AL11" s="120"/>
+      <c r="AM11" s="121"/>
+    </row>
+    <row r="12" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="89"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="77"/>
+      <c r="AE12" s="78"/>
+      <c r="AF12" s="119"/>
+      <c r="AG12" s="120"/>
+      <c r="AH12" s="120"/>
+      <c r="AI12" s="120"/>
+      <c r="AJ12" s="120"/>
+      <c r="AK12" s="120"/>
+      <c r="AL12" s="120"/>
+      <c r="AM12" s="121"/>
+    </row>
+    <row r="13" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="89"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="119"/>
+      <c r="AG13" s="120"/>
+      <c r="AH13" s="120"/>
+      <c r="AI13" s="120"/>
+      <c r="AJ13" s="120"/>
+      <c r="AK13" s="120"/>
+      <c r="AL13" s="120"/>
+      <c r="AM13" s="121"/>
+    </row>
+    <row r="14" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="89"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="71"/>
+      <c r="U14" s="71"/>
+      <c r="V14" s="71"/>
+      <c r="W14" s="71"/>
+      <c r="X14" s="71"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="71"/>
+      <c r="AA14" s="71"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="71"/>
+      <c r="AE14" s="72"/>
+      <c r="AF14" s="119"/>
+      <c r="AG14" s="120"/>
+      <c r="AH14" s="120"/>
+      <c r="AI14" s="120"/>
+      <c r="AJ14" s="120"/>
+      <c r="AK14" s="120"/>
+      <c r="AL14" s="120"/>
+      <c r="AM14" s="121"/>
+    </row>
+    <row r="15" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="89"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
+      <c r="U15" s="71"/>
+      <c r="V15" s="71"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="71"/>
+      <c r="Y15" s="71"/>
+      <c r="Z15" s="71"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="71"/>
+      <c r="AC15" s="71"/>
+      <c r="AD15" s="71"/>
+      <c r="AE15" s="72"/>
+      <c r="AF15" s="119"/>
+      <c r="AG15" s="120"/>
+      <c r="AH15" s="120"/>
+      <c r="AI15" s="120"/>
+      <c r="AJ15" s="120"/>
+      <c r="AK15" s="120"/>
+      <c r="AL15" s="120"/>
+      <c r="AM15" s="121"/>
+    </row>
+    <row r="16" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="89"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="71"/>
+      <c r="AE16" s="72"/>
+      <c r="AF16" s="119"/>
+      <c r="AG16" s="120"/>
+      <c r="AH16" s="120"/>
+      <c r="AI16" s="120"/>
+      <c r="AJ16" s="120"/>
+      <c r="AK16" s="120"/>
+      <c r="AL16" s="120"/>
+      <c r="AM16" s="121"/>
+    </row>
+    <row r="17" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="89"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="77"/>
+      <c r="AA17" s="77"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="77"/>
+      <c r="AE17" s="78"/>
+      <c r="AF17" s="119"/>
+      <c r="AG17" s="120"/>
+      <c r="AH17" s="120"/>
+      <c r="AI17" s="120"/>
+      <c r="AJ17" s="120"/>
+      <c r="AK17" s="120"/>
+      <c r="AL17" s="120"/>
+      <c r="AM17" s="121"/>
+    </row>
+    <row r="18" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="89"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="119"/>
+      <c r="AG18" s="120"/>
+      <c r="AH18" s="120"/>
+      <c r="AI18" s="120"/>
+      <c r="AJ18" s="120"/>
+      <c r="AK18" s="120"/>
+      <c r="AL18" s="120"/>
+      <c r="AM18" s="121"/>
+    </row>
+    <row r="19" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="89"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="71"/>
+      <c r="AC19" s="71"/>
+      <c r="AD19" s="71"/>
+      <c r="AE19" s="72"/>
+      <c r="AF19" s="119"/>
+      <c r="AG19" s="120"/>
+      <c r="AH19" s="120"/>
+      <c r="AI19" s="120"/>
+      <c r="AJ19" s="120"/>
+      <c r="AK19" s="120"/>
+      <c r="AL19" s="120"/>
+      <c r="AM19" s="121"/>
+    </row>
+    <row r="20" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="89"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="71"/>
+      <c r="AE20" s="72"/>
+      <c r="AF20" s="119"/>
+      <c r="AG20" s="120"/>
+      <c r="AH20" s="120"/>
+      <c r="AI20" s="120"/>
+      <c r="AJ20" s="120"/>
+      <c r="AK20" s="120"/>
+      <c r="AL20" s="120"/>
+      <c r="AM20" s="121"/>
+    </row>
+    <row r="21" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="89"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="71"/>
+      <c r="AE21" s="72"/>
+      <c r="AF21" s="119"/>
+      <c r="AG21" s="120"/>
+      <c r="AH21" s="120"/>
+      <c r="AI21" s="120"/>
+      <c r="AJ21" s="120"/>
+      <c r="AK21" s="120"/>
+      <c r="AL21" s="120"/>
+      <c r="AM21" s="121"/>
+    </row>
+    <row r="22" spans="1:39" s="15" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="92"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="94"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="68"/>
+      <c r="V22" s="68"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="68"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="68"/>
+      <c r="AC22" s="68"/>
+      <c r="AD22" s="68"/>
+      <c r="AE22" s="69"/>
+      <c r="AF22" s="119"/>
+      <c r="AG22" s="120"/>
+      <c r="AH22" s="120"/>
+      <c r="AI22" s="120"/>
+      <c r="AJ22" s="120"/>
+      <c r="AK22" s="120"/>
+      <c r="AL22" s="120"/>
+      <c r="AM22" s="121"/>
+    </row>
+    <row r="23" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="50">
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="59">
         <f>SUM(J8:K22)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="50">
+      <c r="I23" s="60"/>
+      <c r="J23" s="59">
         <f>SUM(J8:K22)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="51"/>
-      <c r="L23" s="50">
+      <c r="K23" s="60"/>
+      <c r="L23" s="59">
         <f>SUM(L8:M22)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="51"/>
-      <c r="N23" s="50">
+      <c r="M23" s="60"/>
+      <c r="N23" s="59">
         <f>SUM(N8:O22)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="51"/>
-      <c r="P23" s="50">
+      <c r="O23" s="60"/>
+      <c r="P23" s="59">
         <f>SUM(P8:Q22)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="51"/>
-      <c r="R23" s="50">
+      <c r="Q23" s="60"/>
+      <c r="R23" s="59">
         <f>SUM(R8:S22)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="51"/>
-      <c r="T23" s="50">
+      <c r="S23" s="60"/>
+      <c r="T23" s="59">
         <f>SUM(T8:U22)</f>
         <v>0</v>
       </c>
-      <c r="U23" s="51"/>
-      <c r="V23" s="50">
+      <c r="U23" s="60"/>
+      <c r="V23" s="59">
         <f>SUM(V8:W22)</f>
         <v>0</v>
       </c>
-      <c r="W23" s="51"/>
-      <c r="X23" s="50">
+      <c r="W23" s="60"/>
+      <c r="X23" s="59">
         <f>SUM(X8:Y22)</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="50">
+      <c r="Y23" s="60"/>
+      <c r="Z23" s="59">
         <f>SUM(Z8:AA22)</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="51"/>
-      <c r="AB23" s="50">
+      <c r="AA23" s="60"/>
+      <c r="AB23" s="59">
         <f>SUM(AB8:AC22)</f>
         <v>0</v>
       </c>
-      <c r="AC23" s="51"/>
-      <c r="AD23" s="50">
+      <c r="AC23" s="60"/>
+      <c r="AD23" s="59">
         <f>SUM(AD8:AE22)</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="51"/>
-      <c r="AF23" s="52">
+      <c r="AE23" s="60"/>
+      <c r="AF23" s="61">
         <f>SUM(H23:AE23)</f>
         <v>0</v>
       </c>
-      <c r="AG23" s="52"/>
-      <c r="AH23" s="89" t="s">
+      <c r="AG23" s="61"/>
+      <c r="AH23" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="AI23" s="89"/>
-      <c r="AJ23" s="89"/>
-      <c r="AK23" s="89"/>
-      <c r="AL23" s="89"/>
-      <c r="AM23" s="89"/>
-    </row>
-    <row r="24" spans="1:39" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI23" s="98"/>
+      <c r="AJ23" s="98"/>
+      <c r="AK23" s="98"/>
+      <c r="AL23" s="98"/>
+      <c r="AM23" s="98"/>
+    </row>
+    <row r="24" spans="1:39" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -3590,17 +3593,17 @@
       <c r="AL24" s="6"/>
       <c r="AM24" s="6"/>
     </row>
-    <row r="25" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="90" t="s">
+      <c r="D25" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
       <c r="G25" s="1" t="s">
         <v>14</v>
       </c>
@@ -3652,755 +3655,755 @@
       <c r="AE25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AF25" s="52" t="s">
+      <c r="AF25" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="AG25" s="52"/>
-      <c r="AH25" s="52"/>
-      <c r="AI25" s="52"/>
-      <c r="AJ25" s="52"/>
-      <c r="AK25" s="52"/>
-      <c r="AL25" s="52"/>
-      <c r="AM25" s="52"/>
-    </row>
-    <row r="26" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="107" t="s">
+      <c r="AG25" s="61"/>
+      <c r="AH25" s="61"/>
+      <c r="AI25" s="61"/>
+      <c r="AJ25" s="61"/>
+      <c r="AK25" s="61"/>
+      <c r="AL25" s="61"/>
+      <c r="AM25" s="61"/>
+    </row>
+    <row r="26" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="108"/>
-      <c r="C26" s="108"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="110" t="s">
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="106" t="s">
+      <c r="F26" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="111"/>
-      <c r="H26" s="112"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
-      <c r="L26" s="106"/>
-      <c r="M26" s="106"/>
-      <c r="N26" s="106"/>
-      <c r="O26" s="106"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="106"/>
-      <c r="R26" s="106"/>
-      <c r="S26" s="106"/>
-      <c r="T26" s="106"/>
-      <c r="U26" s="106"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="106"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="106"/>
-      <c r="AC26" s="106"/>
-      <c r="AD26" s="106"/>
-      <c r="AE26" s="111"/>
-      <c r="AF26" s="77" t="s">
+      <c r="G26" s="114"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="109"/>
+      <c r="P26" s="109"/>
+      <c r="Q26" s="109"/>
+      <c r="R26" s="109"/>
+      <c r="S26" s="109"/>
+      <c r="T26" s="109"/>
+      <c r="U26" s="109"/>
+      <c r="V26" s="109"/>
+      <c r="W26" s="109"/>
+      <c r="X26" s="109"/>
+      <c r="Y26" s="109"/>
+      <c r="Z26" s="109"/>
+      <c r="AA26" s="109"/>
+      <c r="AB26" s="109"/>
+      <c r="AC26" s="109"/>
+      <c r="AD26" s="109"/>
+      <c r="AE26" s="114"/>
+      <c r="AF26" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="AG26" s="78"/>
-      <c r="AH26" s="78"/>
-      <c r="AI26" s="78"/>
-      <c r="AJ26" s="78"/>
-      <c r="AK26" s="78"/>
-      <c r="AL26" s="78"/>
-      <c r="AM26" s="79"/>
-    </row>
-    <row r="27" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG26" s="87"/>
+      <c r="AH26" s="87"/>
+      <c r="AI26" s="87"/>
+      <c r="AJ26" s="87"/>
+      <c r="AK26" s="87"/>
+      <c r="AL26" s="87"/>
+      <c r="AM26" s="88"/>
+    </row>
+    <row r="27" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="62" t="s">
+      <c r="E27" s="100"/>
+      <c r="F27" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="62"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="62"/>
-      <c r="AD27" s="62"/>
-      <c r="AE27" s="63"/>
-      <c r="AF27" s="94"/>
-      <c r="AG27" s="95"/>
-      <c r="AH27" s="95"/>
-      <c r="AI27" s="95"/>
-      <c r="AJ27" s="95"/>
-      <c r="AK27" s="95"/>
-      <c r="AL27" s="95"/>
-      <c r="AM27" s="96"/>
-    </row>
-    <row r="28" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="100"/>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="68" t="s">
+      <c r="G27" s="72"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="71"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="71"/>
+      <c r="AC27" s="71"/>
+      <c r="AD27" s="71"/>
+      <c r="AE27" s="72"/>
+      <c r="AF27" s="103"/>
+      <c r="AG27" s="104"/>
+      <c r="AH27" s="104"/>
+      <c r="AI27" s="104"/>
+      <c r="AJ27" s="104"/>
+      <c r="AK27" s="104"/>
+      <c r="AL27" s="104"/>
+      <c r="AM27" s="105"/>
+    </row>
+    <row r="28" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="32"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="69"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="68"/>
-      <c r="AD28" s="68"/>
-      <c r="AE28" s="69"/>
-      <c r="AF28" s="97"/>
-      <c r="AG28" s="98"/>
-      <c r="AH28" s="98"/>
-      <c r="AI28" s="98"/>
-      <c r="AJ28" s="98"/>
-      <c r="AK28" s="98"/>
-      <c r="AL28" s="98"/>
-      <c r="AM28" s="99"/>
-    </row>
-    <row r="29" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="100"/>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="91" t="s">
+      <c r="G28" s="78"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="77"/>
+      <c r="AC28" s="77"/>
+      <c r="AD28" s="77"/>
+      <c r="AE28" s="78"/>
+      <c r="AF28" s="106"/>
+      <c r="AG28" s="107"/>
+      <c r="AH28" s="107"/>
+      <c r="AI28" s="107"/>
+      <c r="AJ28" s="107"/>
+      <c r="AK28" s="107"/>
+      <c r="AL28" s="107"/>
+      <c r="AM28" s="108"/>
+    </row>
+    <row r="29" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="65" t="s">
+      <c r="F29" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="66"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="65"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="65"/>
-      <c r="L29" s="65"/>
-      <c r="M29" s="65"/>
-      <c r="N29" s="65"/>
-      <c r="O29" s="65"/>
-      <c r="P29" s="65"/>
-      <c r="Q29" s="65"/>
-      <c r="R29" s="65"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="65"/>
-      <c r="X29" s="65"/>
-      <c r="Y29" s="65"/>
-      <c r="Z29" s="65"/>
-      <c r="AA29" s="65"/>
-      <c r="AB29" s="65"/>
-      <c r="AC29" s="65"/>
-      <c r="AD29" s="65"/>
-      <c r="AE29" s="66"/>
-      <c r="AF29" s="97"/>
-      <c r="AG29" s="98"/>
-      <c r="AH29" s="98"/>
-      <c r="AI29" s="98"/>
-      <c r="AJ29" s="98"/>
-      <c r="AK29" s="98"/>
-      <c r="AL29" s="98"/>
-      <c r="AM29" s="99"/>
-    </row>
-    <row r="30" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="100"/>
-      <c r="B30" s="101"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="62" t="s">
+      <c r="G29" s="75"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="74"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="74"/>
+      <c r="AA29" s="74"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="75"/>
+      <c r="AF29" s="106"/>
+      <c r="AG29" s="107"/>
+      <c r="AH29" s="107"/>
+      <c r="AI29" s="107"/>
+      <c r="AJ29" s="107"/>
+      <c r="AK29" s="107"/>
+      <c r="AL29" s="107"/>
+      <c r="AM29" s="108"/>
+    </row>
+    <row r="30" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="63"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="62"/>
-      <c r="AE30" s="63"/>
-      <c r="AF30" s="97"/>
-      <c r="AG30" s="98"/>
-      <c r="AH30" s="98"/>
-      <c r="AI30" s="98"/>
-      <c r="AJ30" s="98"/>
-      <c r="AK30" s="98"/>
-      <c r="AL30" s="98"/>
-      <c r="AM30" s="99"/>
-    </row>
-    <row r="31" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="100"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="68" t="s">
+      <c r="G30" s="72"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="AD30" s="71"/>
+      <c r="AE30" s="72"/>
+      <c r="AF30" s="106"/>
+      <c r="AG30" s="107"/>
+      <c r="AH30" s="107"/>
+      <c r="AI30" s="107"/>
+      <c r="AJ30" s="107"/>
+      <c r="AK30" s="107"/>
+      <c r="AL30" s="107"/>
+      <c r="AM30" s="108"/>
+    </row>
+    <row r="31" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="69"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="68"/>
-      <c r="J31" s="68"/>
-      <c r="K31" s="68"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="68"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="68"/>
-      <c r="R31" s="68"/>
-      <c r="S31" s="68"/>
-      <c r="T31" s="68"/>
-      <c r="U31" s="68"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="68"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="68"/>
-      <c r="AA31" s="68"/>
-      <c r="AB31" s="68"/>
-      <c r="AC31" s="68"/>
-      <c r="AD31" s="68"/>
-      <c r="AE31" s="69"/>
-      <c r="AF31" s="97"/>
-      <c r="AG31" s="98"/>
-      <c r="AH31" s="98"/>
-      <c r="AI31" s="98"/>
-      <c r="AJ31" s="98"/>
-      <c r="AK31" s="98"/>
-      <c r="AL31" s="98"/>
-      <c r="AM31" s="99"/>
-    </row>
-    <row r="32" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="100"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="91" t="s">
+      <c r="G31" s="78"/>
+      <c r="H31" s="79"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="77"/>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="77"/>
+      <c r="AC31" s="77"/>
+      <c r="AD31" s="77"/>
+      <c r="AE31" s="78"/>
+      <c r="AF31" s="106"/>
+      <c r="AG31" s="107"/>
+      <c r="AH31" s="107"/>
+      <c r="AI31" s="107"/>
+      <c r="AJ31" s="107"/>
+      <c r="AK31" s="107"/>
+      <c r="AL31" s="107"/>
+      <c r="AM31" s="108"/>
+    </row>
+    <row r="32" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F32" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="66"/>
-      <c r="H32" s="67"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="65"/>
-      <c r="K32" s="65"/>
-      <c r="L32" s="65"/>
-      <c r="M32" s="65"/>
-      <c r="N32" s="65"/>
-      <c r="O32" s="65"/>
-      <c r="P32" s="65"/>
-      <c r="Q32" s="65"/>
-      <c r="R32" s="65"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="65"/>
-      <c r="X32" s="65"/>
-      <c r="Y32" s="65"/>
-      <c r="Z32" s="65"/>
-      <c r="AA32" s="65"/>
-      <c r="AB32" s="65"/>
-      <c r="AC32" s="65"/>
-      <c r="AD32" s="65"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="97"/>
-      <c r="AG32" s="98"/>
-      <c r="AH32" s="98"/>
-      <c r="AI32" s="98"/>
-      <c r="AJ32" s="98"/>
-      <c r="AK32" s="98"/>
-      <c r="AL32" s="98"/>
-      <c r="AM32" s="99"/>
-    </row>
-    <row r="33" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="100"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="62" t="s">
+      <c r="G32" s="75"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
+      <c r="M32" s="74"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="74"/>
+      <c r="T32" s="74"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="74"/>
+      <c r="X32" s="74"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="74"/>
+      <c r="AA32" s="74"/>
+      <c r="AB32" s="74"/>
+      <c r="AC32" s="74"/>
+      <c r="AD32" s="74"/>
+      <c r="AE32" s="75"/>
+      <c r="AF32" s="106"/>
+      <c r="AG32" s="107"/>
+      <c r="AH32" s="107"/>
+      <c r="AI32" s="107"/>
+      <c r="AJ32" s="107"/>
+      <c r="AK32" s="107"/>
+      <c r="AL32" s="107"/>
+      <c r="AM32" s="108"/>
+    </row>
+    <row r="33" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="35"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="100"/>
+      <c r="F33" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="63"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="62"/>
-      <c r="AB33" s="62"/>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="62"/>
-      <c r="AE33" s="63"/>
-      <c r="AF33" s="97"/>
-      <c r="AG33" s="98"/>
-      <c r="AH33" s="98"/>
-      <c r="AI33" s="98"/>
-      <c r="AJ33" s="98"/>
-      <c r="AK33" s="98"/>
-      <c r="AL33" s="98"/>
-      <c r="AM33" s="99"/>
-    </row>
-    <row r="34" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="100"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="68" t="s">
+      <c r="G33" s="72"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="71"/>
+      <c r="M33" s="71"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="71"/>
+      <c r="T33" s="71"/>
+      <c r="U33" s="71"/>
+      <c r="V33" s="71"/>
+      <c r="W33" s="71"/>
+      <c r="X33" s="71"/>
+      <c r="Y33" s="71"/>
+      <c r="Z33" s="71"/>
+      <c r="AA33" s="71"/>
+      <c r="AB33" s="71"/>
+      <c r="AC33" s="71"/>
+      <c r="AD33" s="71"/>
+      <c r="AE33" s="72"/>
+      <c r="AF33" s="106"/>
+      <c r="AG33" s="107"/>
+      <c r="AH33" s="107"/>
+      <c r="AI33" s="107"/>
+      <c r="AJ33" s="107"/>
+      <c r="AK33" s="107"/>
+      <c r="AL33" s="107"/>
+      <c r="AM33" s="108"/>
+    </row>
+    <row r="34" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="69"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="68"/>
-      <c r="S34" s="68"/>
-      <c r="T34" s="68"/>
-      <c r="U34" s="68"/>
-      <c r="V34" s="68"/>
-      <c r="W34" s="68"/>
-      <c r="X34" s="68"/>
-      <c r="Y34" s="68"/>
-      <c r="Z34" s="68"/>
-      <c r="AA34" s="68"/>
-      <c r="AB34" s="68"/>
-      <c r="AC34" s="68"/>
-      <c r="AD34" s="68"/>
-      <c r="AE34" s="69"/>
-      <c r="AF34" s="97"/>
-      <c r="AG34" s="98"/>
-      <c r="AH34" s="98"/>
-      <c r="AI34" s="98"/>
-      <c r="AJ34" s="98"/>
-      <c r="AK34" s="98"/>
-      <c r="AL34" s="98"/>
-      <c r="AM34" s="99"/>
-    </row>
-    <row r="35" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="100"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="91" t="s">
+      <c r="G34" s="78"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
+      <c r="M34" s="77"/>
+      <c r="N34" s="77"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="77"/>
+      <c r="Q34" s="77"/>
+      <c r="R34" s="77"/>
+      <c r="S34" s="77"/>
+      <c r="T34" s="77"/>
+      <c r="U34" s="77"/>
+      <c r="V34" s="77"/>
+      <c r="W34" s="77"/>
+      <c r="X34" s="77"/>
+      <c r="Y34" s="77"/>
+      <c r="Z34" s="77"/>
+      <c r="AA34" s="77"/>
+      <c r="AB34" s="77"/>
+      <c r="AC34" s="77"/>
+      <c r="AD34" s="77"/>
+      <c r="AE34" s="78"/>
+      <c r="AF34" s="106"/>
+      <c r="AG34" s="107"/>
+      <c r="AH34" s="107"/>
+      <c r="AI34" s="107"/>
+      <c r="AJ34" s="107"/>
+      <c r="AK34" s="107"/>
+      <c r="AL34" s="107"/>
+      <c r="AM34" s="108"/>
+    </row>
+    <row r="35" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="35"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="66"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="65"/>
-      <c r="J35" s="65"/>
-      <c r="K35" s="65"/>
-      <c r="L35" s="65"/>
-      <c r="M35" s="65"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="65"/>
-      <c r="P35" s="65"/>
-      <c r="Q35" s="65"/>
-      <c r="R35" s="65"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="65"/>
-      <c r="X35" s="65"/>
-      <c r="Y35" s="65"/>
-      <c r="Z35" s="65"/>
-      <c r="AA35" s="65"/>
-      <c r="AB35" s="65"/>
-      <c r="AC35" s="65"/>
-      <c r="AD35" s="65"/>
-      <c r="AE35" s="66"/>
-      <c r="AF35" s="97"/>
-      <c r="AG35" s="98"/>
-      <c r="AH35" s="98"/>
-      <c r="AI35" s="98"/>
-      <c r="AJ35" s="98"/>
-      <c r="AK35" s="98"/>
-      <c r="AL35" s="98"/>
-      <c r="AM35" s="99"/>
-    </row>
-    <row r="36" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="100"/>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="62" t="s">
+      <c r="G35" s="75"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="74"/>
+      <c r="L35" s="74"/>
+      <c r="M35" s="74"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="74"/>
+      <c r="U35" s="74"/>
+      <c r="V35" s="74"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="74"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="74"/>
+      <c r="AD35" s="74"/>
+      <c r="AE35" s="75"/>
+      <c r="AF35" s="106"/>
+      <c r="AG35" s="107"/>
+      <c r="AH35" s="107"/>
+      <c r="AI35" s="107"/>
+      <c r="AJ35" s="107"/>
+      <c r="AK35" s="107"/>
+      <c r="AL35" s="107"/>
+      <c r="AM35" s="108"/>
+    </row>
+    <row r="36" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="35"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="63"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="62"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
-      <c r="AC36" s="62"/>
-      <c r="AD36" s="62"/>
-      <c r="AE36" s="63"/>
-      <c r="AF36" s="97"/>
-      <c r="AG36" s="98"/>
-      <c r="AH36" s="98"/>
-      <c r="AI36" s="98"/>
-      <c r="AJ36" s="98"/>
-      <c r="AK36" s="98"/>
-      <c r="AL36" s="98"/>
-      <c r="AM36" s="99"/>
-    </row>
-    <row r="37" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="100"/>
-      <c r="B37" s="101"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="68" t="s">
+      <c r="G36" s="72"/>
+      <c r="H36" s="73"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="71"/>
+      <c r="T36" s="71"/>
+      <c r="U36" s="71"/>
+      <c r="V36" s="71"/>
+      <c r="W36" s="71"/>
+      <c r="X36" s="71"/>
+      <c r="Y36" s="71"/>
+      <c r="Z36" s="71"/>
+      <c r="AA36" s="71"/>
+      <c r="AB36" s="71"/>
+      <c r="AC36" s="71"/>
+      <c r="AD36" s="71"/>
+      <c r="AE36" s="72"/>
+      <c r="AF36" s="106"/>
+      <c r="AG36" s="107"/>
+      <c r="AH36" s="107"/>
+      <c r="AI36" s="107"/>
+      <c r="AJ36" s="107"/>
+      <c r="AK36" s="107"/>
+      <c r="AL36" s="107"/>
+      <c r="AM36" s="108"/>
+    </row>
+    <row r="37" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="35"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="69"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="68"/>
-      <c r="M37" s="68"/>
-      <c r="N37" s="68"/>
-      <c r="O37" s="68"/>
-      <c r="P37" s="68"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="68"/>
-      <c r="U37" s="68"/>
-      <c r="V37" s="68"/>
-      <c r="W37" s="68"/>
-      <c r="X37" s="68"/>
-      <c r="Y37" s="68"/>
-      <c r="Z37" s="68"/>
-      <c r="AA37" s="68"/>
-      <c r="AB37" s="68"/>
-      <c r="AC37" s="68"/>
-      <c r="AD37" s="68"/>
-      <c r="AE37" s="69"/>
-      <c r="AF37" s="97"/>
-      <c r="AG37" s="98"/>
-      <c r="AH37" s="98"/>
-      <c r="AI37" s="98"/>
-      <c r="AJ37" s="98"/>
-      <c r="AK37" s="98"/>
-      <c r="AL37" s="98"/>
-      <c r="AM37" s="99"/>
-    </row>
-    <row r="38" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="100"/>
-      <c r="B38" s="101"/>
-      <c r="C38" s="101"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="91" t="s">
+      <c r="G37" s="78"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
+      <c r="M37" s="77"/>
+      <c r="N37" s="77"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="77"/>
+      <c r="Q37" s="77"/>
+      <c r="R37" s="77"/>
+      <c r="S37" s="77"/>
+      <c r="T37" s="77"/>
+      <c r="U37" s="77"/>
+      <c r="V37" s="77"/>
+      <c r="W37" s="77"/>
+      <c r="X37" s="77"/>
+      <c r="Y37" s="77"/>
+      <c r="Z37" s="77"/>
+      <c r="AA37" s="77"/>
+      <c r="AB37" s="77"/>
+      <c r="AC37" s="77"/>
+      <c r="AD37" s="77"/>
+      <c r="AE37" s="78"/>
+      <c r="AF37" s="106"/>
+      <c r="AG37" s="107"/>
+      <c r="AH37" s="107"/>
+      <c r="AI37" s="107"/>
+      <c r="AJ37" s="107"/>
+      <c r="AK37" s="107"/>
+      <c r="AL37" s="107"/>
+      <c r="AM37" s="108"/>
+    </row>
+    <row r="38" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="35"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="65" t="s">
+      <c r="F38" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="G38" s="66"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
-      <c r="S38" s="65"/>
-      <c r="T38" s="65"/>
-      <c r="U38" s="65"/>
-      <c r="V38" s="65"/>
-      <c r="W38" s="65"/>
-      <c r="X38" s="65"/>
-      <c r="Y38" s="65"/>
-      <c r="Z38" s="65"/>
-      <c r="AA38" s="65"/>
-      <c r="AB38" s="65"/>
-      <c r="AC38" s="65"/>
-      <c r="AD38" s="65"/>
-      <c r="AE38" s="66"/>
-      <c r="AF38" s="97"/>
-      <c r="AG38" s="98"/>
-      <c r="AH38" s="98"/>
-      <c r="AI38" s="98"/>
-      <c r="AJ38" s="98"/>
-      <c r="AK38" s="98"/>
-      <c r="AL38" s="98"/>
-      <c r="AM38" s="99"/>
-    </row>
-    <row r="39" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="100"/>
-      <c r="B39" s="101"/>
-      <c r="C39" s="101"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="62" t="s">
+      <c r="G38" s="75"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="74"/>
+      <c r="K38" s="74"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
+      <c r="S38" s="74"/>
+      <c r="T38" s="74"/>
+      <c r="U38" s="74"/>
+      <c r="V38" s="74"/>
+      <c r="W38" s="74"/>
+      <c r="X38" s="74"/>
+      <c r="Y38" s="74"/>
+      <c r="Z38" s="74"/>
+      <c r="AA38" s="74"/>
+      <c r="AB38" s="74"/>
+      <c r="AC38" s="74"/>
+      <c r="AD38" s="74"/>
+      <c r="AE38" s="75"/>
+      <c r="AF38" s="106"/>
+      <c r="AG38" s="107"/>
+      <c r="AH38" s="107"/>
+      <c r="AI38" s="107"/>
+      <c r="AJ38" s="107"/>
+      <c r="AK38" s="107"/>
+      <c r="AL38" s="107"/>
+      <c r="AM38" s="108"/>
+    </row>
+    <row r="39" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="35"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="63"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="62"/>
-      <c r="R39" s="62"/>
-      <c r="S39" s="62"/>
-      <c r="T39" s="62"/>
-      <c r="U39" s="62"/>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
-      <c r="AD39" s="62"/>
-      <c r="AE39" s="63"/>
-      <c r="AF39" s="97"/>
-      <c r="AG39" s="98"/>
-      <c r="AH39" s="98"/>
-      <c r="AI39" s="98"/>
-      <c r="AJ39" s="98"/>
-      <c r="AK39" s="98"/>
-      <c r="AL39" s="98"/>
-      <c r="AM39" s="99"/>
-    </row>
-    <row r="40" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="100"/>
-      <c r="B40" s="101"/>
-      <c r="C40" s="101"/>
-      <c r="D40" s="102"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="68" t="s">
+      <c r="G39" s="72"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="71"/>
+      <c r="U39" s="71"/>
+      <c r="V39" s="71"/>
+      <c r="W39" s="71"/>
+      <c r="X39" s="71"/>
+      <c r="Y39" s="71"/>
+      <c r="Z39" s="71"/>
+      <c r="AA39" s="71"/>
+      <c r="AB39" s="71"/>
+      <c r="AC39" s="71"/>
+      <c r="AD39" s="71"/>
+      <c r="AE39" s="72"/>
+      <c r="AF39" s="106"/>
+      <c r="AG39" s="107"/>
+      <c r="AH39" s="107"/>
+      <c r="AI39" s="107"/>
+      <c r="AJ39" s="107"/>
+      <c r="AK39" s="107"/>
+      <c r="AL39" s="107"/>
+      <c r="AM39" s="108"/>
+    </row>
+    <row r="40" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="35"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="102"/>
+      <c r="F40" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="69"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
-      <c r="R40" s="68"/>
-      <c r="S40" s="68"/>
-      <c r="T40" s="68"/>
-      <c r="U40" s="68"/>
-      <c r="V40" s="68"/>
-      <c r="W40" s="68"/>
-      <c r="X40" s="68"/>
-      <c r="Y40" s="68"/>
-      <c r="Z40" s="68"/>
-      <c r="AA40" s="68"/>
-      <c r="AB40" s="68"/>
-      <c r="AC40" s="68"/>
-      <c r="AD40" s="68"/>
-      <c r="AE40" s="69"/>
-      <c r="AF40" s="97"/>
-      <c r="AG40" s="98"/>
-      <c r="AH40" s="98"/>
-      <c r="AI40" s="98"/>
-      <c r="AJ40" s="98"/>
-      <c r="AK40" s="98"/>
-      <c r="AL40" s="98"/>
-      <c r="AM40" s="99"/>
-    </row>
-    <row r="41" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="100"/>
-      <c r="B41" s="101"/>
-      <c r="C41" s="101"/>
-      <c r="D41" s="102"/>
-      <c r="E41" s="91" t="s">
+      <c r="G40" s="78"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="77"/>
+      <c r="R40" s="77"/>
+      <c r="S40" s="77"/>
+      <c r="T40" s="77"/>
+      <c r="U40" s="77"/>
+      <c r="V40" s="77"/>
+      <c r="W40" s="77"/>
+      <c r="X40" s="77"/>
+      <c r="Y40" s="77"/>
+      <c r="Z40" s="77"/>
+      <c r="AA40" s="77"/>
+      <c r="AB40" s="77"/>
+      <c r="AC40" s="77"/>
+      <c r="AD40" s="77"/>
+      <c r="AE40" s="78"/>
+      <c r="AF40" s="106"/>
+      <c r="AG40" s="107"/>
+      <c r="AH40" s="107"/>
+      <c r="AI40" s="107"/>
+      <c r="AJ40" s="107"/>
+      <c r="AK40" s="107"/>
+      <c r="AL40" s="107"/>
+      <c r="AM40" s="108"/>
+    </row>
+    <row r="41" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="35"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="100" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="65" t="s">
+      <c r="F41" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="65"/>
-      <c r="J41" s="65"/>
-      <c r="K41" s="65"/>
-      <c r="L41" s="65"/>
-      <c r="M41" s="65"/>
-      <c r="N41" s="65"/>
-      <c r="O41" s="65"/>
-      <c r="P41" s="65"/>
-      <c r="Q41" s="65"/>
-      <c r="R41" s="65"/>
-      <c r="S41" s="65"/>
-      <c r="T41" s="65"/>
-      <c r="U41" s="65"/>
-      <c r="V41" s="65"/>
-      <c r="W41" s="65"/>
-      <c r="X41" s="65"/>
-      <c r="Y41" s="65"/>
-      <c r="Z41" s="65"/>
-      <c r="AA41" s="65"/>
-      <c r="AB41" s="65"/>
-      <c r="AC41" s="65"/>
-      <c r="AD41" s="65"/>
-      <c r="AE41" s="66"/>
-      <c r="AF41" s="97"/>
-      <c r="AG41" s="98"/>
-      <c r="AH41" s="98"/>
-      <c r="AI41" s="98"/>
-      <c r="AJ41" s="98"/>
-      <c r="AK41" s="98"/>
-      <c r="AL41" s="98"/>
-      <c r="AM41" s="99"/>
-    </row>
-    <row r="42" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="100"/>
-      <c r="B42" s="101"/>
-      <c r="C42" s="101"/>
-      <c r="D42" s="102"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="62" t="s">
+      <c r="G41" s="75"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="74"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="74"/>
+      <c r="L41" s="74"/>
+      <c r="M41" s="74"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="74"/>
+      <c r="S41" s="74"/>
+      <c r="T41" s="74"/>
+      <c r="U41" s="74"/>
+      <c r="V41" s="74"/>
+      <c r="W41" s="74"/>
+      <c r="X41" s="74"/>
+      <c r="Y41" s="74"/>
+      <c r="Z41" s="74"/>
+      <c r="AA41" s="74"/>
+      <c r="AB41" s="74"/>
+      <c r="AC41" s="74"/>
+      <c r="AD41" s="74"/>
+      <c r="AE41" s="75"/>
+      <c r="AF41" s="106"/>
+      <c r="AG41" s="107"/>
+      <c r="AH41" s="107"/>
+      <c r="AI41" s="107"/>
+      <c r="AJ41" s="107"/>
+      <c r="AK41" s="107"/>
+      <c r="AL41" s="107"/>
+      <c r="AM41" s="108"/>
+    </row>
+    <row r="42" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="35"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="63"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="62"/>
-      <c r="R42" s="62"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="62"/>
-      <c r="U42" s="62"/>
-      <c r="V42" s="62"/>
-      <c r="W42" s="62"/>
-      <c r="X42" s="62"/>
-      <c r="Y42" s="62"/>
-      <c r="Z42" s="62"/>
-      <c r="AA42" s="62"/>
-      <c r="AB42" s="62"/>
-      <c r="AC42" s="62"/>
-      <c r="AD42" s="62"/>
-      <c r="AE42" s="63"/>
+      <c r="G42" s="72"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="71"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="71"/>
+      <c r="M42" s="71"/>
+      <c r="N42" s="71"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="71"/>
+      <c r="T42" s="71"/>
+      <c r="U42" s="71"/>
+      <c r="V42" s="71"/>
+      <c r="W42" s="71"/>
+      <c r="X42" s="71"/>
+      <c r="Y42" s="71"/>
+      <c r="Z42" s="71"/>
+      <c r="AA42" s="71"/>
+      <c r="AB42" s="71"/>
+      <c r="AC42" s="71"/>
+      <c r="AD42" s="71"/>
+      <c r="AE42" s="72"/>
       <c r="AF42" s="11" t="s">
         <v>55</v>
       </c>
@@ -4412,40 +4415,40 @@
       <c r="AL42" s="10"/>
       <c r="AM42" s="7"/>
     </row>
-    <row r="43" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="100"/>
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="68" t="s">
+    <row r="43" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="35"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="G43" s="69"/>
-      <c r="H43" s="70"/>
-      <c r="I43" s="68"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="68"/>
-      <c r="M43" s="68"/>
-      <c r="N43" s="68"/>
-      <c r="O43" s="68"/>
-      <c r="P43" s="68"/>
-      <c r="Q43" s="68"/>
-      <c r="R43" s="68"/>
-      <c r="S43" s="68"/>
-      <c r="T43" s="68"/>
-      <c r="U43" s="68"/>
-      <c r="V43" s="68"/>
-      <c r="W43" s="68"/>
-      <c r="X43" s="68"/>
-      <c r="Y43" s="68"/>
-      <c r="Z43" s="68"/>
-      <c r="AA43" s="68"/>
-      <c r="AB43" s="68"/>
-      <c r="AC43" s="68"/>
-      <c r="AD43" s="68"/>
-      <c r="AE43" s="69"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
+      <c r="S43" s="77"/>
+      <c r="T43" s="77"/>
+      <c r="U43" s="77"/>
+      <c r="V43" s="77"/>
+      <c r="W43" s="77"/>
+      <c r="X43" s="77"/>
+      <c r="Y43" s="77"/>
+      <c r="Z43" s="77"/>
+      <c r="AA43" s="77"/>
+      <c r="AB43" s="77"/>
+      <c r="AC43" s="77"/>
+      <c r="AD43" s="77"/>
+      <c r="AE43" s="78"/>
       <c r="AF43" s="9" t="s">
         <v>57</v>
       </c>
@@ -4457,42 +4460,42 @@
       <c r="AL43" s="10"/>
       <c r="AM43" s="7"/>
     </row>
-    <row r="44" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="100"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="91" t="s">
+    <row r="44" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="35"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="65" t="s">
+      <c r="F44" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="G44" s="66"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="65"/>
-      <c r="J44" s="65"/>
-      <c r="K44" s="65"/>
-      <c r="L44" s="65"/>
-      <c r="M44" s="65"/>
-      <c r="N44" s="65"/>
-      <c r="O44" s="65"/>
-      <c r="P44" s="65"/>
-      <c r="Q44" s="65"/>
-      <c r="R44" s="65"/>
-      <c r="S44" s="65"/>
-      <c r="T44" s="65"/>
-      <c r="U44" s="65"/>
-      <c r="V44" s="65"/>
-      <c r="W44" s="65"/>
-      <c r="X44" s="65"/>
-      <c r="Y44" s="65"/>
-      <c r="Z44" s="65"/>
-      <c r="AA44" s="65"/>
-      <c r="AB44" s="65"/>
-      <c r="AC44" s="65"/>
-      <c r="AD44" s="65"/>
-      <c r="AE44" s="66"/>
+      <c r="G44" s="75"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="74"/>
+      <c r="J44" s="74"/>
+      <c r="K44" s="74"/>
+      <c r="L44" s="74"/>
+      <c r="M44" s="74"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="74"/>
+      <c r="S44" s="74"/>
+      <c r="T44" s="74"/>
+      <c r="U44" s="74"/>
+      <c r="V44" s="74"/>
+      <c r="W44" s="74"/>
+      <c r="X44" s="74"/>
+      <c r="Y44" s="74"/>
+      <c r="Z44" s="74"/>
+      <c r="AA44" s="74"/>
+      <c r="AB44" s="74"/>
+      <c r="AC44" s="74"/>
+      <c r="AD44" s="74"/>
+      <c r="AE44" s="75"/>
       <c r="AF44" s="9" t="s">
         <v>60</v>
       </c>
@@ -4504,40 +4507,40 @@
       <c r="AL44" s="8"/>
       <c r="AM44" s="7"/>
     </row>
-    <row r="45" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="100"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="62" t="s">
+    <row r="45" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="35"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="100"/>
+      <c r="F45" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="63"/>
-      <c r="H45" s="64"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="62"/>
-      <c r="U45" s="62"/>
-      <c r="V45" s="62"/>
-      <c r="W45" s="62"/>
-      <c r="X45" s="62"/>
-      <c r="Y45" s="62"/>
-      <c r="Z45" s="62"/>
-      <c r="AA45" s="62"/>
-      <c r="AB45" s="62"/>
-      <c r="AC45" s="62"/>
-      <c r="AD45" s="62"/>
-      <c r="AE45" s="63"/>
+      <c r="G45" s="72"/>
+      <c r="H45" s="73"/>
+      <c r="I45" s="71"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="71"/>
+      <c r="M45" s="71"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="71"/>
+      <c r="T45" s="71"/>
+      <c r="U45" s="71"/>
+      <c r="V45" s="71"/>
+      <c r="W45" s="71"/>
+      <c r="X45" s="71"/>
+      <c r="Y45" s="71"/>
+      <c r="Z45" s="71"/>
+      <c r="AA45" s="71"/>
+      <c r="AB45" s="71"/>
+      <c r="AC45" s="71"/>
+      <c r="AD45" s="71"/>
+      <c r="AE45" s="72"/>
       <c r="AF45" s="9" t="s">
         <v>62</v>
       </c>
@@ -4549,40 +4552,40 @@
       <c r="AL45" s="8"/>
       <c r="AM45" s="7"/>
     </row>
-    <row r="46" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="103"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="104"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="92"/>
-      <c r="F46" s="59" t="s">
+    <row r="46" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="38"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="60"/>
-      <c r="H46" s="61"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="59"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="59"/>
-      <c r="N46" s="59"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="59"/>
-      <c r="Q46" s="59"/>
-      <c r="R46" s="59"/>
-      <c r="S46" s="59"/>
-      <c r="T46" s="59"/>
-      <c r="U46" s="59"/>
-      <c r="V46" s="59"/>
-      <c r="W46" s="59"/>
-      <c r="X46" s="59"/>
-      <c r="Y46" s="59"/>
-      <c r="Z46" s="59"/>
-      <c r="AA46" s="59"/>
-      <c r="AB46" s="59"/>
-      <c r="AC46" s="59"/>
-      <c r="AD46" s="59"/>
-      <c r="AE46" s="60"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="70"/>
+      <c r="I46" s="68"/>
+      <c r="J46" s="68"/>
+      <c r="K46" s="68"/>
+      <c r="L46" s="68"/>
+      <c r="M46" s="68"/>
+      <c r="N46" s="68"/>
+      <c r="O46" s="68"/>
+      <c r="P46" s="68"/>
+      <c r="Q46" s="68"/>
+      <c r="R46" s="68"/>
+      <c r="S46" s="68"/>
+      <c r="T46" s="68"/>
+      <c r="U46" s="68"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+      <c r="Z46" s="68"/>
+      <c r="AA46" s="68"/>
+      <c r="AB46" s="68"/>
+      <c r="AC46" s="68"/>
+      <c r="AD46" s="68"/>
+      <c r="AE46" s="69"/>
       <c r="AF46" s="9" t="s">
         <v>64</v>
       </c>
@@ -4594,91 +4597,91 @@
       <c r="AL46" s="8"/>
       <c r="AM46" s="7"/>
     </row>
-    <row r="47" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="57" t="s">
+    <row r="47" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="50">
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="67"/>
+      <c r="G47" s="67"/>
+      <c r="H47" s="59">
         <f>SUM(H26:I46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="51"/>
-      <c r="J47" s="50">
+      <c r="I47" s="60"/>
+      <c r="J47" s="59">
         <f t="shared" ref="J47" si="0">SUM(J26:K46)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="51"/>
-      <c r="L47" s="50">
+      <c r="K47" s="60"/>
+      <c r="L47" s="59">
         <f t="shared" ref="L47" si="1">SUM(L26:M46)</f>
         <v>0</v>
       </c>
-      <c r="M47" s="51"/>
-      <c r="N47" s="50">
+      <c r="M47" s="60"/>
+      <c r="N47" s="59">
         <f t="shared" ref="N47" si="2">SUM(N26:O46)</f>
         <v>0</v>
       </c>
-      <c r="O47" s="51"/>
-      <c r="P47" s="50">
+      <c r="O47" s="60"/>
+      <c r="P47" s="59">
         <f t="shared" ref="P47" si="3">SUM(P26:Q46)</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="51"/>
-      <c r="R47" s="50">
+      <c r="Q47" s="60"/>
+      <c r="R47" s="59">
         <f t="shared" ref="R47" si="4">SUM(R26:S46)</f>
         <v>0</v>
       </c>
-      <c r="S47" s="51"/>
-      <c r="T47" s="50">
+      <c r="S47" s="60"/>
+      <c r="T47" s="59">
         <f t="shared" ref="T47" si="5">SUM(T26:U46)</f>
         <v>0</v>
       </c>
-      <c r="U47" s="51"/>
-      <c r="V47" s="50">
+      <c r="U47" s="60"/>
+      <c r="V47" s="59">
         <f t="shared" ref="V47" si="6">SUM(V26:W46)</f>
         <v>0</v>
       </c>
-      <c r="W47" s="51"/>
-      <c r="X47" s="50">
+      <c r="W47" s="60"/>
+      <c r="X47" s="59">
         <f t="shared" ref="X47" si="7">SUM(X26:Y46)</f>
         <v>0</v>
       </c>
-      <c r="Y47" s="51"/>
-      <c r="Z47" s="50">
+      <c r="Y47" s="60"/>
+      <c r="Z47" s="59">
         <f t="shared" ref="Z47" si="8">SUM(Z26:AA46)</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="51"/>
-      <c r="AB47" s="50">
+      <c r="AA47" s="60"/>
+      <c r="AB47" s="59">
         <f t="shared" ref="AB47" si="9">SUM(AB26:AC46)</f>
         <v>0</v>
       </c>
-      <c r="AC47" s="51"/>
-      <c r="AD47" s="50">
+      <c r="AC47" s="60"/>
+      <c r="AD47" s="59">
         <f t="shared" ref="AD47" si="10">SUM(AD26:AE46)</f>
         <v>0</v>
       </c>
-      <c r="AE47" s="51"/>
-      <c r="AF47" s="52">
+      <c r="AE47" s="60"/>
+      <c r="AF47" s="61">
         <f>SUM(H47:AE47)</f>
         <v>0</v>
       </c>
-      <c r="AG47" s="52"/>
-      <c r="AH47" s="89" t="s">
+      <c r="AG47" s="61"/>
+      <c r="AH47" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="AI47" s="89"/>
-      <c r="AJ47" s="89"/>
-      <c r="AK47" s="89"/>
-      <c r="AL47" s="89"/>
-      <c r="AM47" s="89"/>
-    </row>
-    <row r="48" spans="1:39" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI47" s="98"/>
+      <c r="AJ47" s="98"/>
+      <c r="AK47" s="98"/>
+      <c r="AL47" s="98"/>
+      <c r="AM47" s="98"/>
+    </row>
+    <row r="48" spans="1:39" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -4719,17 +4722,17 @@
       <c r="AL48" s="6"/>
       <c r="AM48" s="6"/>
     </row>
-    <row r="49" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="90" t="s">
+      <c r="D49" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
+      <c r="E49" s="99"/>
+      <c r="F49" s="99"/>
       <c r="G49" s="1" t="s">
         <v>14</v>
       </c>
@@ -4781,864 +4784,864 @@
       <c r="AE49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AF49" s="52" t="s">
+      <c r="AF49" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="AG49" s="52"/>
-      <c r="AH49" s="52"/>
-      <c r="AI49" s="52"/>
-      <c r="AJ49" s="52"/>
-      <c r="AK49" s="52"/>
-      <c r="AL49" s="52"/>
-      <c r="AM49" s="52"/>
-    </row>
-    <row r="50" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="86" t="s">
+      <c r="AG49" s="61"/>
+      <c r="AH49" s="61"/>
+      <c r="AI49" s="61"/>
+      <c r="AJ49" s="61"/>
+      <c r="AK49" s="61"/>
+      <c r="AL49" s="61"/>
+      <c r="AM49" s="61"/>
+    </row>
+    <row r="50" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="87"/>
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="67"/>
-      <c r="I50" s="65"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="65"/>
-      <c r="L50" s="65"/>
-      <c r="M50" s="65"/>
-      <c r="N50" s="65"/>
-      <c r="O50" s="65"/>
-      <c r="P50" s="65"/>
-      <c r="Q50" s="65"/>
-      <c r="R50" s="65"/>
-      <c r="S50" s="65"/>
-      <c r="T50" s="65"/>
-      <c r="U50" s="65"/>
-      <c r="V50" s="65"/>
-      <c r="W50" s="65"/>
-      <c r="X50" s="65"/>
-      <c r="Y50" s="65"/>
-      <c r="Z50" s="65"/>
-      <c r="AA50" s="65"/>
-      <c r="AB50" s="65"/>
-      <c r="AC50" s="65"/>
-      <c r="AD50" s="65"/>
-      <c r="AE50" s="66"/>
-      <c r="AF50" s="77" t="s">
+      <c r="B50" s="96"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+      <c r="F50" s="96"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="74"/>
+      <c r="J50" s="74"/>
+      <c r="K50" s="74"/>
+      <c r="L50" s="74"/>
+      <c r="M50" s="74"/>
+      <c r="N50" s="74"/>
+      <c r="O50" s="74"/>
+      <c r="P50" s="74"/>
+      <c r="Q50" s="74"/>
+      <c r="R50" s="74"/>
+      <c r="S50" s="74"/>
+      <c r="T50" s="74"/>
+      <c r="U50" s="74"/>
+      <c r="V50" s="74"/>
+      <c r="W50" s="74"/>
+      <c r="X50" s="74"/>
+      <c r="Y50" s="74"/>
+      <c r="Z50" s="74"/>
+      <c r="AA50" s="74"/>
+      <c r="AB50" s="74"/>
+      <c r="AC50" s="74"/>
+      <c r="AD50" s="74"/>
+      <c r="AE50" s="75"/>
+      <c r="AF50" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="AG50" s="78"/>
-      <c r="AH50" s="78"/>
-      <c r="AI50" s="78"/>
-      <c r="AJ50" s="78"/>
-      <c r="AK50" s="78"/>
-      <c r="AL50" s="78"/>
-      <c r="AM50" s="79"/>
-    </row>
-    <row r="51" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="80"/>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="82"/>
-      <c r="H51" s="64"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="62"/>
-      <c r="Q51" s="62"/>
-      <c r="R51" s="62"/>
-      <c r="S51" s="62"/>
-      <c r="T51" s="62"/>
-      <c r="U51" s="62"/>
-      <c r="V51" s="62"/>
-      <c r="W51" s="62"/>
-      <c r="X51" s="62"/>
-      <c r="Y51" s="62"/>
-      <c r="Z51" s="62"/>
-      <c r="AA51" s="62"/>
-      <c r="AB51" s="62"/>
-      <c r="AC51" s="62"/>
-      <c r="AD51" s="62"/>
-      <c r="AE51" s="63"/>
-      <c r="AF51" s="71"/>
-      <c r="AG51" s="72"/>
-      <c r="AH51" s="72"/>
-      <c r="AI51" s="72"/>
-      <c r="AJ51" s="72"/>
-      <c r="AK51" s="72"/>
-      <c r="AL51" s="72"/>
-      <c r="AM51" s="73"/>
-    </row>
-    <row r="52" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="80"/>
-      <c r="B52" s="81"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="64"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="62"/>
-      <c r="T52" s="62"/>
-      <c r="U52" s="62"/>
-      <c r="V52" s="62"/>
-      <c r="W52" s="62"/>
-      <c r="X52" s="62"/>
-      <c r="Y52" s="62"/>
-      <c r="Z52" s="62"/>
-      <c r="AA52" s="62"/>
-      <c r="AB52" s="62"/>
-      <c r="AC52" s="62"/>
-      <c r="AD52" s="62"/>
-      <c r="AE52" s="63"/>
-      <c r="AF52" s="74"/>
-      <c r="AG52" s="75"/>
-      <c r="AH52" s="75"/>
-      <c r="AI52" s="75"/>
-      <c r="AJ52" s="75"/>
-      <c r="AK52" s="75"/>
-      <c r="AL52" s="75"/>
-      <c r="AM52" s="76"/>
-    </row>
-    <row r="53" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="80"/>
-      <c r="B53" s="81"/>
-      <c r="C53" s="81"/>
-      <c r="D53" s="81"/>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="62"/>
-      <c r="R53" s="62"/>
-      <c r="S53" s="62"/>
-      <c r="T53" s="62"/>
-      <c r="U53" s="62"/>
-      <c r="V53" s="62"/>
-      <c r="W53" s="62"/>
-      <c r="X53" s="62"/>
-      <c r="Y53" s="62"/>
-      <c r="Z53" s="62"/>
-      <c r="AA53" s="62"/>
-      <c r="AB53" s="62"/>
-      <c r="AC53" s="62"/>
-      <c r="AD53" s="62"/>
-      <c r="AE53" s="63"/>
-      <c r="AF53" s="74"/>
-      <c r="AG53" s="75"/>
-      <c r="AH53" s="75"/>
-      <c r="AI53" s="75"/>
-      <c r="AJ53" s="75"/>
-      <c r="AK53" s="75"/>
-      <c r="AL53" s="75"/>
-      <c r="AM53" s="76"/>
-    </row>
-    <row r="54" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="80"/>
-      <c r="B54" s="81"/>
-      <c r="C54" s="81"/>
-      <c r="D54" s="81"/>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="82"/>
-      <c r="H54" s="70"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="68"/>
-      <c r="N54" s="68"/>
-      <c r="O54" s="68"/>
-      <c r="P54" s="68"/>
-      <c r="Q54" s="68"/>
-      <c r="R54" s="68"/>
-      <c r="S54" s="68"/>
-      <c r="T54" s="68"/>
-      <c r="U54" s="68"/>
-      <c r="V54" s="68"/>
-      <c r="W54" s="68"/>
-      <c r="X54" s="68"/>
-      <c r="Y54" s="68"/>
-      <c r="Z54" s="68"/>
-      <c r="AA54" s="68"/>
-      <c r="AB54" s="68"/>
-      <c r="AC54" s="68"/>
-      <c r="AD54" s="68"/>
-      <c r="AE54" s="69"/>
-      <c r="AF54" s="74"/>
-      <c r="AG54" s="75"/>
-      <c r="AH54" s="75"/>
-      <c r="AI54" s="75"/>
-      <c r="AJ54" s="75"/>
-      <c r="AK54" s="75"/>
-      <c r="AL54" s="75"/>
-      <c r="AM54" s="76"/>
-    </row>
-    <row r="55" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="80"/>
-      <c r="B55" s="81"/>
-      <c r="C55" s="81"/>
-      <c r="D55" s="81"/>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="82"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="65"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="65"/>
-      <c r="L55" s="65"/>
-      <c r="M55" s="65"/>
-      <c r="N55" s="65"/>
-      <c r="O55" s="65"/>
-      <c r="P55" s="65"/>
-      <c r="Q55" s="65"/>
-      <c r="R55" s="65"/>
-      <c r="S55" s="65"/>
-      <c r="T55" s="65"/>
-      <c r="U55" s="65"/>
-      <c r="V55" s="65"/>
-      <c r="W55" s="65"/>
-      <c r="X55" s="65"/>
-      <c r="Y55" s="65"/>
-      <c r="Z55" s="65"/>
-      <c r="AA55" s="65"/>
-      <c r="AB55" s="65"/>
-      <c r="AC55" s="65"/>
-      <c r="AD55" s="65"/>
-      <c r="AE55" s="66"/>
-      <c r="AF55" s="74"/>
-      <c r="AG55" s="75"/>
-      <c r="AH55" s="75"/>
-      <c r="AI55" s="75"/>
-      <c r="AJ55" s="75"/>
-      <c r="AK55" s="75"/>
-      <c r="AL55" s="75"/>
-      <c r="AM55" s="76"/>
-    </row>
-    <row r="56" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="80"/>
-      <c r="B56" s="81"/>
-      <c r="C56" s="81"/>
-      <c r="D56" s="81"/>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="64"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="62"/>
-      <c r="R56" s="62"/>
-      <c r="S56" s="62"/>
-      <c r="T56" s="62"/>
-      <c r="U56" s="62"/>
-      <c r="V56" s="62"/>
-      <c r="W56" s="62"/>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="62"/>
-      <c r="Z56" s="62"/>
-      <c r="AA56" s="62"/>
-      <c r="AB56" s="62"/>
-      <c r="AC56" s="62"/>
-      <c r="AD56" s="62"/>
-      <c r="AE56" s="63"/>
-      <c r="AF56" s="74"/>
-      <c r="AG56" s="75"/>
-      <c r="AH56" s="75"/>
-      <c r="AI56" s="75"/>
-      <c r="AJ56" s="75"/>
-      <c r="AK56" s="75"/>
-      <c r="AL56" s="75"/>
-      <c r="AM56" s="76"/>
-    </row>
-    <row r="57" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="80"/>
-      <c r="B57" s="81"/>
-      <c r="C57" s="81"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="64"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
-      <c r="O57" s="62"/>
-      <c r="P57" s="62"/>
-      <c r="Q57" s="62"/>
-      <c r="R57" s="62"/>
-      <c r="S57" s="62"/>
-      <c r="T57" s="62"/>
-      <c r="U57" s="62"/>
-      <c r="V57" s="62"/>
-      <c r="W57" s="62"/>
-      <c r="X57" s="62"/>
-      <c r="Y57" s="62"/>
-      <c r="Z57" s="62"/>
-      <c r="AA57" s="62"/>
-      <c r="AB57" s="62"/>
-      <c r="AC57" s="62"/>
-      <c r="AD57" s="62"/>
-      <c r="AE57" s="63"/>
-      <c r="AF57" s="74"/>
-      <c r="AG57" s="75"/>
-      <c r="AH57" s="75"/>
-      <c r="AI57" s="75"/>
-      <c r="AJ57" s="75"/>
-      <c r="AK57" s="75"/>
-      <c r="AL57" s="75"/>
-      <c r="AM57" s="76"/>
-    </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A58" s="80"/>
-      <c r="B58" s="81"/>
-      <c r="C58" s="81"/>
-      <c r="D58" s="81"/>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="82"/>
-      <c r="H58" s="64"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="62"/>
-      <c r="M58" s="62"/>
-      <c r="N58" s="62"/>
-      <c r="O58" s="62"/>
-      <c r="P58" s="62"/>
-      <c r="Q58" s="62"/>
-      <c r="R58" s="62"/>
-      <c r="S58" s="62"/>
-      <c r="T58" s="62"/>
-      <c r="U58" s="62"/>
-      <c r="V58" s="62"/>
-      <c r="W58" s="62"/>
-      <c r="X58" s="62"/>
-      <c r="Y58" s="62"/>
-      <c r="Z58" s="62"/>
-      <c r="AA58" s="62"/>
-      <c r="AB58" s="62"/>
-      <c r="AC58" s="62"/>
-      <c r="AD58" s="62"/>
-      <c r="AE58" s="63"/>
-      <c r="AF58" s="74"/>
-      <c r="AG58" s="75"/>
-      <c r="AH58" s="75"/>
-      <c r="AI58" s="75"/>
-      <c r="AJ58" s="75"/>
-      <c r="AK58" s="75"/>
-      <c r="AL58" s="75"/>
-      <c r="AM58" s="76"/>
-    </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A59" s="83"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="61"/>
-      <c r="I59" s="59"/>
-      <c r="J59" s="59"/>
-      <c r="K59" s="59"/>
-      <c r="L59" s="59"/>
-      <c r="M59" s="59"/>
-      <c r="N59" s="59"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="59"/>
-      <c r="R59" s="59"/>
-      <c r="S59" s="59"/>
-      <c r="T59" s="59"/>
-      <c r="U59" s="59"/>
-      <c r="V59" s="59"/>
-      <c r="W59" s="59"/>
-      <c r="X59" s="59"/>
-      <c r="Y59" s="59"/>
-      <c r="Z59" s="59"/>
-      <c r="AA59" s="59"/>
-      <c r="AB59" s="59"/>
-      <c r="AC59" s="59"/>
-      <c r="AD59" s="59"/>
-      <c r="AE59" s="60"/>
-      <c r="AF59" s="74"/>
-      <c r="AG59" s="75"/>
-      <c r="AH59" s="75"/>
-      <c r="AI59" s="75"/>
-      <c r="AJ59" s="75"/>
-      <c r="AK59" s="75"/>
-      <c r="AL59" s="75"/>
-      <c r="AM59" s="76"/>
-    </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A60" s="57" t="s">
+      <c r="AG50" s="87"/>
+      <c r="AH50" s="87"/>
+      <c r="AI50" s="87"/>
+      <c r="AJ50" s="87"/>
+      <c r="AK50" s="87"/>
+      <c r="AL50" s="87"/>
+      <c r="AM50" s="88"/>
+    </row>
+    <row r="51" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="89"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="71"/>
+      <c r="J51" s="71"/>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
+      <c r="N51" s="71"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="71"/>
+      <c r="T51" s="71"/>
+      <c r="U51" s="71"/>
+      <c r="V51" s="71"/>
+      <c r="W51" s="71"/>
+      <c r="X51" s="71"/>
+      <c r="Y51" s="71"/>
+      <c r="Z51" s="71"/>
+      <c r="AA51" s="71"/>
+      <c r="AB51" s="71"/>
+      <c r="AC51" s="71"/>
+      <c r="AD51" s="71"/>
+      <c r="AE51" s="72"/>
+      <c r="AF51" s="80"/>
+      <c r="AG51" s="81"/>
+      <c r="AH51" s="81"/>
+      <c r="AI51" s="81"/>
+      <c r="AJ51" s="81"/>
+      <c r="AK51" s="81"/>
+      <c r="AL51" s="81"/>
+      <c r="AM51" s="82"/>
+    </row>
+    <row r="52" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="89"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="90"/>
+      <c r="D52" s="90"/>
+      <c r="E52" s="90"/>
+      <c r="F52" s="90"/>
+      <c r="G52" s="91"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="71"/>
+      <c r="J52" s="71"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+      <c r="N52" s="71"/>
+      <c r="O52" s="71"/>
+      <c r="P52" s="71"/>
+      <c r="Q52" s="71"/>
+      <c r="R52" s="71"/>
+      <c r="S52" s="71"/>
+      <c r="T52" s="71"/>
+      <c r="U52" s="71"/>
+      <c r="V52" s="71"/>
+      <c r="W52" s="71"/>
+      <c r="X52" s="71"/>
+      <c r="Y52" s="71"/>
+      <c r="Z52" s="71"/>
+      <c r="AA52" s="71"/>
+      <c r="AB52" s="71"/>
+      <c r="AC52" s="71"/>
+      <c r="AD52" s="71"/>
+      <c r="AE52" s="72"/>
+      <c r="AF52" s="83"/>
+      <c r="AG52" s="84"/>
+      <c r="AH52" s="84"/>
+      <c r="AI52" s="84"/>
+      <c r="AJ52" s="84"/>
+      <c r="AK52" s="84"/>
+      <c r="AL52" s="84"/>
+      <c r="AM52" s="85"/>
+    </row>
+    <row r="53" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="89"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="91"/>
+      <c r="H53" s="73"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
+      <c r="N53" s="71"/>
+      <c r="O53" s="71"/>
+      <c r="P53" s="71"/>
+      <c r="Q53" s="71"/>
+      <c r="R53" s="71"/>
+      <c r="S53" s="71"/>
+      <c r="T53" s="71"/>
+      <c r="U53" s="71"/>
+      <c r="V53" s="71"/>
+      <c r="W53" s="71"/>
+      <c r="X53" s="71"/>
+      <c r="Y53" s="71"/>
+      <c r="Z53" s="71"/>
+      <c r="AA53" s="71"/>
+      <c r="AB53" s="71"/>
+      <c r="AC53" s="71"/>
+      <c r="AD53" s="71"/>
+      <c r="AE53" s="72"/>
+      <c r="AF53" s="83"/>
+      <c r="AG53" s="84"/>
+      <c r="AH53" s="84"/>
+      <c r="AI53" s="84"/>
+      <c r="AJ53" s="84"/>
+      <c r="AK53" s="84"/>
+      <c r="AL53" s="84"/>
+      <c r="AM53" s="85"/>
+    </row>
+    <row r="54" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="89"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="77"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="77"/>
+      <c r="P54" s="77"/>
+      <c r="Q54" s="77"/>
+      <c r="R54" s="77"/>
+      <c r="S54" s="77"/>
+      <c r="T54" s="77"/>
+      <c r="U54" s="77"/>
+      <c r="V54" s="77"/>
+      <c r="W54" s="77"/>
+      <c r="X54" s="77"/>
+      <c r="Y54" s="77"/>
+      <c r="Z54" s="77"/>
+      <c r="AA54" s="77"/>
+      <c r="AB54" s="77"/>
+      <c r="AC54" s="77"/>
+      <c r="AD54" s="77"/>
+      <c r="AE54" s="78"/>
+      <c r="AF54" s="83"/>
+      <c r="AG54" s="84"/>
+      <c r="AH54" s="84"/>
+      <c r="AI54" s="84"/>
+      <c r="AJ54" s="84"/>
+      <c r="AK54" s="84"/>
+      <c r="AL54" s="84"/>
+      <c r="AM54" s="85"/>
+    </row>
+    <row r="55" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="89"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="90"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="90"/>
+      <c r="G55" s="91"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
+      <c r="K55" s="74"/>
+      <c r="L55" s="74"/>
+      <c r="M55" s="74"/>
+      <c r="N55" s="74"/>
+      <c r="O55" s="74"/>
+      <c r="P55" s="74"/>
+      <c r="Q55" s="74"/>
+      <c r="R55" s="74"/>
+      <c r="S55" s="74"/>
+      <c r="T55" s="74"/>
+      <c r="U55" s="74"/>
+      <c r="V55" s="74"/>
+      <c r="W55" s="74"/>
+      <c r="X55" s="74"/>
+      <c r="Y55" s="74"/>
+      <c r="Z55" s="74"/>
+      <c r="AA55" s="74"/>
+      <c r="AB55" s="74"/>
+      <c r="AC55" s="74"/>
+      <c r="AD55" s="74"/>
+      <c r="AE55" s="75"/>
+      <c r="AF55" s="83"/>
+      <c r="AG55" s="84"/>
+      <c r="AH55" s="84"/>
+      <c r="AI55" s="84"/>
+      <c r="AJ55" s="84"/>
+      <c r="AK55" s="84"/>
+      <c r="AL55" s="84"/>
+      <c r="AM55" s="85"/>
+    </row>
+    <row r="56" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="89"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="90"/>
+      <c r="E56" s="90"/>
+      <c r="F56" s="90"/>
+      <c r="G56" s="91"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="71"/>
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+      <c r="N56" s="71"/>
+      <c r="O56" s="71"/>
+      <c r="P56" s="71"/>
+      <c r="Q56" s="71"/>
+      <c r="R56" s="71"/>
+      <c r="S56" s="71"/>
+      <c r="T56" s="71"/>
+      <c r="U56" s="71"/>
+      <c r="V56" s="71"/>
+      <c r="W56" s="71"/>
+      <c r="X56" s="71"/>
+      <c r="Y56" s="71"/>
+      <c r="Z56" s="71"/>
+      <c r="AA56" s="71"/>
+      <c r="AB56" s="71"/>
+      <c r="AC56" s="71"/>
+      <c r="AD56" s="71"/>
+      <c r="AE56" s="72"/>
+      <c r="AF56" s="83"/>
+      <c r="AG56" s="84"/>
+      <c r="AH56" s="84"/>
+      <c r="AI56" s="84"/>
+      <c r="AJ56" s="84"/>
+      <c r="AK56" s="84"/>
+      <c r="AL56" s="84"/>
+      <c r="AM56" s="85"/>
+    </row>
+    <row r="57" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="89"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="91"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="71"/>
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="71"/>
+      <c r="N57" s="71"/>
+      <c r="O57" s="71"/>
+      <c r="P57" s="71"/>
+      <c r="Q57" s="71"/>
+      <c r="R57" s="71"/>
+      <c r="S57" s="71"/>
+      <c r="T57" s="71"/>
+      <c r="U57" s="71"/>
+      <c r="V57" s="71"/>
+      <c r="W57" s="71"/>
+      <c r="X57" s="71"/>
+      <c r="Y57" s="71"/>
+      <c r="Z57" s="71"/>
+      <c r="AA57" s="71"/>
+      <c r="AB57" s="71"/>
+      <c r="AC57" s="71"/>
+      <c r="AD57" s="71"/>
+      <c r="AE57" s="72"/>
+      <c r="AF57" s="83"/>
+      <c r="AG57" s="84"/>
+      <c r="AH57" s="84"/>
+      <c r="AI57" s="84"/>
+      <c r="AJ57" s="84"/>
+      <c r="AK57" s="84"/>
+      <c r="AL57" s="84"/>
+      <c r="AM57" s="85"/>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A58" s="89"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
+      <c r="G58" s="91"/>
+      <c r="H58" s="73"/>
+      <c r="I58" s="71"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
+      <c r="O58" s="71"/>
+      <c r="P58" s="71"/>
+      <c r="Q58" s="71"/>
+      <c r="R58" s="71"/>
+      <c r="S58" s="71"/>
+      <c r="T58" s="71"/>
+      <c r="U58" s="71"/>
+      <c r="V58" s="71"/>
+      <c r="W58" s="71"/>
+      <c r="X58" s="71"/>
+      <c r="Y58" s="71"/>
+      <c r="Z58" s="71"/>
+      <c r="AA58" s="71"/>
+      <c r="AB58" s="71"/>
+      <c r="AC58" s="71"/>
+      <c r="AD58" s="71"/>
+      <c r="AE58" s="72"/>
+      <c r="AF58" s="83"/>
+      <c r="AG58" s="84"/>
+      <c r="AH58" s="84"/>
+      <c r="AI58" s="84"/>
+      <c r="AJ58" s="84"/>
+      <c r="AK58" s="84"/>
+      <c r="AL58" s="84"/>
+      <c r="AM58" s="85"/>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A59" s="92"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="94"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="68"/>
+      <c r="J59" s="68"/>
+      <c r="K59" s="68"/>
+      <c r="L59" s="68"/>
+      <c r="M59" s="68"/>
+      <c r="N59" s="68"/>
+      <c r="O59" s="68"/>
+      <c r="P59" s="68"/>
+      <c r="Q59" s="68"/>
+      <c r="R59" s="68"/>
+      <c r="S59" s="68"/>
+      <c r="T59" s="68"/>
+      <c r="U59" s="68"/>
+      <c r="V59" s="68"/>
+      <c r="W59" s="68"/>
+      <c r="X59" s="68"/>
+      <c r="Y59" s="68"/>
+      <c r="Z59" s="68"/>
+      <c r="AA59" s="68"/>
+      <c r="AB59" s="68"/>
+      <c r="AC59" s="68"/>
+      <c r="AD59" s="68"/>
+      <c r="AE59" s="69"/>
+      <c r="AF59" s="83"/>
+      <c r="AG59" s="84"/>
+      <c r="AH59" s="84"/>
+      <c r="AI59" s="84"/>
+      <c r="AJ59" s="84"/>
+      <c r="AK59" s="84"/>
+      <c r="AL59" s="84"/>
+      <c r="AM59" s="85"/>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A60" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="58"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="50">
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="59">
         <f>SUM(H8:I22)</f>
         <v>0</v>
       </c>
-      <c r="I60" s="51"/>
-      <c r="J60" s="50">
+      <c r="I60" s="60"/>
+      <c r="J60" s="59">
         <f t="shared" ref="J60" si="11">SUM(J50:K59)</f>
         <v>0</v>
       </c>
-      <c r="K60" s="51"/>
-      <c r="L60" s="50">
+      <c r="K60" s="60"/>
+      <c r="L60" s="59">
         <f t="shared" ref="L60" si="12">SUM(L50:M59)</f>
         <v>0</v>
       </c>
-      <c r="M60" s="51"/>
-      <c r="N60" s="50">
+      <c r="M60" s="60"/>
+      <c r="N60" s="59">
         <f t="shared" ref="N60" si="13">SUM(N50:O59)</f>
         <v>0</v>
       </c>
-      <c r="O60" s="51"/>
-      <c r="P60" s="50">
+      <c r="O60" s="60"/>
+      <c r="P60" s="59">
         <f t="shared" ref="P60" si="14">SUM(P50:Q59)</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="51"/>
-      <c r="R60" s="50">
+      <c r="Q60" s="60"/>
+      <c r="R60" s="59">
         <f t="shared" ref="R60" si="15">SUM(R50:S59)</f>
         <v>0</v>
       </c>
-      <c r="S60" s="51"/>
-      <c r="T60" s="50">
+      <c r="S60" s="60"/>
+      <c r="T60" s="59">
         <f t="shared" ref="T60" si="16">SUM(T50:U59)</f>
         <v>0</v>
       </c>
-      <c r="U60" s="51"/>
-      <c r="V60" s="50">
+      <c r="U60" s="60"/>
+      <c r="V60" s="59">
         <f t="shared" ref="V60" si="17">SUM(V50:W59)</f>
         <v>0</v>
       </c>
-      <c r="W60" s="51"/>
-      <c r="X60" s="50">
+      <c r="W60" s="60"/>
+      <c r="X60" s="59">
         <f t="shared" ref="X60" si="18">SUM(X50:Y59)</f>
         <v>0</v>
       </c>
-      <c r="Y60" s="51"/>
-      <c r="Z60" s="50">
+      <c r="Y60" s="60"/>
+      <c r="Z60" s="59">
         <f t="shared" ref="Z60" si="19">SUM(Z50:AA59)</f>
         <v>0</v>
       </c>
-      <c r="AA60" s="51"/>
-      <c r="AB60" s="50">
+      <c r="AA60" s="60"/>
+      <c r="AB60" s="59">
         <f t="shared" ref="AB60" si="20">SUM(AB50:AC59)</f>
         <v>0</v>
       </c>
-      <c r="AC60" s="51"/>
-      <c r="AD60" s="50">
+      <c r="AC60" s="60"/>
+      <c r="AD60" s="59">
         <f t="shared" ref="AD60" si="21">SUM(AD50:AE59)</f>
         <v>0</v>
       </c>
-      <c r="AE60" s="51"/>
-      <c r="AF60" s="52">
+      <c r="AE60" s="60"/>
+      <c r="AF60" s="61">
         <f>SUM(H60:AE60)</f>
         <v>0</v>
       </c>
-      <c r="AG60" s="52"/>
-      <c r="AH60" s="52" t="s">
+      <c r="AG60" s="61"/>
+      <c r="AH60" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="AI60" s="52"/>
-      <c r="AJ60" s="52"/>
-      <c r="AK60" s="52"/>
-      <c r="AL60" s="52"/>
-      <c r="AM60" s="52"/>
-    </row>
-    <row r="61" spans="1:39" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A62" s="53" t="s">
+      <c r="AI60" s="61"/>
+      <c r="AJ60" s="61"/>
+      <c r="AK60" s="61"/>
+      <c r="AL60" s="61"/>
+      <c r="AM60" s="61"/>
+    </row>
+    <row r="61" spans="1:39" ht="2.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A62" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="55"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="55"/>
-      <c r="U62" s="55"/>
-      <c r="V62" s="55"/>
-      <c r="W62" s="55"/>
-      <c r="X62" s="55"/>
-      <c r="Y62" s="55"/>
-      <c r="Z62" s="55"/>
-      <c r="AA62" s="55"/>
-      <c r="AB62" s="55"/>
-      <c r="AC62" s="56"/>
-      <c r="AD62" s="47" t="s">
+      <c r="B62" s="63"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="63"/>
+      <c r="F62" s="63"/>
+      <c r="G62" s="63"/>
+      <c r="H62" s="63"/>
+      <c r="I62" s="63"/>
+      <c r="J62" s="63"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
+      <c r="R62" s="64"/>
+      <c r="S62" s="64"/>
+      <c r="T62" s="64"/>
+      <c r="U62" s="64"/>
+      <c r="V62" s="64"/>
+      <c r="W62" s="64"/>
+      <c r="X62" s="64"/>
+      <c r="Y62" s="64"/>
+      <c r="Z62" s="64"/>
+      <c r="AA62" s="64"/>
+      <c r="AB62" s="64"/>
+      <c r="AC62" s="65"/>
+      <c r="AD62" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="AE62" s="48"/>
-      <c r="AF62" s="48"/>
-      <c r="AG62" s="48"/>
-      <c r="AH62" s="48"/>
-      <c r="AI62" s="48"/>
-      <c r="AJ62" s="48"/>
-      <c r="AK62" s="48"/>
-      <c r="AL62" s="48"/>
-      <c r="AM62" s="49"/>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="41"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="41"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="41"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="41"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="41"/>
-      <c r="R63" s="41"/>
-      <c r="S63" s="41"/>
-      <c r="T63" s="41"/>
-      <c r="U63" s="41"/>
-      <c r="V63" s="41"/>
-      <c r="W63" s="41"/>
-      <c r="X63" s="41"/>
-      <c r="Y63" s="41"/>
-      <c r="Z63" s="41"/>
-      <c r="AA63" s="41"/>
-      <c r="AB63" s="41"/>
-      <c r="AC63" s="42"/>
-      <c r="AD63" s="32" t="s">
+      <c r="AE62" s="57"/>
+      <c r="AF62" s="57"/>
+      <c r="AG62" s="57"/>
+      <c r="AH62" s="57"/>
+      <c r="AI62" s="57"/>
+      <c r="AJ62" s="57"/>
+      <c r="AK62" s="57"/>
+      <c r="AL62" s="57"/>
+      <c r="AM62" s="58"/>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A63" s="49"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="50"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="50"/>
+      <c r="Q63" s="50"/>
+      <c r="R63" s="50"/>
+      <c r="S63" s="50"/>
+      <c r="T63" s="50"/>
+      <c r="U63" s="50"/>
+      <c r="V63" s="50"/>
+      <c r="W63" s="50"/>
+      <c r="X63" s="50"/>
+      <c r="Y63" s="50"/>
+      <c r="Z63" s="50"/>
+      <c r="AA63" s="50"/>
+      <c r="AB63" s="50"/>
+      <c r="AC63" s="51"/>
+      <c r="AD63" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AE63" s="33"/>
-      <c r="AF63" s="33"/>
-      <c r="AG63" s="34"/>
-      <c r="AH63" s="34"/>
-      <c r="AI63" s="34"/>
-      <c r="AJ63" s="34"/>
-      <c r="AK63" s="34"/>
-      <c r="AL63" s="34"/>
-      <c r="AM63" s="35"/>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="41"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="41"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="41"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="41"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="41"/>
-      <c r="R64" s="41"/>
-      <c r="S64" s="41"/>
-      <c r="T64" s="41"/>
-      <c r="U64" s="41"/>
-      <c r="V64" s="41"/>
-      <c r="W64" s="41"/>
-      <c r="X64" s="41"/>
-      <c r="Y64" s="41"/>
-      <c r="Z64" s="41"/>
-      <c r="AA64" s="41"/>
-      <c r="AB64" s="41"/>
-      <c r="AC64" s="42"/>
-      <c r="AD64" s="32" t="s">
+      <c r="AE63" s="42"/>
+      <c r="AF63" s="42"/>
+      <c r="AG63" s="43"/>
+      <c r="AH63" s="43"/>
+      <c r="AI63" s="43"/>
+      <c r="AJ63" s="43"/>
+      <c r="AK63" s="43"/>
+      <c r="AL63" s="43"/>
+      <c r="AM63" s="44"/>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A64" s="49"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="50"/>
+      <c r="L64" s="50"/>
+      <c r="M64" s="50"/>
+      <c r="N64" s="50"/>
+      <c r="O64" s="50"/>
+      <c r="P64" s="50"/>
+      <c r="Q64" s="50"/>
+      <c r="R64" s="50"/>
+      <c r="S64" s="50"/>
+      <c r="T64" s="50"/>
+      <c r="U64" s="50"/>
+      <c r="V64" s="50"/>
+      <c r="W64" s="50"/>
+      <c r="X64" s="50"/>
+      <c r="Y64" s="50"/>
+      <c r="Z64" s="50"/>
+      <c r="AA64" s="50"/>
+      <c r="AB64" s="50"/>
+      <c r="AC64" s="51"/>
+      <c r="AD64" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="AE64" s="33"/>
-      <c r="AF64" s="33"/>
-      <c r="AG64" s="34"/>
-      <c r="AH64" s="34"/>
-      <c r="AI64" s="34"/>
-      <c r="AJ64" s="34"/>
-      <c r="AK64" s="34"/>
-      <c r="AL64" s="34"/>
-      <c r="AM64" s="35"/>
-    </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="41"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="41"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="41"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="41"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="41"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="41"/>
-      <c r="R65" s="41"/>
-      <c r="S65" s="41"/>
-      <c r="T65" s="41"/>
-      <c r="U65" s="41"/>
-      <c r="V65" s="41"/>
-      <c r="W65" s="41"/>
-      <c r="X65" s="41"/>
-      <c r="Y65" s="41"/>
-      <c r="Z65" s="41"/>
-      <c r="AA65" s="41"/>
-      <c r="AB65" s="41"/>
-      <c r="AC65" s="42"/>
-      <c r="AD65" s="36" t="s">
+      <c r="AE64" s="42"/>
+      <c r="AF64" s="42"/>
+      <c r="AG64" s="43"/>
+      <c r="AH64" s="43"/>
+      <c r="AI64" s="43"/>
+      <c r="AJ64" s="43"/>
+      <c r="AK64" s="43"/>
+      <c r="AL64" s="43"/>
+      <c r="AM64" s="44"/>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A65" s="49"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="50"/>
+      <c r="L65" s="50"/>
+      <c r="M65" s="50"/>
+      <c r="N65" s="50"/>
+      <c r="O65" s="50"/>
+      <c r="P65" s="50"/>
+      <c r="Q65" s="50"/>
+      <c r="R65" s="50"/>
+      <c r="S65" s="50"/>
+      <c r="T65" s="50"/>
+      <c r="U65" s="50"/>
+      <c r="V65" s="50"/>
+      <c r="W65" s="50"/>
+      <c r="X65" s="50"/>
+      <c r="Y65" s="50"/>
+      <c r="Z65" s="50"/>
+      <c r="AA65" s="50"/>
+      <c r="AB65" s="50"/>
+      <c r="AC65" s="51"/>
+      <c r="AD65" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AE65" s="37"/>
-      <c r="AF65" s="37"/>
-      <c r="AG65" s="46"/>
-      <c r="AH65" s="38"/>
-      <c r="AI65" s="38"/>
-      <c r="AJ65" s="38"/>
-      <c r="AK65" s="38"/>
-      <c r="AL65" s="38"/>
-      <c r="AM65" s="39"/>
-    </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="41"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="41"/>
-      <c r="S66" s="41"/>
-      <c r="T66" s="41"/>
-      <c r="U66" s="41"/>
-      <c r="V66" s="41"/>
-      <c r="W66" s="41"/>
-      <c r="X66" s="41"/>
-      <c r="Y66" s="41"/>
-      <c r="Z66" s="41"/>
-      <c r="AA66" s="41"/>
-      <c r="AB66" s="41"/>
-      <c r="AC66" s="42"/>
-      <c r="AD66" s="47" t="s">
+      <c r="AE65" s="46"/>
+      <c r="AF65" s="46"/>
+      <c r="AG65" s="55"/>
+      <c r="AH65" s="47"/>
+      <c r="AI65" s="47"/>
+      <c r="AJ65" s="47"/>
+      <c r="AK65" s="47"/>
+      <c r="AL65" s="47"/>
+      <c r="AM65" s="48"/>
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A66" s="49"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
+      <c r="E66" s="50"/>
+      <c r="F66" s="50"/>
+      <c r="G66" s="50"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="50"/>
+      <c r="O66" s="50"/>
+      <c r="P66" s="50"/>
+      <c r="Q66" s="50"/>
+      <c r="R66" s="50"/>
+      <c r="S66" s="50"/>
+      <c r="T66" s="50"/>
+      <c r="U66" s="50"/>
+      <c r="V66" s="50"/>
+      <c r="W66" s="50"/>
+      <c r="X66" s="50"/>
+      <c r="Y66" s="50"/>
+      <c r="Z66" s="50"/>
+      <c r="AA66" s="50"/>
+      <c r="AB66" s="50"/>
+      <c r="AC66" s="51"/>
+      <c r="AD66" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="AE66" s="48"/>
-      <c r="AF66" s="48"/>
-      <c r="AG66" s="48"/>
-      <c r="AH66" s="48"/>
-      <c r="AI66" s="48"/>
-      <c r="AJ66" s="48"/>
-      <c r="AK66" s="48"/>
-      <c r="AL66" s="48"/>
-      <c r="AM66" s="49"/>
-    </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="41"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="41"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="41"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="41"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="41"/>
-      <c r="R67" s="41"/>
-      <c r="S67" s="41"/>
-      <c r="T67" s="41"/>
-      <c r="U67" s="41"/>
-      <c r="V67" s="41"/>
-      <c r="W67" s="41"/>
-      <c r="X67" s="41"/>
-      <c r="Y67" s="41"/>
-      <c r="Z67" s="41"/>
-      <c r="AA67" s="41"/>
-      <c r="AB67" s="41"/>
-      <c r="AC67" s="42"/>
-      <c r="AD67" s="32" t="s">
+      <c r="AE66" s="57"/>
+      <c r="AF66" s="57"/>
+      <c r="AG66" s="57"/>
+      <c r="AH66" s="57"/>
+      <c r="AI66" s="57"/>
+      <c r="AJ66" s="57"/>
+      <c r="AK66" s="57"/>
+      <c r="AL66" s="57"/>
+      <c r="AM66" s="58"/>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A67" s="49"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="50"/>
+      <c r="E67" s="50"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="50"/>
+      <c r="K67" s="50"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="50"/>
+      <c r="O67" s="50"/>
+      <c r="P67" s="50"/>
+      <c r="Q67" s="50"/>
+      <c r="R67" s="50"/>
+      <c r="S67" s="50"/>
+      <c r="T67" s="50"/>
+      <c r="U67" s="50"/>
+      <c r="V67" s="50"/>
+      <c r="W67" s="50"/>
+      <c r="X67" s="50"/>
+      <c r="Y67" s="50"/>
+      <c r="Z67" s="50"/>
+      <c r="AA67" s="50"/>
+      <c r="AB67" s="50"/>
+      <c r="AC67" s="51"/>
+      <c r="AD67" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="AE67" s="33"/>
-      <c r="AF67" s="33"/>
-      <c r="AG67" s="34"/>
-      <c r="AH67" s="34"/>
-      <c r="AI67" s="34"/>
-      <c r="AJ67" s="34"/>
-      <c r="AK67" s="34"/>
-      <c r="AL67" s="34"/>
-      <c r="AM67" s="35"/>
-    </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="41"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="41"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="41"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="41"/>
-      <c r="N68" s="41"/>
-      <c r="O68" s="41"/>
-      <c r="P68" s="41"/>
-      <c r="Q68" s="41"/>
-      <c r="R68" s="41"/>
-      <c r="S68" s="41"/>
-      <c r="T68" s="41"/>
-      <c r="U68" s="41"/>
-      <c r="V68" s="41"/>
-      <c r="W68" s="41"/>
-      <c r="X68" s="41"/>
-      <c r="Y68" s="41"/>
-      <c r="Z68" s="41"/>
-      <c r="AA68" s="41"/>
-      <c r="AB68" s="41"/>
-      <c r="AC68" s="42"/>
-      <c r="AD68" s="32" t="s">
+      <c r="AE67" s="42"/>
+      <c r="AF67" s="42"/>
+      <c r="AG67" s="43"/>
+      <c r="AH67" s="43"/>
+      <c r="AI67" s="43"/>
+      <c r="AJ67" s="43"/>
+      <c r="AK67" s="43"/>
+      <c r="AL67" s="43"/>
+      <c r="AM67" s="44"/>
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A68" s="49"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="50"/>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="50"/>
+      <c r="K68" s="50"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="50"/>
+      <c r="O68" s="50"/>
+      <c r="P68" s="50"/>
+      <c r="Q68" s="50"/>
+      <c r="R68" s="50"/>
+      <c r="S68" s="50"/>
+      <c r="T68" s="50"/>
+      <c r="U68" s="50"/>
+      <c r="V68" s="50"/>
+      <c r="W68" s="50"/>
+      <c r="X68" s="50"/>
+      <c r="Y68" s="50"/>
+      <c r="Z68" s="50"/>
+      <c r="AA68" s="50"/>
+      <c r="AB68" s="50"/>
+      <c r="AC68" s="51"/>
+      <c r="AD68" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="AE68" s="33"/>
-      <c r="AF68" s="33"/>
-      <c r="AG68" s="34"/>
-      <c r="AH68" s="34"/>
-      <c r="AI68" s="34"/>
-      <c r="AJ68" s="34"/>
-      <c r="AK68" s="34"/>
-      <c r="AL68" s="34"/>
-      <c r="AM68" s="35"/>
-    </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
-      <c r="B69" s="44"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
-      <c r="I69" s="44"/>
-      <c r="J69" s="44"/>
-      <c r="K69" s="44"/>
-      <c r="L69" s="44"/>
-      <c r="M69" s="44"/>
-      <c r="N69" s="44"/>
-      <c r="O69" s="44"/>
-      <c r="P69" s="44"/>
-      <c r="Q69" s="44"/>
-      <c r="R69" s="44"/>
-      <c r="S69" s="44"/>
-      <c r="T69" s="44"/>
-      <c r="U69" s="44"/>
-      <c r="V69" s="44"/>
-      <c r="W69" s="44"/>
-      <c r="X69" s="44"/>
-      <c r="Y69" s="44"/>
-      <c r="Z69" s="44"/>
-      <c r="AA69" s="44"/>
-      <c r="AB69" s="44"/>
-      <c r="AC69" s="45"/>
-      <c r="AD69" s="36" t="s">
+      <c r="AE68" s="42"/>
+      <c r="AF68" s="42"/>
+      <c r="AG68" s="43"/>
+      <c r="AH68" s="43"/>
+      <c r="AI68" s="43"/>
+      <c r="AJ68" s="43"/>
+      <c r="AK68" s="43"/>
+      <c r="AL68" s="43"/>
+      <c r="AM68" s="44"/>
+    </row>
+    <row r="69" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A69" s="52"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="53"/>
+      <c r="P69" s="53"/>
+      <c r="Q69" s="53"/>
+      <c r="R69" s="53"/>
+      <c r="S69" s="53"/>
+      <c r="T69" s="53"/>
+      <c r="U69" s="53"/>
+      <c r="V69" s="53"/>
+      <c r="W69" s="53"/>
+      <c r="X69" s="53"/>
+      <c r="Y69" s="53"/>
+      <c r="Z69" s="53"/>
+      <c r="AA69" s="53"/>
+      <c r="AB69" s="53"/>
+      <c r="AC69" s="54"/>
+      <c r="AD69" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AE69" s="37"/>
-      <c r="AF69" s="37"/>
-      <c r="AG69" s="38"/>
-      <c r="AH69" s="38"/>
-      <c r="AI69" s="38"/>
-      <c r="AJ69" s="38"/>
-      <c r="AK69" s="38"/>
-      <c r="AL69" s="38"/>
-      <c r="AM69" s="39"/>
+      <c r="AE69" s="46"/>
+      <c r="AF69" s="46"/>
+      <c r="AG69" s="47"/>
+      <c r="AH69" s="47"/>
+      <c r="AI69" s="47"/>
+      <c r="AJ69" s="47"/>
+      <c r="AK69" s="47"/>
+      <c r="AL69" s="47"/>
+      <c r="AM69" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="689">
+  <mergeCells count="693">
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AJ1"/>
     <mergeCell ref="AL1:AM1"/>
@@ -5882,6 +5885,7 @@
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="J27:K27"/>
+    <mergeCell ref="E29:E31"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
     <mergeCell ref="L26:M26"/>
@@ -5890,10 +5894,8 @@
     <mergeCell ref="R26:S26"/>
     <mergeCell ref="T26:U26"/>
     <mergeCell ref="V26:W26"/>
-    <mergeCell ref="AB27:AC27"/>
     <mergeCell ref="AD27:AE27"/>
     <mergeCell ref="AF27:AM41"/>
-    <mergeCell ref="A28:D28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="J28:K28"/>
@@ -5913,8 +5915,7 @@
     <mergeCell ref="AB29:AC29"/>
     <mergeCell ref="AD29:AE29"/>
     <mergeCell ref="AD28:AE28"/>
-    <mergeCell ref="A29:D46"/>
-    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="AB27:AC27"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="J29:K29"/>
@@ -6296,10 +6297,6 @@
     <mergeCell ref="N59:O59"/>
     <mergeCell ref="P59:Q59"/>
     <mergeCell ref="R59:S59"/>
-    <mergeCell ref="AD60:AE60"/>
-    <mergeCell ref="AF60:AG60"/>
-    <mergeCell ref="AH60:AM60"/>
-    <mergeCell ref="A62:J62"/>
     <mergeCell ref="K62:AC62"/>
     <mergeCell ref="AD62:AM62"/>
     <mergeCell ref="R60:S60"/>
@@ -6314,6 +6311,12 @@
     <mergeCell ref="L60:M60"/>
     <mergeCell ref="N60:O60"/>
     <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A29:D31"/>
+    <mergeCell ref="A32:D34"/>
+    <mergeCell ref="A35:D37"/>
+    <mergeCell ref="A38:D40"/>
+    <mergeCell ref="A41:D43"/>
+    <mergeCell ref="A44:D46"/>
     <mergeCell ref="AD68:AF68"/>
     <mergeCell ref="AG68:AM68"/>
     <mergeCell ref="AD69:AF69"/>
@@ -6328,6 +6331,10 @@
     <mergeCell ref="AD66:AM66"/>
     <mergeCell ref="AD67:AF67"/>
     <mergeCell ref="AG67:AM67"/>
+    <mergeCell ref="AD60:AE60"/>
+    <mergeCell ref="AF60:AG60"/>
+    <mergeCell ref="AH60:AM60"/>
+    <mergeCell ref="A62:J62"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="96" orientation="portrait" r:id="rId1"/>

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormT.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VARADHA\source\repos\jayanthkundety\RAMMS2.0\RAMS\Web\RAMMS.Web.UI\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6915"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6920"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>Page:</t>
   </si>
@@ -388,16 +388,19 @@
     <t>Headed by: (signature)</t>
   </si>
   <si>
-    <t>8.15 am</t>
-  </si>
-  <si>
     <t xml:space="preserve">CONTRACT NO:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> PWD/HO/B130/2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-10409]h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1102,7 +1105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1204,24 +1207,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1240,9 +1231,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1372,7 +1360,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1453,7 +1441,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1524,6 +1512,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2496,94 +2493,100 @@
   </sheetPr>
   <dimension ref="A1:AM69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23:AE23"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="AG63" sqref="AG63:AM63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="2.28515625" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" customWidth="1"/>
-    <col min="6" max="48" width="2.28515625" customWidth="1"/>
+    <col min="1" max="4" width="2.26953125" customWidth="1"/>
+    <col min="5" max="5" width="2.54296875" customWidth="1"/>
+    <col min="6" max="48" width="2.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="28"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
-      <c r="F1" s="145" t="s">
+      <c r="F1" s="140" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
-      <c r="N1" s="146"/>
-      <c r="O1" s="146"/>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="146"/>
-      <c r="AA1" s="146"/>
-      <c r="AB1" s="146"/>
-      <c r="AC1" s="146"/>
-      <c r="AD1" s="146"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="136" t="s">
+      <c r="N1" s="141"/>
+      <c r="O1" s="141"/>
+      <c r="P1" s="141"/>
+      <c r="Q1" s="141"/>
+      <c r="R1" s="141"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="141"/>
+      <c r="U1" s="141"/>
+      <c r="V1" s="141"/>
+      <c r="W1" s="141"/>
+      <c r="X1" s="141"/>
+      <c r="Y1" s="141"/>
+      <c r="Z1" s="141"/>
+      <c r="AA1" s="141"/>
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="141"/>
+      <c r="AD1" s="141"/>
+      <c r="AE1" s="142"/>
+      <c r="AF1" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="138"/>
-      <c r="AJ1" s="138"/>
+      <c r="AG1" s="132"/>
+      <c r="AH1" s="132"/>
+      <c r="AI1" s="133">
+        <v>1</v>
+      </c>
+      <c r="AJ1" s="133"/>
       <c r="AK1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="AL1" s="138"/>
-      <c r="AM1" s="139"/>
-    </row>
-    <row r="2" spans="1:39" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL1" s="133">
+        <v>1</v>
+      </c>
+      <c r="AM1" s="134"/>
+    </row>
+    <row r="2" spans="1:39" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="20"/>
-      <c r="F2" s="140" t="s">
+      <c r="F2" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="141"/>
-      <c r="O2" s="141"/>
-      <c r="P2" s="141"/>
-      <c r="Q2" s="141"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="141"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="141"/>
-      <c r="AA2" s="141"/>
-      <c r="AB2" s="141"/>
-      <c r="AC2" s="141"/>
-      <c r="AD2" s="141"/>
-      <c r="AE2" s="141"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
+      <c r="T2" s="136"/>
+      <c r="U2" s="136"/>
+      <c r="V2" s="136"/>
+      <c r="W2" s="136"/>
+      <c r="X2" s="136"/>
+      <c r="Y2" s="136"/>
+      <c r="Z2" s="136"/>
+      <c r="AA2" s="136"/>
+      <c r="AB2" s="136"/>
+      <c r="AC2" s="136"/>
+      <c r="AD2" s="136"/>
+      <c r="AE2" s="136"/>
       <c r="AF2" s="25"/>
       <c r="AG2" s="24"/>
       <c r="AH2" s="24"/>
@@ -2593,193 +2596,193 @@
       <c r="AL2" s="22"/>
       <c r="AM2" s="21"/>
     </row>
-    <row r="3" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20"/>
-      <c r="F3" s="142" t="s">
+      <c r="F3" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="131" t="s">
+      <c r="G3" s="138"/>
+      <c r="H3" s="138"/>
+      <c r="I3" s="138"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="138"/>
+      <c r="Q3" s="138"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="138"/>
+      <c r="T3" s="138"/>
+      <c r="U3" s="138"/>
+      <c r="V3" s="138"/>
+      <c r="W3" s="138"/>
+      <c r="X3" s="138"/>
+      <c r="Y3" s="138"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="138"/>
+      <c r="AE3" s="138"/>
+      <c r="AF3" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="AG3" s="132"/>
-      <c r="AH3" s="132"/>
-      <c r="AI3" s="144"/>
-      <c r="AJ3" s="127"/>
-      <c r="AK3" s="127"/>
-      <c r="AL3" s="127"/>
-      <c r="AM3" s="130"/>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG3" s="127"/>
+      <c r="AH3" s="127"/>
+      <c r="AI3" s="139"/>
+      <c r="AJ3" s="122"/>
+      <c r="AK3" s="122"/>
+      <c r="AL3" s="122"/>
+      <c r="AM3" s="125"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
-      <c r="F4" s="131" t="s">
+      <c r="F4" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="132"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="133"/>
-      <c r="N4" s="131" t="s">
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+      <c r="J4" s="128"/>
+      <c r="K4" s="128"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="128"/>
+      <c r="N4" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="132"/>
-      <c r="P4" s="132"/>
-      <c r="Q4" s="132"/>
-      <c r="R4" s="132"/>
-      <c r="S4" s="134"/>
-      <c r="T4" s="134"/>
+      <c r="O4" s="127"/>
+      <c r="P4" s="127"/>
+      <c r="Q4" s="127"/>
+      <c r="R4" s="127"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
       <c r="U4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="V4" s="134"/>
-      <c r="W4" s="134"/>
-      <c r="X4" s="135"/>
-      <c r="Y4" s="134"/>
-      <c r="Z4" s="129" t="s">
+      <c r="V4" s="129"/>
+      <c r="W4" s="129"/>
+      <c r="X4" s="130"/>
+      <c r="Y4" s="129"/>
+      <c r="Z4" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="129"/>
-      <c r="AC4" s="129"/>
-      <c r="AD4" s="129"/>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="131" t="s">
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="126" t="s">
         <v>8</v>
       </c>
-      <c r="AG4" s="132"/>
-      <c r="AH4" s="132"/>
-      <c r="AI4" s="127"/>
-      <c r="AJ4" s="127"/>
-      <c r="AK4" s="127"/>
-      <c r="AL4" s="127"/>
-      <c r="AM4" s="130"/>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A5" s="125" t="s">
+      <c r="AG4" s="127"/>
+      <c r="AH4" s="127"/>
+      <c r="AI4" s="122"/>
+      <c r="AJ4" s="122"/>
+      <c r="AK4" s="122"/>
+      <c r="AL4" s="122"/>
+      <c r="AM4" s="125"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A5" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="127"/>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="128" t="s">
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="123" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
-      <c r="O5" s="129"/>
-      <c r="P5" s="129"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="124"/>
+      <c r="O5" s="124"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="122"/>
+      <c r="R5" s="122"/>
+      <c r="S5" s="122"/>
+      <c r="T5" s="122"/>
+      <c r="U5" s="122"/>
+      <c r="V5" s="122"/>
+      <c r="W5" s="122"/>
+      <c r="X5" s="122"/>
+      <c r="Y5" s="122"/>
+      <c r="Z5" s="122"/>
+      <c r="AA5" s="122"/>
       <c r="AB5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="130"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A6" s="120" t="s">
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="122"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="122"/>
+      <c r="AG5" s="122"/>
+      <c r="AH5" s="122"/>
+      <c r="AI5" s="122"/>
+      <c r="AJ5" s="122"/>
+      <c r="AK5" s="122"/>
+      <c r="AL5" s="122"/>
+      <c r="AM5" s="125"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A6" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="122"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="122"/>
-      <c r="M6" s="122"/>
-      <c r="N6" s="122"/>
-      <c r="O6" s="122"/>
-      <c r="P6" s="122"/>
-      <c r="Q6" s="122"/>
-      <c r="R6" s="122"/>
-      <c r="S6" s="122"/>
-      <c r="T6" s="122"/>
-      <c r="U6" s="122"/>
-      <c r="V6" s="122"/>
-      <c r="W6" s="122"/>
-      <c r="X6" s="122"/>
-      <c r="Y6" s="122"/>
-      <c r="Z6" s="122"/>
-      <c r="AA6" s="122"/>
-      <c r="AB6" s="122"/>
-      <c r="AC6" s="122"/>
-      <c r="AD6" s="122"/>
-      <c r="AE6" s="122"/>
-      <c r="AF6" s="122"/>
-      <c r="AG6" s="122"/>
-      <c r="AH6" s="122"/>
-      <c r="AI6" s="122"/>
-      <c r="AJ6" s="122"/>
-      <c r="AK6" s="122"/>
-      <c r="AL6" s="122"/>
-      <c r="AM6" s="123"/>
-    </row>
-    <row r="7" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="116"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="116"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="117"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="117"/>
+      <c r="AA6" s="117"/>
+      <c r="AB6" s="117"/>
+      <c r="AC6" s="117"/>
+      <c r="AD6" s="117"/>
+      <c r="AE6" s="117"/>
+      <c r="AF6" s="117"/>
+      <c r="AG6" s="117"/>
+      <c r="AH6" s="117"/>
+      <c r="AI6" s="117"/>
+      <c r="AJ6" s="117"/>
+      <c r="AK6" s="117"/>
+      <c r="AL6" s="117"/>
+      <c r="AM6" s="118"/>
+    </row>
+    <row r="7" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
       <c r="G7" s="13" t="s">
         <v>14</v>
       </c>
@@ -2831,723 +2834,723 @@
       <c r="AE7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AF7" s="59" t="s">
+      <c r="AF7" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="59"/>
-      <c r="AI7" s="59"/>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="59"/>
-      <c r="AL7" s="59">
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="54"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="54">
         <v>0</v>
       </c>
-      <c r="AM7" s="59"/>
-    </row>
-    <row r="8" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93" t="s">
+      <c r="AM7" s="54"/>
+    </row>
+    <row r="8" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="107"/>
-      <c r="S8" s="107"/>
-      <c r="T8" s="107"/>
-      <c r="U8" s="107"/>
-      <c r="V8" s="107"/>
-      <c r="W8" s="107"/>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="107"/>
-      <c r="Z8" s="107"/>
-      <c r="AA8" s="107"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="107"/>
-      <c r="AD8" s="107"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="84" t="s">
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="102"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
+      <c r="P8" s="102"/>
+      <c r="Q8" s="102"/>
+      <c r="R8" s="102"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="102"/>
+      <c r="U8" s="102"/>
+      <c r="V8" s="102"/>
+      <c r="W8" s="102"/>
+      <c r="X8" s="102"/>
+      <c r="Y8" s="102"/>
+      <c r="Z8" s="102"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="102"/>
+      <c r="AC8" s="102"/>
+      <c r="AD8" s="102"/>
+      <c r="AE8" s="107"/>
+      <c r="AF8" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="AG8" s="85"/>
-      <c r="AH8" s="85"/>
-      <c r="AI8" s="85"/>
-      <c r="AJ8" s="85"/>
-      <c r="AK8" s="85"/>
-      <c r="AL8" s="85"/>
-      <c r="AM8" s="86"/>
-    </row>
-    <row r="9" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
-      <c r="O9" s="69"/>
-      <c r="P9" s="69"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="69"/>
-      <c r="X9" s="69"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="69"/>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="70"/>
-      <c r="AF9" s="114"/>
-      <c r="AG9" s="115"/>
-      <c r="AH9" s="115"/>
-      <c r="AI9" s="115"/>
-      <c r="AJ9" s="115"/>
-      <c r="AK9" s="115"/>
-      <c r="AL9" s="115"/>
-      <c r="AM9" s="116"/>
-    </row>
-    <row r="10" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="70"/>
-      <c r="AF10" s="117"/>
-      <c r="AG10" s="118"/>
-      <c r="AH10" s="118"/>
-      <c r="AI10" s="118"/>
-      <c r="AJ10" s="118"/>
-      <c r="AK10" s="118"/>
-      <c r="AL10" s="118"/>
-      <c r="AM10" s="119"/>
-    </row>
-    <row r="11" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="70"/>
-      <c r="AF11" s="117"/>
-      <c r="AG11" s="118"/>
-      <c r="AH11" s="118"/>
-      <c r="AI11" s="118"/>
-      <c r="AJ11" s="118"/>
-      <c r="AK11" s="118"/>
-      <c r="AL11" s="118"/>
-      <c r="AM11" s="119"/>
-    </row>
-    <row r="12" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="M12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="75"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="75"/>
-      <c r="AA12" s="75"/>
-      <c r="AB12" s="75"/>
-      <c r="AC12" s="75"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="117"/>
-      <c r="AG12" s="118"/>
-      <c r="AH12" s="118"/>
-      <c r="AI12" s="118"/>
-      <c r="AJ12" s="118"/>
-      <c r="AK12" s="118"/>
-      <c r="AL12" s="118"/>
-      <c r="AM12" s="119"/>
-    </row>
-    <row r="13" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="87"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="72"/>
-      <c r="AA13" s="72"/>
-      <c r="AB13" s="72"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="73"/>
-      <c r="AF13" s="117"/>
-      <c r="AG13" s="118"/>
-      <c r="AH13" s="118"/>
-      <c r="AI13" s="118"/>
-      <c r="AJ13" s="118"/>
-      <c r="AK13" s="118"/>
-      <c r="AL13" s="118"/>
-      <c r="AM13" s="119"/>
-    </row>
-    <row r="14" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
-      <c r="O14" s="69"/>
-      <c r="P14" s="69"/>
-      <c r="Q14" s="69"/>
-      <c r="R14" s="69"/>
-      <c r="S14" s="69"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="69"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="69"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="69"/>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="70"/>
-      <c r="AF14" s="117"/>
-      <c r="AG14" s="118"/>
-      <c r="AH14" s="118"/>
-      <c r="AI14" s="118"/>
-      <c r="AJ14" s="118"/>
-      <c r="AK14" s="118"/>
-      <c r="AL14" s="118"/>
-      <c r="AM14" s="119"/>
-    </row>
-    <row r="15" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="117"/>
-      <c r="AG15" s="118"/>
-      <c r="AH15" s="118"/>
-      <c r="AI15" s="118"/>
-      <c r="AJ15" s="118"/>
-      <c r="AK15" s="118"/>
-      <c r="AL15" s="118"/>
-      <c r="AM15" s="119"/>
-    </row>
-    <row r="16" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="69"/>
-      <c r="O16" s="69"/>
-      <c r="P16" s="69"/>
-      <c r="Q16" s="69"/>
-      <c r="R16" s="69"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="70"/>
-      <c r="AF16" s="117"/>
-      <c r="AG16" s="118"/>
-      <c r="AH16" s="118"/>
-      <c r="AI16" s="118"/>
-      <c r="AJ16" s="118"/>
-      <c r="AK16" s="118"/>
-      <c r="AL16" s="118"/>
-      <c r="AM16" s="119"/>
-    </row>
-    <row r="17" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
-      <c r="Q17" s="75"/>
-      <c r="R17" s="75"/>
-      <c r="S17" s="75"/>
-      <c r="T17" s="75"/>
-      <c r="U17" s="75"/>
-      <c r="V17" s="75"/>
-      <c r="W17" s="75"/>
-      <c r="X17" s="75"/>
-      <c r="Y17" s="75"/>
-      <c r="Z17" s="75"/>
-      <c r="AA17" s="75"/>
-      <c r="AB17" s="75"/>
-      <c r="AC17" s="75"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="117"/>
-      <c r="AG17" s="118"/>
-      <c r="AH17" s="118"/>
-      <c r="AI17" s="118"/>
-      <c r="AJ17" s="118"/>
-      <c r="AK17" s="118"/>
-      <c r="AL17" s="118"/>
-      <c r="AM17" s="119"/>
-    </row>
-    <row r="18" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="117"/>
-      <c r="AG18" s="118"/>
-      <c r="AH18" s="118"/>
-      <c r="AI18" s="118"/>
-      <c r="AJ18" s="118"/>
-      <c r="AK18" s="118"/>
-      <c r="AL18" s="118"/>
-      <c r="AM18" s="119"/>
-    </row>
-    <row r="19" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="69"/>
-      <c r="M19" s="69"/>
-      <c r="N19" s="69"/>
-      <c r="O19" s="69"/>
-      <c r="P19" s="69"/>
-      <c r="Q19" s="69"/>
-      <c r="R19" s="69"/>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="69"/>
-      <c r="AC19" s="69"/>
-      <c r="AD19" s="69"/>
-      <c r="AE19" s="70"/>
-      <c r="AF19" s="117"/>
-      <c r="AG19" s="118"/>
-      <c r="AH19" s="118"/>
-      <c r="AI19" s="118"/>
-      <c r="AJ19" s="118"/>
-      <c r="AK19" s="118"/>
-      <c r="AL19" s="118"/>
-      <c r="AM19" s="119"/>
-    </row>
-    <row r="20" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="69"/>
-      <c r="Q20" s="69"/>
-      <c r="R20" s="69"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="69"/>
-      <c r="AC20" s="69"/>
-      <c r="AD20" s="69"/>
-      <c r="AE20" s="70"/>
-      <c r="AF20" s="117"/>
-      <c r="AG20" s="118"/>
-      <c r="AH20" s="118"/>
-      <c r="AI20" s="118"/>
-      <c r="AJ20" s="118"/>
-      <c r="AK20" s="118"/>
-      <c r="AL20" s="118"/>
-      <c r="AM20" s="119"/>
-    </row>
-    <row r="21" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="69"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="69"/>
-      <c r="X21" s="69"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="69"/>
-      <c r="AC21" s="69"/>
-      <c r="AD21" s="69"/>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="117"/>
-      <c r="AG21" s="118"/>
-      <c r="AH21" s="118"/>
-      <c r="AI21" s="118"/>
-      <c r="AJ21" s="118"/>
-      <c r="AK21" s="118"/>
-      <c r="AL21" s="118"/>
-      <c r="AM21" s="119"/>
-    </row>
-    <row r="22" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="92"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="117"/>
-      <c r="AG22" s="118"/>
-      <c r="AH22" s="118"/>
-      <c r="AI22" s="118"/>
-      <c r="AJ22" s="118"/>
-      <c r="AK22" s="118"/>
-      <c r="AL22" s="118"/>
-      <c r="AM22" s="119"/>
-    </row>
-    <row r="23" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
+      <c r="AG8" s="80"/>
+      <c r="AH8" s="80"/>
+      <c r="AI8" s="80"/>
+      <c r="AJ8" s="80"/>
+      <c r="AK8" s="80"/>
+      <c r="AL8" s="80"/>
+      <c r="AM8" s="81"/>
+    </row>
+    <row r="9" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="82"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="65"/>
+      <c r="AF9" s="109"/>
+      <c r="AG9" s="110"/>
+      <c r="AH9" s="110"/>
+      <c r="AI9" s="110"/>
+      <c r="AJ9" s="110"/>
+      <c r="AK9" s="110"/>
+      <c r="AL9" s="110"/>
+      <c r="AM9" s="111"/>
+    </row>
+    <row r="10" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="82"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="64"/>
+      <c r="AB10" s="64"/>
+      <c r="AC10" s="64"/>
+      <c r="AD10" s="64"/>
+      <c r="AE10" s="65"/>
+      <c r="AF10" s="112"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="113"/>
+      <c r="AJ10" s="113"/>
+      <c r="AK10" s="113"/>
+      <c r="AL10" s="113"/>
+      <c r="AM10" s="114"/>
+    </row>
+    <row r="11" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="82"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="64"/>
+      <c r="AB11" s="64"/>
+      <c r="AC11" s="64"/>
+      <c r="AD11" s="64"/>
+      <c r="AE11" s="65"/>
+      <c r="AF11" s="112"/>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="113"/>
+      <c r="AI11" s="113"/>
+      <c r="AJ11" s="113"/>
+      <c r="AK11" s="113"/>
+      <c r="AL11" s="113"/>
+      <c r="AM11" s="114"/>
+    </row>
+    <row r="12" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="82"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="70"/>
+      <c r="AE12" s="71"/>
+      <c r="AF12" s="112"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="113"/>
+      <c r="AJ12" s="113"/>
+      <c r="AK12" s="113"/>
+      <c r="AL12" s="113"/>
+      <c r="AM12" s="114"/>
+    </row>
+    <row r="13" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="82"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="67"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="67"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="67"/>
+      <c r="X13" s="67"/>
+      <c r="Y13" s="67"/>
+      <c r="Z13" s="67"/>
+      <c r="AA13" s="67"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="67"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="112"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="113"/>
+      <c r="AJ13" s="113"/>
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="114"/>
+    </row>
+    <row r="14" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="82"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="64"/>
+      <c r="AC14" s="64"/>
+      <c r="AD14" s="64"/>
+      <c r="AE14" s="65"/>
+      <c r="AF14" s="112"/>
+      <c r="AG14" s="113"/>
+      <c r="AH14" s="113"/>
+      <c r="AI14" s="113"/>
+      <c r="AJ14" s="113"/>
+      <c r="AK14" s="113"/>
+      <c r="AL14" s="113"/>
+      <c r="AM14" s="114"/>
+    </row>
+    <row r="15" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="82"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="64"/>
+      <c r="AC15" s="64"/>
+      <c r="AD15" s="64"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="112"/>
+      <c r="AG15" s="113"/>
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="113"/>
+      <c r="AJ15" s="113"/>
+      <c r="AK15" s="113"/>
+      <c r="AL15" s="113"/>
+      <c r="AM15" s="114"/>
+    </row>
+    <row r="16" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="82"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="64"/>
+      <c r="AC16" s="64"/>
+      <c r="AD16" s="64"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="112"/>
+      <c r="AG16" s="113"/>
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="113"/>
+      <c r="AJ16" s="113"/>
+      <c r="AK16" s="113"/>
+      <c r="AL16" s="113"/>
+      <c r="AM16" s="114"/>
+    </row>
+    <row r="17" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="82"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="112"/>
+      <c r="AG17" s="113"/>
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="113"/>
+      <c r="AJ17" s="113"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="113"/>
+      <c r="AM17" s="114"/>
+    </row>
+    <row r="18" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="82"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="67"/>
+      <c r="V18" s="67"/>
+      <c r="W18" s="67"/>
+      <c r="X18" s="67"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="68"/>
+      <c r="AF18" s="112"/>
+      <c r="AG18" s="113"/>
+      <c r="AH18" s="113"/>
+      <c r="AI18" s="113"/>
+      <c r="AJ18" s="113"/>
+      <c r="AK18" s="113"/>
+      <c r="AL18" s="113"/>
+      <c r="AM18" s="114"/>
+    </row>
+    <row r="19" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="82"/>
+      <c r="B19" s="83"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="64"/>
+      <c r="AC19" s="64"/>
+      <c r="AD19" s="64"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="112"/>
+      <c r="AG19" s="113"/>
+      <c r="AH19" s="113"/>
+      <c r="AI19" s="113"/>
+      <c r="AJ19" s="113"/>
+      <c r="AK19" s="113"/>
+      <c r="AL19" s="113"/>
+      <c r="AM19" s="114"/>
+    </row>
+    <row r="20" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="82"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="64"/>
+      <c r="AB20" s="64"/>
+      <c r="AC20" s="64"/>
+      <c r="AD20" s="64"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="112"/>
+      <c r="AG20" s="113"/>
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="113"/>
+      <c r="AJ20" s="113"/>
+      <c r="AK20" s="113"/>
+      <c r="AL20" s="113"/>
+      <c r="AM20" s="114"/>
+    </row>
+    <row r="21" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="82"/>
+      <c r="B21" s="83"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="64"/>
+      <c r="AC21" s="64"/>
+      <c r="AD21" s="64"/>
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="112"/>
+      <c r="AG21" s="113"/>
+      <c r="AH21" s="113"/>
+      <c r="AI21" s="113"/>
+      <c r="AJ21" s="113"/>
+      <c r="AK21" s="113"/>
+      <c r="AL21" s="113"/>
+      <c r="AM21" s="114"/>
+    </row>
+    <row r="22" spans="1:39" s="12" customFormat="1" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="85"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="112"/>
+      <c r="AG22" s="113"/>
+      <c r="AH22" s="113"/>
+      <c r="AI22" s="113"/>
+      <c r="AJ22" s="113"/>
+      <c r="AK22" s="113"/>
+      <c r="AL22" s="113"/>
+      <c r="AM22" s="114"/>
+    </row>
+    <row r="23" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="57">
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="52">
         <f>SUM(H8:I22)</f>
         <v>0</v>
       </c>
-      <c r="I23" s="58"/>
-      <c r="J23" s="57">
+      <c r="I23" s="53"/>
+      <c r="J23" s="52">
         <f>SUM(J8:K22)</f>
         <v>0</v>
       </c>
-      <c r="K23" s="58"/>
-      <c r="L23" s="57">
+      <c r="K23" s="53"/>
+      <c r="L23" s="52">
         <f>SUM(L8:M22)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="58"/>
-      <c r="N23" s="57">
+      <c r="M23" s="53"/>
+      <c r="N23" s="52">
         <f>SUM(N8:O22)</f>
         <v>0</v>
       </c>
-      <c r="O23" s="58"/>
-      <c r="P23" s="57">
+      <c r="O23" s="53"/>
+      <c r="P23" s="52">
         <f>SUM(P8:Q22)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="58"/>
-      <c r="R23" s="57">
+      <c r="Q23" s="53"/>
+      <c r="R23" s="52">
         <f>SUM(R8:S22)</f>
         <v>0</v>
       </c>
-      <c r="S23" s="58"/>
-      <c r="T23" s="57">
+      <c r="S23" s="53"/>
+      <c r="T23" s="52">
         <f>SUM(T8:U22)</f>
         <v>0</v>
       </c>
-      <c r="U23" s="58"/>
-      <c r="V23" s="57">
+      <c r="U23" s="53"/>
+      <c r="V23" s="52">
         <f>SUM(V8:W22)</f>
         <v>0</v>
       </c>
-      <c r="W23" s="58"/>
-      <c r="X23" s="57">
+      <c r="W23" s="53"/>
+      <c r="X23" s="52">
         <f>SUM(X8:Y22)</f>
         <v>0</v>
       </c>
-      <c r="Y23" s="58"/>
-      <c r="Z23" s="57">
+      <c r="Y23" s="53"/>
+      <c r="Z23" s="52">
         <f>SUM(Z8:AA22)</f>
         <v>0</v>
       </c>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="57">
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="52">
         <f>SUM(AB8:AC22)</f>
         <v>0</v>
       </c>
-      <c r="AC23" s="58"/>
-      <c r="AD23" s="57">
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="52">
         <f>SUM(AD8:AE22)</f>
         <v>0</v>
       </c>
-      <c r="AE23" s="58"/>
-      <c r="AF23" s="59">
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="54">
         <f>SUM(H23:AE23)</f>
         <v>0</v>
       </c>
-      <c r="AG23" s="59"/>
-      <c r="AH23" s="96" t="s">
+      <c r="AG23" s="54"/>
+      <c r="AH23" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="AI23" s="96"/>
-      <c r="AJ23" s="96"/>
-      <c r="AK23" s="96"/>
-      <c r="AL23" s="96"/>
-      <c r="AM23" s="96"/>
-    </row>
-    <row r="24" spans="1:39" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI23" s="91"/>
+      <c r="AJ23" s="91"/>
+      <c r="AK23" s="91"/>
+      <c r="AL23" s="91"/>
+      <c r="AM23" s="91"/>
+    </row>
+    <row r="24" spans="1:39" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -3588,17 +3591,15 @@
       <c r="AL24" s="6"/>
       <c r="AM24" s="6"/>
     </row>
-    <row r="25" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
       <c r="G25" s="1" t="s">
         <v>14</v>
       </c>
@@ -3650,755 +3651,755 @@
       <c r="AE25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AF25" s="59" t="s">
+      <c r="AF25" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="59"/>
-      <c r="AK25" s="59"/>
-      <c r="AL25" s="59"/>
-      <c r="AM25" s="59"/>
-    </row>
-    <row r="26" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="108" t="s">
+      <c r="AG25" s="54"/>
+      <c r="AH25" s="54"/>
+      <c r="AI25" s="54"/>
+      <c r="AJ25" s="54"/>
+      <c r="AK25" s="54"/>
+      <c r="AL25" s="54"/>
+      <c r="AM25" s="54"/>
+    </row>
+    <row r="26" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="111" t="s">
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="107" t="s">
+      <c r="F26" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="112"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="107"/>
-      <c r="P26" s="107"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="107"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="107"/>
-      <c r="W26" s="107"/>
-      <c r="X26" s="107"/>
-      <c r="Y26" s="107"/>
-      <c r="Z26" s="107"/>
-      <c r="AA26" s="107"/>
-      <c r="AB26" s="107"/>
-      <c r="AC26" s="107"/>
-      <c r="AD26" s="107"/>
-      <c r="AE26" s="112"/>
-      <c r="AF26" s="84" t="s">
+      <c r="G26" s="107"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="102"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="102"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="102"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="102"/>
+      <c r="AC26" s="102"/>
+      <c r="AD26" s="102"/>
+      <c r="AE26" s="107"/>
+      <c r="AF26" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="AG26" s="85"/>
-      <c r="AH26" s="85"/>
-      <c r="AI26" s="85"/>
-      <c r="AJ26" s="85"/>
-      <c r="AK26" s="85"/>
-      <c r="AL26" s="85"/>
-      <c r="AM26" s="86"/>
-    </row>
-    <row r="27" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AG26" s="80"/>
+      <c r="AH26" s="80"/>
+      <c r="AI26" s="80"/>
+      <c r="AJ26" s="80"/>
+      <c r="AK26" s="80"/>
+      <c r="AL26" s="80"/>
+      <c r="AM26" s="81"/>
+    </row>
+    <row r="27" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="36"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
       <c r="D27" s="38"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="69" t="s">
+      <c r="E27" s="93"/>
+      <c r="F27" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="70"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="69"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="69"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="69"/>
-      <c r="AD27" s="69"/>
-      <c r="AE27" s="70"/>
-      <c r="AF27" s="101"/>
-      <c r="AG27" s="102"/>
-      <c r="AH27" s="102"/>
-      <c r="AI27" s="102"/>
-      <c r="AJ27" s="102"/>
-      <c r="AK27" s="102"/>
-      <c r="AL27" s="102"/>
-      <c r="AM27" s="103"/>
-    </row>
-    <row r="28" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="64"/>
+      <c r="W27" s="64"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="64"/>
+      <c r="AC27" s="64"/>
+      <c r="AD27" s="64"/>
+      <c r="AE27" s="65"/>
+      <c r="AF27" s="96"/>
+      <c r="AG27" s="97"/>
+      <c r="AH27" s="97"/>
+      <c r="AI27" s="97"/>
+      <c r="AJ27" s="97"/>
+      <c r="AK27" s="97"/>
+      <c r="AL27" s="97"/>
+      <c r="AM27" s="98"/>
+    </row>
+    <row r="28" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="36"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
       <c r="D28" s="38"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="75" t="s">
+      <c r="E28" s="95"/>
+      <c r="F28" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="G28" s="76"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="75"/>
-      <c r="R28" s="75"/>
-      <c r="S28" s="75"/>
-      <c r="T28" s="75"/>
-      <c r="U28" s="75"/>
-      <c r="V28" s="75"/>
-      <c r="W28" s="75"/>
-      <c r="X28" s="75"/>
-      <c r="Y28" s="75"/>
-      <c r="Z28" s="75"/>
-      <c r="AA28" s="75"/>
-      <c r="AB28" s="75"/>
-      <c r="AC28" s="75"/>
-      <c r="AD28" s="75"/>
-      <c r="AE28" s="76"/>
-      <c r="AF28" s="104"/>
-      <c r="AG28" s="105"/>
-      <c r="AH28" s="105"/>
-      <c r="AI28" s="105"/>
-      <c r="AJ28" s="105"/>
-      <c r="AK28" s="105"/>
-      <c r="AL28" s="105"/>
-      <c r="AM28" s="106"/>
-    </row>
-    <row r="29" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="71"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="70"/>
+      <c r="P28" s="70"/>
+      <c r="Q28" s="70"/>
+      <c r="R28" s="70"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="70"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="70"/>
+      <c r="AD28" s="70"/>
+      <c r="AE28" s="71"/>
+      <c r="AF28" s="99"/>
+      <c r="AG28" s="100"/>
+      <c r="AH28" s="100"/>
+      <c r="AI28" s="100"/>
+      <c r="AJ28" s="100"/>
+      <c r="AK28" s="100"/>
+      <c r="AL28" s="100"/>
+      <c r="AM28" s="101"/>
+    </row>
+    <row r="29" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="29"/>
       <c r="B29" s="32"/>
       <c r="C29" s="32"/>
       <c r="D29" s="30"/>
-      <c r="E29" s="98" t="s">
+      <c r="E29" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="72" t="s">
+      <c r="F29" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="G29" s="73"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="72"/>
-      <c r="X29" s="72"/>
-      <c r="Y29" s="72"/>
-      <c r="Z29" s="72"/>
-      <c r="AA29" s="72"/>
-      <c r="AB29" s="72"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="104"/>
-      <c r="AG29" s="105"/>
-      <c r="AH29" s="105"/>
-      <c r="AI29" s="105"/>
-      <c r="AJ29" s="105"/>
-      <c r="AK29" s="105"/>
-      <c r="AL29" s="105"/>
-      <c r="AM29" s="106"/>
-    </row>
-    <row r="30" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="68"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="67"/>
+      <c r="L29" s="67"/>
+      <c r="M29" s="67"/>
+      <c r="N29" s="67"/>
+      <c r="O29" s="67"/>
+      <c r="P29" s="67"/>
+      <c r="Q29" s="67"/>
+      <c r="R29" s="67"/>
+      <c r="S29" s="67"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="67"/>
+      <c r="V29" s="67"/>
+      <c r="W29" s="67"/>
+      <c r="X29" s="67"/>
+      <c r="Y29" s="67"/>
+      <c r="Z29" s="67"/>
+      <c r="AA29" s="67"/>
+      <c r="AB29" s="67"/>
+      <c r="AC29" s="67"/>
+      <c r="AD29" s="67"/>
+      <c r="AE29" s="68"/>
+      <c r="AF29" s="99"/>
+      <c r="AG29" s="100"/>
+      <c r="AH29" s="100"/>
+      <c r="AI29" s="100"/>
+      <c r="AJ29" s="100"/>
+      <c r="AK29" s="100"/>
+      <c r="AL29" s="100"/>
+      <c r="AM29" s="101"/>
+    </row>
+    <row r="30" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="29"/>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
       <c r="D30" s="30"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="69" t="s">
+      <c r="E30" s="93"/>
+      <c r="F30" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="70"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-      <c r="N30" s="69"/>
-      <c r="O30" s="69"/>
-      <c r="P30" s="69"/>
-      <c r="Q30" s="69"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="69"/>
-      <c r="AC30" s="69"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="70"/>
-      <c r="AF30" s="104"/>
-      <c r="AG30" s="105"/>
-      <c r="AH30" s="105"/>
-      <c r="AI30" s="105"/>
-      <c r="AJ30" s="105"/>
-      <c r="AK30" s="105"/>
-      <c r="AL30" s="105"/>
-      <c r="AM30" s="106"/>
-    </row>
-    <row r="31" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="65"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="64"/>
+      <c r="W30" s="64"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="64"/>
+      <c r="AB30" s="64"/>
+      <c r="AC30" s="64"/>
+      <c r="AD30" s="64"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="99"/>
+      <c r="AG30" s="100"/>
+      <c r="AH30" s="100"/>
+      <c r="AI30" s="100"/>
+      <c r="AJ30" s="100"/>
+      <c r="AK30" s="100"/>
+      <c r="AL30" s="100"/>
+      <c r="AM30" s="101"/>
+    </row>
+    <row r="31" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="29"/>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
       <c r="D31" s="30"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="75" t="s">
+      <c r="E31" s="95"/>
+      <c r="F31" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="75"/>
-      <c r="Q31" s="75"/>
-      <c r="R31" s="75"/>
-      <c r="S31" s="75"/>
-      <c r="T31" s="75"/>
-      <c r="U31" s="75"/>
-      <c r="V31" s="75"/>
-      <c r="W31" s="75"/>
-      <c r="X31" s="75"/>
-      <c r="Y31" s="75"/>
-      <c r="Z31" s="75"/>
-      <c r="AA31" s="75"/>
-      <c r="AB31" s="75"/>
-      <c r="AC31" s="75"/>
-      <c r="AD31" s="75"/>
-      <c r="AE31" s="76"/>
-      <c r="AF31" s="104"/>
-      <c r="AG31" s="105"/>
-      <c r="AH31" s="105"/>
-      <c r="AI31" s="105"/>
-      <c r="AJ31" s="105"/>
-      <c r="AK31" s="105"/>
-      <c r="AL31" s="105"/>
-      <c r="AM31" s="106"/>
-    </row>
-    <row r="32" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="71"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="70"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="70"/>
+      <c r="Z31" s="70"/>
+      <c r="AA31" s="70"/>
+      <c r="AB31" s="70"/>
+      <c r="AC31" s="70"/>
+      <c r="AD31" s="70"/>
+      <c r="AE31" s="71"/>
+      <c r="AF31" s="99"/>
+      <c r="AG31" s="100"/>
+      <c r="AH31" s="100"/>
+      <c r="AI31" s="100"/>
+      <c r="AJ31" s="100"/>
+      <c r="AK31" s="100"/>
+      <c r="AL31" s="100"/>
+      <c r="AM31" s="101"/>
+    </row>
+    <row r="32" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="29"/>
       <c r="B32" s="32"/>
       <c r="C32" s="32"/>
       <c r="D32" s="30"/>
-      <c r="E32" s="98" t="s">
+      <c r="E32" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="72" t="s">
+      <c r="F32" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="G32" s="73"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72"/>
-      <c r="K32" s="72"/>
-      <c r="L32" s="72"/>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="72"/>
-      <c r="Y32" s="72"/>
-      <c r="Z32" s="72"/>
-      <c r="AA32" s="72"/>
-      <c r="AB32" s="72"/>
-      <c r="AC32" s="72"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="73"/>
-      <c r="AF32" s="104"/>
-      <c r="AG32" s="105"/>
-      <c r="AH32" s="105"/>
-      <c r="AI32" s="105"/>
-      <c r="AJ32" s="105"/>
-      <c r="AK32" s="105"/>
-      <c r="AL32" s="105"/>
-      <c r="AM32" s="106"/>
-    </row>
-    <row r="33" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="68"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
+      <c r="K32" s="67"/>
+      <c r="L32" s="67"/>
+      <c r="M32" s="67"/>
+      <c r="N32" s="67"/>
+      <c r="O32" s="67"/>
+      <c r="P32" s="67"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="67"/>
+      <c r="U32" s="67"/>
+      <c r="V32" s="67"/>
+      <c r="W32" s="67"/>
+      <c r="X32" s="67"/>
+      <c r="Y32" s="67"/>
+      <c r="Z32" s="67"/>
+      <c r="AA32" s="67"/>
+      <c r="AB32" s="67"/>
+      <c r="AC32" s="67"/>
+      <c r="AD32" s="67"/>
+      <c r="AE32" s="68"/>
+      <c r="AF32" s="99"/>
+      <c r="AG32" s="100"/>
+      <c r="AH32" s="100"/>
+      <c r="AI32" s="100"/>
+      <c r="AJ32" s="100"/>
+      <c r="AK32" s="100"/>
+      <c r="AL32" s="100"/>
+      <c r="AM32" s="101"/>
+    </row>
+    <row r="33" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="29"/>
       <c r="B33" s="32"/>
       <c r="C33" s="32"/>
       <c r="D33" s="30"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="69" t="s">
+      <c r="E33" s="93"/>
+      <c r="F33" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="70"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69"/>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69"/>
-      <c r="M33" s="69"/>
-      <c r="N33" s="69"/>
-      <c r="O33" s="69"/>
-      <c r="P33" s="69"/>
-      <c r="Q33" s="69"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
-      <c r="U33" s="69"/>
-      <c r="V33" s="69"/>
-      <c r="W33" s="69"/>
-      <c r="X33" s="69"/>
-      <c r="Y33" s="69"/>
-      <c r="Z33" s="69"/>
-      <c r="AA33" s="69"/>
-      <c r="AB33" s="69"/>
-      <c r="AC33" s="69"/>
-      <c r="AD33" s="69"/>
-      <c r="AE33" s="70"/>
-      <c r="AF33" s="104"/>
-      <c r="AG33" s="105"/>
-      <c r="AH33" s="105"/>
-      <c r="AI33" s="105"/>
-      <c r="AJ33" s="105"/>
-      <c r="AK33" s="105"/>
-      <c r="AL33" s="105"/>
-      <c r="AM33" s="106"/>
-    </row>
-    <row r="34" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="65"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="64"/>
+      <c r="W33" s="64"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="64"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="64"/>
+      <c r="AE33" s="65"/>
+      <c r="AF33" s="99"/>
+      <c r="AG33" s="100"/>
+      <c r="AH33" s="100"/>
+      <c r="AI33" s="100"/>
+      <c r="AJ33" s="100"/>
+      <c r="AK33" s="100"/>
+      <c r="AL33" s="100"/>
+      <c r="AM33" s="101"/>
+    </row>
+    <row r="34" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="29"/>
       <c r="B34" s="31"/>
       <c r="C34" s="32"/>
       <c r="D34" s="30"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="75" t="s">
+      <c r="E34" s="95"/>
+      <c r="F34" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="G34" s="76"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="75"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="75"/>
-      <c r="N34" s="75"/>
-      <c r="O34" s="75"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="75"/>
-      <c r="R34" s="75"/>
-      <c r="S34" s="75"/>
-      <c r="T34" s="75"/>
-      <c r="U34" s="75"/>
-      <c r="V34" s="75"/>
-      <c r="W34" s="75"/>
-      <c r="X34" s="75"/>
-      <c r="Y34" s="75"/>
-      <c r="Z34" s="75"/>
-      <c r="AA34" s="75"/>
-      <c r="AB34" s="75"/>
-      <c r="AC34" s="75"/>
-      <c r="AD34" s="75"/>
-      <c r="AE34" s="76"/>
-      <c r="AF34" s="104"/>
-      <c r="AG34" s="105"/>
-      <c r="AH34" s="105"/>
-      <c r="AI34" s="105"/>
-      <c r="AJ34" s="105"/>
-      <c r="AK34" s="105"/>
-      <c r="AL34" s="105"/>
-      <c r="AM34" s="106"/>
-    </row>
-    <row r="35" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="71"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="70"/>
+      <c r="Q34" s="70"/>
+      <c r="R34" s="70"/>
+      <c r="S34" s="70"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="70"/>
+      <c r="X34" s="70"/>
+      <c r="Y34" s="70"/>
+      <c r="Z34" s="70"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="70"/>
+      <c r="AC34" s="70"/>
+      <c r="AD34" s="70"/>
+      <c r="AE34" s="71"/>
+      <c r="AF34" s="99"/>
+      <c r="AG34" s="100"/>
+      <c r="AH34" s="100"/>
+      <c r="AI34" s="100"/>
+      <c r="AJ34" s="100"/>
+      <c r="AK34" s="100"/>
+      <c r="AL34" s="100"/>
+      <c r="AM34" s="101"/>
+    </row>
+    <row r="35" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="29"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
       <c r="D35" s="30"/>
-      <c r="E35" s="98" t="s">
+      <c r="E35" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="F35" s="72" t="s">
+      <c r="F35" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="G35" s="73"/>
-      <c r="H35" s="74"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="72"/>
-      <c r="R35" s="72"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="72"/>
-      <c r="Y35" s="72"/>
-      <c r="Z35" s="72"/>
-      <c r="AA35" s="72"/>
-      <c r="AB35" s="72"/>
-      <c r="AC35" s="72"/>
-      <c r="AD35" s="72"/>
-      <c r="AE35" s="73"/>
-      <c r="AF35" s="104"/>
-      <c r="AG35" s="105"/>
-      <c r="AH35" s="105"/>
-      <c r="AI35" s="105"/>
-      <c r="AJ35" s="105"/>
-      <c r="AK35" s="105"/>
-      <c r="AL35" s="105"/>
-      <c r="AM35" s="106"/>
-    </row>
-    <row r="36" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="67"/>
+      <c r="J35" s="67"/>
+      <c r="K35" s="67"/>
+      <c r="L35" s="67"/>
+      <c r="M35" s="67"/>
+      <c r="N35" s="67"/>
+      <c r="O35" s="67"/>
+      <c r="P35" s="67"/>
+      <c r="Q35" s="67"/>
+      <c r="R35" s="67"/>
+      <c r="S35" s="67"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="67"/>
+      <c r="V35" s="67"/>
+      <c r="W35" s="67"/>
+      <c r="X35" s="67"/>
+      <c r="Y35" s="67"/>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="67"/>
+      <c r="AB35" s="67"/>
+      <c r="AC35" s="67"/>
+      <c r="AD35" s="67"/>
+      <c r="AE35" s="68"/>
+      <c r="AF35" s="99"/>
+      <c r="AG35" s="100"/>
+      <c r="AH35" s="100"/>
+      <c r="AI35" s="100"/>
+      <c r="AJ35" s="100"/>
+      <c r="AK35" s="100"/>
+      <c r="AL35" s="100"/>
+      <c r="AM35" s="101"/>
+    </row>
+    <row r="36" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="29"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
       <c r="D36" s="30"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="69" t="s">
+      <c r="E36" s="93"/>
+      <c r="F36" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="70"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69"/>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
-      <c r="N36" s="69"/>
-      <c r="O36" s="69"/>
-      <c r="P36" s="69"/>
-      <c r="Q36" s="69"/>
-      <c r="R36" s="69"/>
-      <c r="S36" s="69"/>
-      <c r="T36" s="69"/>
-      <c r="U36" s="69"/>
-      <c r="V36" s="69"/>
-      <c r="W36" s="69"/>
-      <c r="X36" s="69"/>
-      <c r="Y36" s="69"/>
-      <c r="Z36" s="69"/>
-      <c r="AA36" s="69"/>
-      <c r="AB36" s="69"/>
-      <c r="AC36" s="69"/>
-      <c r="AD36" s="69"/>
-      <c r="AE36" s="70"/>
-      <c r="AF36" s="104"/>
-      <c r="AG36" s="105"/>
-      <c r="AH36" s="105"/>
-      <c r="AI36" s="105"/>
-      <c r="AJ36" s="105"/>
-      <c r="AK36" s="105"/>
-      <c r="AL36" s="105"/>
-      <c r="AM36" s="106"/>
-    </row>
-    <row r="37" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G36" s="65"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="64"/>
+      <c r="W36" s="64"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="64"/>
+      <c r="AB36" s="64"/>
+      <c r="AC36" s="64"/>
+      <c r="AD36" s="64"/>
+      <c r="AE36" s="65"/>
+      <c r="AF36" s="99"/>
+      <c r="AG36" s="100"/>
+      <c r="AH36" s="100"/>
+      <c r="AI36" s="100"/>
+      <c r="AJ36" s="100"/>
+      <c r="AK36" s="100"/>
+      <c r="AL36" s="100"/>
+      <c r="AM36" s="101"/>
+    </row>
+    <row r="37" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="29"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
       <c r="D37" s="30"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="75" t="s">
+      <c r="E37" s="95"/>
+      <c r="F37" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="G37" s="76"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="75"/>
-      <c r="O37" s="75"/>
-      <c r="P37" s="75"/>
-      <c r="Q37" s="75"/>
-      <c r="R37" s="75"/>
-      <c r="S37" s="75"/>
-      <c r="T37" s="75"/>
-      <c r="U37" s="75"/>
-      <c r="V37" s="75"/>
-      <c r="W37" s="75"/>
-      <c r="X37" s="75"/>
-      <c r="Y37" s="75"/>
-      <c r="Z37" s="75"/>
-      <c r="AA37" s="75"/>
-      <c r="AB37" s="75"/>
-      <c r="AC37" s="75"/>
-      <c r="AD37" s="75"/>
-      <c r="AE37" s="76"/>
-      <c r="AF37" s="104"/>
-      <c r="AG37" s="105"/>
-      <c r="AH37" s="105"/>
-      <c r="AI37" s="105"/>
-      <c r="AJ37" s="105"/>
-      <c r="AK37" s="105"/>
-      <c r="AL37" s="105"/>
-      <c r="AM37" s="106"/>
-    </row>
-    <row r="38" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G37" s="71"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="70"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="70"/>
+      <c r="R37" s="70"/>
+      <c r="S37" s="70"/>
+      <c r="T37" s="70"/>
+      <c r="U37" s="70"/>
+      <c r="V37" s="70"/>
+      <c r="W37" s="70"/>
+      <c r="X37" s="70"/>
+      <c r="Y37" s="70"/>
+      <c r="Z37" s="70"/>
+      <c r="AA37" s="70"/>
+      <c r="AB37" s="70"/>
+      <c r="AC37" s="70"/>
+      <c r="AD37" s="70"/>
+      <c r="AE37" s="71"/>
+      <c r="AF37" s="99"/>
+      <c r="AG37" s="100"/>
+      <c r="AH37" s="100"/>
+      <c r="AI37" s="100"/>
+      <c r="AJ37" s="100"/>
+      <c r="AK37" s="100"/>
+      <c r="AL37" s="100"/>
+      <c r="AM37" s="101"/>
+    </row>
+    <row r="38" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="29"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
       <c r="D38" s="30"/>
-      <c r="E38" s="98" t="s">
+      <c r="E38" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="F38" s="72" t="s">
+      <c r="F38" s="67" t="s">
         <v>49</v>
       </c>
-      <c r="G38" s="73"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="72"/>
-      <c r="AC38" s="72"/>
-      <c r="AD38" s="72"/>
-      <c r="AE38" s="73"/>
-      <c r="AF38" s="104"/>
-      <c r="AG38" s="105"/>
-      <c r="AH38" s="105"/>
-      <c r="AI38" s="105"/>
-      <c r="AJ38" s="105"/>
-      <c r="AK38" s="105"/>
-      <c r="AL38" s="105"/>
-      <c r="AM38" s="106"/>
-    </row>
-    <row r="39" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="68"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="67"/>
+      <c r="M38" s="67"/>
+      <c r="N38" s="67"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="67"/>
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="67"/>
+      <c r="V38" s="67"/>
+      <c r="W38" s="67"/>
+      <c r="X38" s="67"/>
+      <c r="Y38" s="67"/>
+      <c r="Z38" s="67"/>
+      <c r="AA38" s="67"/>
+      <c r="AB38" s="67"/>
+      <c r="AC38" s="67"/>
+      <c r="AD38" s="67"/>
+      <c r="AE38" s="68"/>
+      <c r="AF38" s="99"/>
+      <c r="AG38" s="100"/>
+      <c r="AH38" s="100"/>
+      <c r="AI38" s="100"/>
+      <c r="AJ38" s="100"/>
+      <c r="AK38" s="100"/>
+      <c r="AL38" s="100"/>
+      <c r="AM38" s="101"/>
+    </row>
+    <row r="39" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="29"/>
       <c r="B39" s="32"/>
       <c r="C39" s="32"/>
       <c r="D39" s="30"/>
-      <c r="E39" s="98"/>
-      <c r="F39" s="69" t="s">
+      <c r="E39" s="93"/>
+      <c r="F39" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="G39" s="70"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69"/>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69"/>
-      <c r="M39" s="69"/>
-      <c r="N39" s="69"/>
-      <c r="O39" s="69"/>
-      <c r="P39" s="69"/>
-      <c r="Q39" s="69"/>
-      <c r="R39" s="69"/>
-      <c r="S39" s="69"/>
-      <c r="T39" s="69"/>
-      <c r="U39" s="69"/>
-      <c r="V39" s="69"/>
-      <c r="W39" s="69"/>
-      <c r="X39" s="69"/>
-      <c r="Y39" s="69"/>
-      <c r="Z39" s="69"/>
-      <c r="AA39" s="69"/>
-      <c r="AB39" s="69"/>
-      <c r="AC39" s="69"/>
-      <c r="AD39" s="69"/>
-      <c r="AE39" s="70"/>
-      <c r="AF39" s="104"/>
-      <c r="AG39" s="105"/>
-      <c r="AH39" s="105"/>
-      <c r="AI39" s="105"/>
-      <c r="AJ39" s="105"/>
-      <c r="AK39" s="105"/>
-      <c r="AL39" s="105"/>
-      <c r="AM39" s="106"/>
-    </row>
-    <row r="40" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="65"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="64"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="64"/>
+      <c r="W39" s="64"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="64"/>
+      <c r="Z39" s="64"/>
+      <c r="AA39" s="64"/>
+      <c r="AB39" s="64"/>
+      <c r="AC39" s="64"/>
+      <c r="AD39" s="64"/>
+      <c r="AE39" s="65"/>
+      <c r="AF39" s="99"/>
+      <c r="AG39" s="100"/>
+      <c r="AH39" s="100"/>
+      <c r="AI39" s="100"/>
+      <c r="AJ39" s="100"/>
+      <c r="AK39" s="100"/>
+      <c r="AL39" s="100"/>
+      <c r="AM39" s="101"/>
+    </row>
+    <row r="40" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="29"/>
       <c r="B40" s="32"/>
       <c r="C40" s="32"/>
       <c r="D40" s="30"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="75" t="s">
+      <c r="E40" s="95"/>
+      <c r="F40" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="76"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="75"/>
-      <c r="Q40" s="75"/>
-      <c r="R40" s="75"/>
-      <c r="S40" s="75"/>
-      <c r="T40" s="75"/>
-      <c r="U40" s="75"/>
-      <c r="V40" s="75"/>
-      <c r="W40" s="75"/>
-      <c r="X40" s="75"/>
-      <c r="Y40" s="75"/>
-      <c r="Z40" s="75"/>
-      <c r="AA40" s="75"/>
-      <c r="AB40" s="75"/>
-      <c r="AC40" s="75"/>
-      <c r="AD40" s="75"/>
-      <c r="AE40" s="76"/>
-      <c r="AF40" s="104"/>
-      <c r="AG40" s="105"/>
-      <c r="AH40" s="105"/>
-      <c r="AI40" s="105"/>
-      <c r="AJ40" s="105"/>
-      <c r="AK40" s="105"/>
-      <c r="AL40" s="105"/>
-      <c r="AM40" s="106"/>
-    </row>
-    <row r="41" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G40" s="71"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="70"/>
+      <c r="S40" s="70"/>
+      <c r="T40" s="70"/>
+      <c r="U40" s="70"/>
+      <c r="V40" s="70"/>
+      <c r="W40" s="70"/>
+      <c r="X40" s="70"/>
+      <c r="Y40" s="70"/>
+      <c r="Z40" s="70"/>
+      <c r="AA40" s="70"/>
+      <c r="AB40" s="70"/>
+      <c r="AC40" s="70"/>
+      <c r="AD40" s="70"/>
+      <c r="AE40" s="71"/>
+      <c r="AF40" s="99"/>
+      <c r="AG40" s="100"/>
+      <c r="AH40" s="100"/>
+      <c r="AI40" s="100"/>
+      <c r="AJ40" s="100"/>
+      <c r="AK40" s="100"/>
+      <c r="AL40" s="100"/>
+      <c r="AM40" s="101"/>
+    </row>
+    <row r="41" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="29"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
       <c r="D41" s="30"/>
-      <c r="E41" s="98" t="s">
+      <c r="E41" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="72" t="s">
+      <c r="F41" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="G41" s="73"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="72"/>
-      <c r="R41" s="72"/>
-      <c r="S41" s="72"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
-      <c r="X41" s="72"/>
-      <c r="Y41" s="72"/>
-      <c r="Z41" s="72"/>
-      <c r="AA41" s="72"/>
-      <c r="AB41" s="72"/>
-      <c r="AC41" s="72"/>
-      <c r="AD41" s="72"/>
-      <c r="AE41" s="73"/>
-      <c r="AF41" s="104"/>
-      <c r="AG41" s="105"/>
-      <c r="AH41" s="105"/>
-      <c r="AI41" s="105"/>
-      <c r="AJ41" s="105"/>
-      <c r="AK41" s="105"/>
-      <c r="AL41" s="105"/>
-      <c r="AM41" s="106"/>
-    </row>
-    <row r="42" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="68"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="67"/>
+      <c r="J41" s="67"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="67"/>
+      <c r="M41" s="67"/>
+      <c r="N41" s="67"/>
+      <c r="O41" s="67"/>
+      <c r="P41" s="67"/>
+      <c r="Q41" s="67"/>
+      <c r="R41" s="67"/>
+      <c r="S41" s="67"/>
+      <c r="T41" s="67"/>
+      <c r="U41" s="67"/>
+      <c r="V41" s="67"/>
+      <c r="W41" s="67"/>
+      <c r="X41" s="67"/>
+      <c r="Y41" s="67"/>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="67"/>
+      <c r="AB41" s="67"/>
+      <c r="AC41" s="67"/>
+      <c r="AD41" s="67"/>
+      <c r="AE41" s="68"/>
+      <c r="AF41" s="99"/>
+      <c r="AG41" s="100"/>
+      <c r="AH41" s="100"/>
+      <c r="AI41" s="100"/>
+      <c r="AJ41" s="100"/>
+      <c r="AK41" s="100"/>
+      <c r="AL41" s="100"/>
+      <c r="AM41" s="101"/>
+    </row>
+    <row r="42" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="29"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="30"/>
-      <c r="E42" s="98"/>
-      <c r="F42" s="69" t="s">
+      <c r="E42" s="93"/>
+      <c r="F42" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="G42" s="70"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="69"/>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-      <c r="N42" s="69"/>
-      <c r="O42" s="69"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="69"/>
-      <c r="R42" s="69"/>
-      <c r="S42" s="69"/>
-      <c r="T42" s="69"/>
-      <c r="U42" s="69"/>
-      <c r="V42" s="69"/>
-      <c r="W42" s="69"/>
-      <c r="X42" s="69"/>
-      <c r="Y42" s="69"/>
-      <c r="Z42" s="69"/>
-      <c r="AA42" s="69"/>
-      <c r="AB42" s="69"/>
-      <c r="AC42" s="69"/>
-      <c r="AD42" s="69"/>
-      <c r="AE42" s="70"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="64"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="64"/>
+      <c r="W42" s="64"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="64"/>
+      <c r="AA42" s="64"/>
+      <c r="AB42" s="64"/>
+      <c r="AC42" s="64"/>
+      <c r="AD42" s="64"/>
+      <c r="AE42" s="65"/>
       <c r="AF42" s="11" t="s">
         <v>55</v>
       </c>
@@ -4410,40 +4411,40 @@
       <c r="AL42" s="10"/>
       <c r="AM42" s="7"/>
     </row>
-    <row r="43" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="29"/>
       <c r="B43" s="31"/>
       <c r="C43" s="32"/>
       <c r="D43" s="30"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="75" t="s">
+      <c r="E43" s="95"/>
+      <c r="F43" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G43" s="76"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="75"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="75"/>
-      <c r="P43" s="75"/>
-      <c r="Q43" s="75"/>
-      <c r="R43" s="75"/>
-      <c r="S43" s="75"/>
-      <c r="T43" s="75"/>
-      <c r="U43" s="75"/>
-      <c r="V43" s="75"/>
-      <c r="W43" s="75"/>
-      <c r="X43" s="75"/>
-      <c r="Y43" s="75"/>
-      <c r="Z43" s="75"/>
-      <c r="AA43" s="75"/>
-      <c r="AB43" s="75"/>
-      <c r="AC43" s="75"/>
-      <c r="AD43" s="75"/>
-      <c r="AE43" s="76"/>
+      <c r="G43" s="71"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="70"/>
+      <c r="P43" s="70"/>
+      <c r="Q43" s="70"/>
+      <c r="R43" s="70"/>
+      <c r="S43" s="70"/>
+      <c r="T43" s="70"/>
+      <c r="U43" s="70"/>
+      <c r="V43" s="70"/>
+      <c r="W43" s="70"/>
+      <c r="X43" s="70"/>
+      <c r="Y43" s="70"/>
+      <c r="Z43" s="70"/>
+      <c r="AA43" s="70"/>
+      <c r="AB43" s="70"/>
+      <c r="AC43" s="70"/>
+      <c r="AD43" s="70"/>
+      <c r="AE43" s="71"/>
       <c r="AF43" s="9" t="s">
         <v>57</v>
       </c>
@@ -4455,42 +4456,42 @@
       <c r="AL43" s="10"/>
       <c r="AM43" s="7"/>
     </row>
-    <row r="44" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="29"/>
       <c r="B44" s="32"/>
       <c r="C44" s="32"/>
       <c r="D44" s="30"/>
-      <c r="E44" s="98" t="s">
+      <c r="E44" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="F44" s="72" t="s">
+      <c r="F44" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="G44" s="73"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="72"/>
-      <c r="R44" s="72"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="72"/>
-      <c r="Y44" s="72"/>
-      <c r="Z44" s="72"/>
-      <c r="AA44" s="72"/>
-      <c r="AB44" s="72"/>
-      <c r="AC44" s="72"/>
-      <c r="AD44" s="72"/>
-      <c r="AE44" s="73"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="67"/>
+      <c r="J44" s="67"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="67"/>
+      <c r="M44" s="67"/>
+      <c r="N44" s="67"/>
+      <c r="O44" s="67"/>
+      <c r="P44" s="67"/>
+      <c r="Q44" s="67"/>
+      <c r="R44" s="67"/>
+      <c r="S44" s="67"/>
+      <c r="T44" s="67"/>
+      <c r="U44" s="67"/>
+      <c r="V44" s="67"/>
+      <c r="W44" s="67"/>
+      <c r="X44" s="67"/>
+      <c r="Y44" s="67"/>
+      <c r="Z44" s="67"/>
+      <c r="AA44" s="67"/>
+      <c r="AB44" s="67"/>
+      <c r="AC44" s="67"/>
+      <c r="AD44" s="67"/>
+      <c r="AE44" s="68"/>
       <c r="AF44" s="9" t="s">
         <v>60</v>
       </c>
@@ -4502,40 +4503,40 @@
       <c r="AL44" s="8"/>
       <c r="AM44" s="7"/>
     </row>
-    <row r="45" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="29"/>
       <c r="B45" s="32"/>
       <c r="C45" s="32"/>
       <c r="D45" s="30"/>
-      <c r="E45" s="98"/>
-      <c r="F45" s="69" t="s">
+      <c r="E45" s="93"/>
+      <c r="F45" s="64" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="70"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="69"/>
-      <c r="K45" s="69"/>
-      <c r="L45" s="69"/>
-      <c r="M45" s="69"/>
-      <c r="N45" s="69"/>
-      <c r="O45" s="69"/>
-      <c r="P45" s="69"/>
-      <c r="Q45" s="69"/>
-      <c r="R45" s="69"/>
-      <c r="S45" s="69"/>
-      <c r="T45" s="69"/>
-      <c r="U45" s="69"/>
-      <c r="V45" s="69"/>
-      <c r="W45" s="69"/>
-      <c r="X45" s="69"/>
-      <c r="Y45" s="69"/>
-      <c r="Z45" s="69"/>
-      <c r="AA45" s="69"/>
-      <c r="AB45" s="69"/>
-      <c r="AC45" s="69"/>
-      <c r="AD45" s="69"/>
-      <c r="AE45" s="70"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="64"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="64"/>
+      <c r="L45" s="64"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="64"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="64"/>
+      <c r="T45" s="64"/>
+      <c r="U45" s="64"/>
+      <c r="V45" s="64"/>
+      <c r="W45" s="64"/>
+      <c r="X45" s="64"/>
+      <c r="Y45" s="64"/>
+      <c r="Z45" s="64"/>
+      <c r="AA45" s="64"/>
+      <c r="AB45" s="64"/>
+      <c r="AC45" s="64"/>
+      <c r="AD45" s="64"/>
+      <c r="AE45" s="65"/>
       <c r="AF45" s="9" t="s">
         <v>62</v>
       </c>
@@ -4547,40 +4548,40 @@
       <c r="AL45" s="8"/>
       <c r="AM45" s="7"/>
     </row>
-    <row r="46" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="33"/>
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="35"/>
-      <c r="E46" s="99"/>
-      <c r="F46" s="66" t="s">
+      <c r="E46" s="94"/>
+      <c r="F46" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="G46" s="67"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="66"/>
-      <c r="M46" s="66"/>
-      <c r="N46" s="66"/>
-      <c r="O46" s="66"/>
-      <c r="P46" s="66"/>
-      <c r="Q46" s="66"/>
-      <c r="R46" s="66"/>
-      <c r="S46" s="66"/>
-      <c r="T46" s="66"/>
-      <c r="U46" s="66"/>
-      <c r="V46" s="66"/>
-      <c r="W46" s="66"/>
-      <c r="X46" s="66"/>
-      <c r="Y46" s="66"/>
-      <c r="Z46" s="66"/>
-      <c r="AA46" s="66"/>
-      <c r="AB46" s="66"/>
-      <c r="AC46" s="66"/>
-      <c r="AD46" s="66"/>
-      <c r="AE46" s="67"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
+      <c r="T46" s="61"/>
+      <c r="U46" s="61"/>
+      <c r="V46" s="61"/>
+      <c r="W46" s="61"/>
+      <c r="X46" s="61"/>
+      <c r="Y46" s="61"/>
+      <c r="Z46" s="61"/>
+      <c r="AA46" s="61"/>
+      <c r="AB46" s="61"/>
+      <c r="AC46" s="61"/>
+      <c r="AD46" s="61"/>
+      <c r="AE46" s="62"/>
       <c r="AF46" s="9" t="s">
         <v>64</v>
       </c>
@@ -4592,91 +4593,91 @@
       <c r="AL46" s="8"/>
       <c r="AM46" s="7"/>
     </row>
-    <row r="47" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64" t="s">
+    <row r="47" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="65"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="65"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="57">
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="52">
         <f>SUM(H26:I46)</f>
         <v>0</v>
       </c>
-      <c r="I47" s="58"/>
-      <c r="J47" s="57">
+      <c r="I47" s="53"/>
+      <c r="J47" s="52">
         <f t="shared" ref="J47" si="0">SUM(J26:K46)</f>
         <v>0</v>
       </c>
-      <c r="K47" s="58"/>
-      <c r="L47" s="57">
+      <c r="K47" s="53"/>
+      <c r="L47" s="52">
         <f t="shared" ref="L47" si="1">SUM(L26:M46)</f>
         <v>0</v>
       </c>
-      <c r="M47" s="58"/>
-      <c r="N47" s="57">
+      <c r="M47" s="53"/>
+      <c r="N47" s="52">
         <f t="shared" ref="N47" si="2">SUM(N26:O46)</f>
         <v>0</v>
       </c>
-      <c r="O47" s="58"/>
-      <c r="P47" s="57">
+      <c r="O47" s="53"/>
+      <c r="P47" s="52">
         <f t="shared" ref="P47" si="3">SUM(P26:Q46)</f>
         <v>0</v>
       </c>
-      <c r="Q47" s="58"/>
-      <c r="R47" s="57">
+      <c r="Q47" s="53"/>
+      <c r="R47" s="52">
         <f t="shared" ref="R47" si="4">SUM(R26:S46)</f>
         <v>0</v>
       </c>
-      <c r="S47" s="58"/>
-      <c r="T47" s="57">
+      <c r="S47" s="53"/>
+      <c r="T47" s="52">
         <f t="shared" ref="T47" si="5">SUM(T26:U46)</f>
         <v>0</v>
       </c>
-      <c r="U47" s="58"/>
-      <c r="V47" s="57">
+      <c r="U47" s="53"/>
+      <c r="V47" s="52">
         <f t="shared" ref="V47" si="6">SUM(V26:W46)</f>
         <v>0</v>
       </c>
-      <c r="W47" s="58"/>
-      <c r="X47" s="57">
+      <c r="W47" s="53"/>
+      <c r="X47" s="52">
         <f t="shared" ref="X47" si="7">SUM(X26:Y46)</f>
         <v>0</v>
       </c>
-      <c r="Y47" s="58"/>
-      <c r="Z47" s="57">
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="52">
         <f t="shared" ref="Z47" si="8">SUM(Z26:AA46)</f>
         <v>0</v>
       </c>
-      <c r="AA47" s="58"/>
-      <c r="AB47" s="57">
+      <c r="AA47" s="53"/>
+      <c r="AB47" s="52">
         <f t="shared" ref="AB47" si="9">SUM(AB26:AC46)</f>
         <v>0</v>
       </c>
-      <c r="AC47" s="58"/>
-      <c r="AD47" s="57">
+      <c r="AC47" s="53"/>
+      <c r="AD47" s="52">
         <f t="shared" ref="AD47" si="10">SUM(AD26:AE46)</f>
         <v>0</v>
       </c>
-      <c r="AE47" s="58"/>
-      <c r="AF47" s="59">
+      <c r="AE47" s="53"/>
+      <c r="AF47" s="54">
         <f>SUM(H47:AE47)</f>
         <v>0</v>
       </c>
-      <c r="AG47" s="59"/>
-      <c r="AH47" s="96" t="s">
+      <c r="AG47" s="54"/>
+      <c r="AH47" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="AI47" s="96"/>
-      <c r="AJ47" s="96"/>
-      <c r="AK47" s="96"/>
-      <c r="AL47" s="96"/>
-      <c r="AM47" s="96"/>
-    </row>
-    <row r="48" spans="1:39" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI47" s="91"/>
+      <c r="AJ47" s="91"/>
+      <c r="AK47" s="91"/>
+      <c r="AL47" s="91"/>
+      <c r="AM47" s="91"/>
+    </row>
+    <row r="48" spans="1:39" ht="2.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -4717,17 +4718,15 @@
       <c r="AL48" s="6"/>
       <c r="AM48" s="6"/>
     </row>
-    <row r="49" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
-      <c r="D49" s="97" t="s">
-        <v>72</v>
-      </c>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
       <c r="G49" s="1" t="s">
         <v>14</v>
       </c>
@@ -4779,861 +4778,861 @@
       <c r="AE49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AF49" s="59" t="s">
+      <c r="AF49" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="AG49" s="59"/>
-      <c r="AH49" s="59"/>
-      <c r="AI49" s="59"/>
-      <c r="AJ49" s="59"/>
-      <c r="AK49" s="59"/>
-      <c r="AL49" s="59"/>
-      <c r="AM49" s="59"/>
-    </row>
-    <row r="50" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="93" t="s">
+      <c r="AG49" s="54"/>
+      <c r="AH49" s="54"/>
+      <c r="AI49" s="54"/>
+      <c r="AJ49" s="54"/>
+      <c r="AK49" s="54"/>
+      <c r="AL49" s="54"/>
+      <c r="AM49" s="54"/>
+    </row>
+    <row r="50" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="94"/>
-      <c r="C50" s="94"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="94"/>
-      <c r="F50" s="94"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="72"/>
-      <c r="R50" s="72"/>
-      <c r="S50" s="72"/>
-      <c r="T50" s="72"/>
-      <c r="U50" s="72"/>
-      <c r="V50" s="72"/>
-      <c r="W50" s="72"/>
-      <c r="X50" s="72"/>
-      <c r="Y50" s="72"/>
-      <c r="Z50" s="72"/>
-      <c r="AA50" s="72"/>
-      <c r="AB50" s="72"/>
-      <c r="AC50" s="72"/>
-      <c r="AD50" s="72"/>
-      <c r="AE50" s="73"/>
-      <c r="AF50" s="84" t="s">
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="67"/>
+      <c r="J50" s="67"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
+      <c r="O50" s="67"/>
+      <c r="P50" s="67"/>
+      <c r="Q50" s="67"/>
+      <c r="R50" s="67"/>
+      <c r="S50" s="67"/>
+      <c r="T50" s="67"/>
+      <c r="U50" s="67"/>
+      <c r="V50" s="67"/>
+      <c r="W50" s="67"/>
+      <c r="X50" s="67"/>
+      <c r="Y50" s="67"/>
+      <c r="Z50" s="67"/>
+      <c r="AA50" s="67"/>
+      <c r="AB50" s="67"/>
+      <c r="AC50" s="67"/>
+      <c r="AD50" s="67"/>
+      <c r="AE50" s="68"/>
+      <c r="AF50" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="AG50" s="85"/>
-      <c r="AH50" s="85"/>
-      <c r="AI50" s="85"/>
-      <c r="AJ50" s="85"/>
-      <c r="AK50" s="85"/>
-      <c r="AL50" s="85"/>
-      <c r="AM50" s="86"/>
-    </row>
-    <row r="51" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="87"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="88"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="69"/>
-      <c r="K51" s="69"/>
-      <c r="L51" s="69"/>
-      <c r="M51" s="69"/>
-      <c r="N51" s="69"/>
-      <c r="O51" s="69"/>
-      <c r="P51" s="69"/>
-      <c r="Q51" s="69"/>
-      <c r="R51" s="69"/>
-      <c r="S51" s="69"/>
-      <c r="T51" s="69"/>
-      <c r="U51" s="69"/>
-      <c r="V51" s="69"/>
-      <c r="W51" s="69"/>
-      <c r="X51" s="69"/>
-      <c r="Y51" s="69"/>
-      <c r="Z51" s="69"/>
-      <c r="AA51" s="69"/>
-      <c r="AB51" s="69"/>
-      <c r="AC51" s="69"/>
-      <c r="AD51" s="69"/>
-      <c r="AE51" s="70"/>
-      <c r="AF51" s="78"/>
-      <c r="AG51" s="79"/>
-      <c r="AH51" s="79"/>
-      <c r="AI51" s="79"/>
-      <c r="AJ51" s="79"/>
-      <c r="AK51" s="79"/>
-      <c r="AL51" s="79"/>
-      <c r="AM51" s="80"/>
-    </row>
-    <row r="52" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="87"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="F52" s="88"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="69"/>
-      <c r="N52" s="69"/>
-      <c r="O52" s="69"/>
-      <c r="P52" s="69"/>
-      <c r="Q52" s="69"/>
-      <c r="R52" s="69"/>
-      <c r="S52" s="69"/>
-      <c r="T52" s="69"/>
-      <c r="U52" s="69"/>
-      <c r="V52" s="69"/>
-      <c r="W52" s="69"/>
-      <c r="X52" s="69"/>
-      <c r="Y52" s="69"/>
-      <c r="Z52" s="69"/>
-      <c r="AA52" s="69"/>
-      <c r="AB52" s="69"/>
-      <c r="AC52" s="69"/>
-      <c r="AD52" s="69"/>
-      <c r="AE52" s="70"/>
-      <c r="AF52" s="81"/>
-      <c r="AG52" s="82"/>
-      <c r="AH52" s="82"/>
-      <c r="AI52" s="82"/>
-      <c r="AJ52" s="82"/>
-      <c r="AK52" s="82"/>
-      <c r="AL52" s="82"/>
-      <c r="AM52" s="83"/>
-    </row>
-    <row r="53" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="87"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="88"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="71"/>
-      <c r="I53" s="69"/>
-      <c r="J53" s="69"/>
-      <c r="K53" s="69"/>
-      <c r="L53" s="69"/>
-      <c r="M53" s="69"/>
-      <c r="N53" s="69"/>
-      <c r="O53" s="69"/>
-      <c r="P53" s="69"/>
-      <c r="Q53" s="69"/>
-      <c r="R53" s="69"/>
-      <c r="S53" s="69"/>
-      <c r="T53" s="69"/>
-      <c r="U53" s="69"/>
-      <c r="V53" s="69"/>
-      <c r="W53" s="69"/>
-      <c r="X53" s="69"/>
-      <c r="Y53" s="69"/>
-      <c r="Z53" s="69"/>
-      <c r="AA53" s="69"/>
-      <c r="AB53" s="69"/>
-      <c r="AC53" s="69"/>
-      <c r="AD53" s="69"/>
-      <c r="AE53" s="70"/>
-      <c r="AF53" s="81"/>
-      <c r="AG53" s="82"/>
-      <c r="AH53" s="82"/>
-      <c r="AI53" s="82"/>
-      <c r="AJ53" s="82"/>
-      <c r="AK53" s="82"/>
-      <c r="AL53" s="82"/>
-      <c r="AM53" s="83"/>
-    </row>
-    <row r="54" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="87"/>
-      <c r="B54" s="88"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="88"/>
-      <c r="E54" s="88"/>
-      <c r="F54" s="88"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="75"/>
-      <c r="J54" s="75"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="75"/>
-      <c r="M54" s="75"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="75"/>
-      <c r="P54" s="75"/>
-      <c r="Q54" s="75"/>
-      <c r="R54" s="75"/>
-      <c r="S54" s="75"/>
-      <c r="T54" s="75"/>
-      <c r="U54" s="75"/>
-      <c r="V54" s="75"/>
-      <c r="W54" s="75"/>
-      <c r="X54" s="75"/>
-      <c r="Y54" s="75"/>
-      <c r="Z54" s="75"/>
-      <c r="AA54" s="75"/>
-      <c r="AB54" s="75"/>
-      <c r="AC54" s="75"/>
-      <c r="AD54" s="75"/>
-      <c r="AE54" s="76"/>
-      <c r="AF54" s="81"/>
-      <c r="AG54" s="82"/>
-      <c r="AH54" s="82"/>
-      <c r="AI54" s="82"/>
-      <c r="AJ54" s="82"/>
-      <c r="AK54" s="82"/>
-      <c r="AL54" s="82"/>
-      <c r="AM54" s="83"/>
-    </row>
-    <row r="55" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="87"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="88"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="74"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="72"/>
-      <c r="P55" s="72"/>
-      <c r="Q55" s="72"/>
-      <c r="R55" s="72"/>
-      <c r="S55" s="72"/>
-      <c r="T55" s="72"/>
-      <c r="U55" s="72"/>
-      <c r="V55" s="72"/>
-      <c r="W55" s="72"/>
-      <c r="X55" s="72"/>
-      <c r="Y55" s="72"/>
-      <c r="Z55" s="72"/>
-      <c r="AA55" s="72"/>
-      <c r="AB55" s="72"/>
-      <c r="AC55" s="72"/>
-      <c r="AD55" s="72"/>
-      <c r="AE55" s="73"/>
-      <c r="AF55" s="81"/>
-      <c r="AG55" s="82"/>
-      <c r="AH55" s="82"/>
-      <c r="AI55" s="82"/>
-      <c r="AJ55" s="82"/>
-      <c r="AK55" s="82"/>
-      <c r="AL55" s="82"/>
-      <c r="AM55" s="83"/>
-    </row>
-    <row r="56" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="87"/>
-      <c r="B56" s="88"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="88"/>
-      <c r="E56" s="88"/>
-      <c r="F56" s="88"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="71"/>
-      <c r="I56" s="69"/>
-      <c r="J56" s="69"/>
-      <c r="K56" s="69"/>
-      <c r="L56" s="69"/>
-      <c r="M56" s="69"/>
-      <c r="N56" s="69"/>
-      <c r="O56" s="69"/>
-      <c r="P56" s="69"/>
-      <c r="Q56" s="69"/>
-      <c r="R56" s="69"/>
-      <c r="S56" s="69"/>
-      <c r="T56" s="69"/>
-      <c r="U56" s="69"/>
-      <c r="V56" s="69"/>
-      <c r="W56" s="69"/>
-      <c r="X56" s="69"/>
-      <c r="Y56" s="69"/>
-      <c r="Z56" s="69"/>
-      <c r="AA56" s="69"/>
-      <c r="AB56" s="69"/>
-      <c r="AC56" s="69"/>
-      <c r="AD56" s="69"/>
-      <c r="AE56" s="70"/>
-      <c r="AF56" s="81"/>
-      <c r="AG56" s="82"/>
-      <c r="AH56" s="82"/>
-      <c r="AI56" s="82"/>
-      <c r="AJ56" s="82"/>
-      <c r="AK56" s="82"/>
-      <c r="AL56" s="82"/>
-      <c r="AM56" s="83"/>
-    </row>
-    <row r="57" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="87"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="88"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="71"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="69"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="69"/>
-      <c r="O57" s="69"/>
-      <c r="P57" s="69"/>
-      <c r="Q57" s="69"/>
-      <c r="R57" s="69"/>
-      <c r="S57" s="69"/>
-      <c r="T57" s="69"/>
-      <c r="U57" s="69"/>
-      <c r="V57" s="69"/>
-      <c r="W57" s="69"/>
-      <c r="X57" s="69"/>
-      <c r="Y57" s="69"/>
-      <c r="Z57" s="69"/>
-      <c r="AA57" s="69"/>
-      <c r="AB57" s="69"/>
-      <c r="AC57" s="69"/>
-      <c r="AD57" s="69"/>
-      <c r="AE57" s="70"/>
-      <c r="AF57" s="81"/>
-      <c r="AG57" s="82"/>
-      <c r="AH57" s="82"/>
-      <c r="AI57" s="82"/>
-      <c r="AJ57" s="82"/>
-      <c r="AK57" s="82"/>
-      <c r="AL57" s="82"/>
-      <c r="AM57" s="83"/>
-    </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A58" s="87"/>
-      <c r="B58" s="88"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="88"/>
-      <c r="E58" s="88"/>
-      <c r="F58" s="88"/>
-      <c r="G58" s="89"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="69"/>
-      <c r="J58" s="69"/>
-      <c r="K58" s="69"/>
-      <c r="L58" s="69"/>
-      <c r="M58" s="69"/>
-      <c r="N58" s="69"/>
-      <c r="O58" s="69"/>
-      <c r="P58" s="69"/>
-      <c r="Q58" s="69"/>
-      <c r="R58" s="69"/>
-      <c r="S58" s="69"/>
-      <c r="T58" s="69"/>
-      <c r="U58" s="69"/>
-      <c r="V58" s="69"/>
-      <c r="W58" s="69"/>
-      <c r="X58" s="69"/>
-      <c r="Y58" s="69"/>
-      <c r="Z58" s="69"/>
-      <c r="AA58" s="69"/>
-      <c r="AB58" s="69"/>
-      <c r="AC58" s="69"/>
-      <c r="AD58" s="69"/>
-      <c r="AE58" s="70"/>
-      <c r="AF58" s="81"/>
-      <c r="AG58" s="82"/>
-      <c r="AH58" s="82"/>
-      <c r="AI58" s="82"/>
-      <c r="AJ58" s="82"/>
-      <c r="AK58" s="82"/>
-      <c r="AL58" s="82"/>
-      <c r="AM58" s="83"/>
-    </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A59" s="90"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="91"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="91"/>
-      <c r="F59" s="91"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="68"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="66"/>
-      <c r="M59" s="66"/>
-      <c r="N59" s="66"/>
-      <c r="O59" s="66"/>
-      <c r="P59" s="66"/>
-      <c r="Q59" s="66"/>
-      <c r="R59" s="66"/>
-      <c r="S59" s="66"/>
-      <c r="T59" s="66"/>
-      <c r="U59" s="66"/>
-      <c r="V59" s="66"/>
-      <c r="W59" s="66"/>
-      <c r="X59" s="66"/>
-      <c r="Y59" s="66"/>
-      <c r="Z59" s="66"/>
-      <c r="AA59" s="66"/>
-      <c r="AB59" s="66"/>
-      <c r="AC59" s="66"/>
-      <c r="AD59" s="66"/>
-      <c r="AE59" s="67"/>
-      <c r="AF59" s="81"/>
-      <c r="AG59" s="82"/>
-      <c r="AH59" s="82"/>
-      <c r="AI59" s="82"/>
-      <c r="AJ59" s="82"/>
-      <c r="AK59" s="82"/>
-      <c r="AL59" s="82"/>
-      <c r="AM59" s="83"/>
-    </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A60" s="64" t="s">
+      <c r="AG50" s="80"/>
+      <c r="AH50" s="80"/>
+      <c r="AI50" s="80"/>
+      <c r="AJ50" s="80"/>
+      <c r="AK50" s="80"/>
+      <c r="AL50" s="80"/>
+      <c r="AM50" s="81"/>
+    </row>
+    <row r="51" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="82"/>
+      <c r="B51" s="83"/>
+      <c r="C51" s="83"/>
+      <c r="D51" s="83"/>
+      <c r="E51" s="83"/>
+      <c r="F51" s="83"/>
+      <c r="G51" s="84"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="64"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="64"/>
+      <c r="L51" s="64"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
+      <c r="S51" s="64"/>
+      <c r="T51" s="64"/>
+      <c r="U51" s="64"/>
+      <c r="V51" s="64"/>
+      <c r="W51" s="64"/>
+      <c r="X51" s="64"/>
+      <c r="Y51" s="64"/>
+      <c r="Z51" s="64"/>
+      <c r="AA51" s="64"/>
+      <c r="AB51" s="64"/>
+      <c r="AC51" s="64"/>
+      <c r="AD51" s="64"/>
+      <c r="AE51" s="65"/>
+      <c r="AF51" s="73"/>
+      <c r="AG51" s="74"/>
+      <c r="AH51" s="74"/>
+      <c r="AI51" s="74"/>
+      <c r="AJ51" s="74"/>
+      <c r="AK51" s="74"/>
+      <c r="AL51" s="74"/>
+      <c r="AM51" s="75"/>
+    </row>
+    <row r="52" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="82"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
+      <c r="G52" s="84"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="64"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="64"/>
+      <c r="L52" s="64"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
+      <c r="P52" s="64"/>
+      <c r="Q52" s="64"/>
+      <c r="R52" s="64"/>
+      <c r="S52" s="64"/>
+      <c r="T52" s="64"/>
+      <c r="U52" s="64"/>
+      <c r="V52" s="64"/>
+      <c r="W52" s="64"/>
+      <c r="X52" s="64"/>
+      <c r="Y52" s="64"/>
+      <c r="Z52" s="64"/>
+      <c r="AA52" s="64"/>
+      <c r="AB52" s="64"/>
+      <c r="AC52" s="64"/>
+      <c r="AD52" s="64"/>
+      <c r="AE52" s="65"/>
+      <c r="AF52" s="76"/>
+      <c r="AG52" s="77"/>
+      <c r="AH52" s="77"/>
+      <c r="AI52" s="77"/>
+      <c r="AJ52" s="77"/>
+      <c r="AK52" s="77"/>
+      <c r="AL52" s="77"/>
+      <c r="AM52" s="78"/>
+    </row>
+    <row r="53" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="82"/>
+      <c r="B53" s="83"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="83"/>
+      <c r="E53" s="83"/>
+      <c r="F53" s="83"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="64"/>
+      <c r="J53" s="64"/>
+      <c r="K53" s="64"/>
+      <c r="L53" s="64"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
+      <c r="P53" s="64"/>
+      <c r="Q53" s="64"/>
+      <c r="R53" s="64"/>
+      <c r="S53" s="64"/>
+      <c r="T53" s="64"/>
+      <c r="U53" s="64"/>
+      <c r="V53" s="64"/>
+      <c r="W53" s="64"/>
+      <c r="X53" s="64"/>
+      <c r="Y53" s="64"/>
+      <c r="Z53" s="64"/>
+      <c r="AA53" s="64"/>
+      <c r="AB53" s="64"/>
+      <c r="AC53" s="64"/>
+      <c r="AD53" s="64"/>
+      <c r="AE53" s="65"/>
+      <c r="AF53" s="76"/>
+      <c r="AG53" s="77"/>
+      <c r="AH53" s="77"/>
+      <c r="AI53" s="77"/>
+      <c r="AJ53" s="77"/>
+      <c r="AK53" s="77"/>
+      <c r="AL53" s="77"/>
+      <c r="AM53" s="78"/>
+    </row>
+    <row r="54" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="82"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="84"/>
+      <c r="H54" s="72"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="70"/>
+      <c r="N54" s="70"/>
+      <c r="O54" s="70"/>
+      <c r="P54" s="70"/>
+      <c r="Q54" s="70"/>
+      <c r="R54" s="70"/>
+      <c r="S54" s="70"/>
+      <c r="T54" s="70"/>
+      <c r="U54" s="70"/>
+      <c r="V54" s="70"/>
+      <c r="W54" s="70"/>
+      <c r="X54" s="70"/>
+      <c r="Y54" s="70"/>
+      <c r="Z54" s="70"/>
+      <c r="AA54" s="70"/>
+      <c r="AB54" s="70"/>
+      <c r="AC54" s="70"/>
+      <c r="AD54" s="70"/>
+      <c r="AE54" s="71"/>
+      <c r="AF54" s="76"/>
+      <c r="AG54" s="77"/>
+      <c r="AH54" s="77"/>
+      <c r="AI54" s="77"/>
+      <c r="AJ54" s="77"/>
+      <c r="AK54" s="77"/>
+      <c r="AL54" s="77"/>
+      <c r="AM54" s="78"/>
+    </row>
+    <row r="55" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="82"/>
+      <c r="B55" s="83"/>
+      <c r="C55" s="83"/>
+      <c r="D55" s="83"/>
+      <c r="E55" s="83"/>
+      <c r="F55" s="83"/>
+      <c r="G55" s="84"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="67"/>
+      <c r="J55" s="67"/>
+      <c r="K55" s="67"/>
+      <c r="L55" s="67"/>
+      <c r="M55" s="67"/>
+      <c r="N55" s="67"/>
+      <c r="O55" s="67"/>
+      <c r="P55" s="67"/>
+      <c r="Q55" s="67"/>
+      <c r="R55" s="67"/>
+      <c r="S55" s="67"/>
+      <c r="T55" s="67"/>
+      <c r="U55" s="67"/>
+      <c r="V55" s="67"/>
+      <c r="W55" s="67"/>
+      <c r="X55" s="67"/>
+      <c r="Y55" s="67"/>
+      <c r="Z55" s="67"/>
+      <c r="AA55" s="67"/>
+      <c r="AB55" s="67"/>
+      <c r="AC55" s="67"/>
+      <c r="AD55" s="67"/>
+      <c r="AE55" s="68"/>
+      <c r="AF55" s="76"/>
+      <c r="AG55" s="77"/>
+      <c r="AH55" s="77"/>
+      <c r="AI55" s="77"/>
+      <c r="AJ55" s="77"/>
+      <c r="AK55" s="77"/>
+      <c r="AL55" s="77"/>
+      <c r="AM55" s="78"/>
+    </row>
+    <row r="56" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="82"/>
+      <c r="B56" s="83"/>
+      <c r="C56" s="83"/>
+      <c r="D56" s="83"/>
+      <c r="E56" s="83"/>
+      <c r="F56" s="83"/>
+      <c r="G56" s="84"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="64"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="64"/>
+      <c r="L56" s="64"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
+      <c r="O56" s="64"/>
+      <c r="P56" s="64"/>
+      <c r="Q56" s="64"/>
+      <c r="R56" s="64"/>
+      <c r="S56" s="64"/>
+      <c r="T56" s="64"/>
+      <c r="U56" s="64"/>
+      <c r="V56" s="64"/>
+      <c r="W56" s="64"/>
+      <c r="X56" s="64"/>
+      <c r="Y56" s="64"/>
+      <c r="Z56" s="64"/>
+      <c r="AA56" s="64"/>
+      <c r="AB56" s="64"/>
+      <c r="AC56" s="64"/>
+      <c r="AD56" s="64"/>
+      <c r="AE56" s="65"/>
+      <c r="AF56" s="76"/>
+      <c r="AG56" s="77"/>
+      <c r="AH56" s="77"/>
+      <c r="AI56" s="77"/>
+      <c r="AJ56" s="77"/>
+      <c r="AK56" s="77"/>
+      <c r="AL56" s="77"/>
+      <c r="AM56" s="78"/>
+    </row>
+    <row r="57" spans="1:39" ht="10.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="82"/>
+      <c r="B57" s="83"/>
+      <c r="C57" s="83"/>
+      <c r="D57" s="83"/>
+      <c r="E57" s="83"/>
+      <c r="F57" s="83"/>
+      <c r="G57" s="84"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="64"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="64"/>
+      <c r="L57" s="64"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
+      <c r="P57" s="64"/>
+      <c r="Q57" s="64"/>
+      <c r="R57" s="64"/>
+      <c r="S57" s="64"/>
+      <c r="T57" s="64"/>
+      <c r="U57" s="64"/>
+      <c r="V57" s="64"/>
+      <c r="W57" s="64"/>
+      <c r="X57" s="64"/>
+      <c r="Y57" s="64"/>
+      <c r="Z57" s="64"/>
+      <c r="AA57" s="64"/>
+      <c r="AB57" s="64"/>
+      <c r="AC57" s="64"/>
+      <c r="AD57" s="64"/>
+      <c r="AE57" s="65"/>
+      <c r="AF57" s="76"/>
+      <c r="AG57" s="77"/>
+      <c r="AH57" s="77"/>
+      <c r="AI57" s="77"/>
+      <c r="AJ57" s="77"/>
+      <c r="AK57" s="77"/>
+      <c r="AL57" s="77"/>
+      <c r="AM57" s="78"/>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A58" s="82"/>
+      <c r="B58" s="83"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="83"/>
+      <c r="E58" s="83"/>
+      <c r="F58" s="83"/>
+      <c r="G58" s="84"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="64"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="64"/>
+      <c r="L58" s="64"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
+      <c r="P58" s="64"/>
+      <c r="Q58" s="64"/>
+      <c r="R58" s="64"/>
+      <c r="S58" s="64"/>
+      <c r="T58" s="64"/>
+      <c r="U58" s="64"/>
+      <c r="V58" s="64"/>
+      <c r="W58" s="64"/>
+      <c r="X58" s="64"/>
+      <c r="Y58" s="64"/>
+      <c r="Z58" s="64"/>
+      <c r="AA58" s="64"/>
+      <c r="AB58" s="64"/>
+      <c r="AC58" s="64"/>
+      <c r="AD58" s="64"/>
+      <c r="AE58" s="65"/>
+      <c r="AF58" s="76"/>
+      <c r="AG58" s="77"/>
+      <c r="AH58" s="77"/>
+      <c r="AI58" s="77"/>
+      <c r="AJ58" s="77"/>
+      <c r="AK58" s="77"/>
+      <c r="AL58" s="77"/>
+      <c r="AM58" s="78"/>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A59" s="85"/>
+      <c r="B59" s="86"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="61"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="61"/>
+      <c r="O59" s="61"/>
+      <c r="P59" s="61"/>
+      <c r="Q59" s="61"/>
+      <c r="R59" s="61"/>
+      <c r="S59" s="61"/>
+      <c r="T59" s="61"/>
+      <c r="U59" s="61"/>
+      <c r="V59" s="61"/>
+      <c r="W59" s="61"/>
+      <c r="X59" s="61"/>
+      <c r="Y59" s="61"/>
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="61"/>
+      <c r="AB59" s="61"/>
+      <c r="AC59" s="61"/>
+      <c r="AD59" s="61"/>
+      <c r="AE59" s="62"/>
+      <c r="AF59" s="76"/>
+      <c r="AG59" s="77"/>
+      <c r="AH59" s="77"/>
+      <c r="AI59" s="77"/>
+      <c r="AJ59" s="77"/>
+      <c r="AK59" s="77"/>
+      <c r="AL59" s="77"/>
+      <c r="AM59" s="78"/>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A60" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="57">
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="52">
         <f>SUM(H8:I22)</f>
         <v>0</v>
       </c>
-      <c r="I60" s="58"/>
-      <c r="J60" s="57">
+      <c r="I60" s="53"/>
+      <c r="J60" s="52">
         <f t="shared" ref="J60" si="11">SUM(J50:K59)</f>
         <v>0</v>
       </c>
-      <c r="K60" s="58"/>
-      <c r="L60" s="57">
+      <c r="K60" s="53"/>
+      <c r="L60" s="52">
         <f t="shared" ref="L60" si="12">SUM(L50:M59)</f>
         <v>0</v>
       </c>
-      <c r="M60" s="58"/>
-      <c r="N60" s="57">
+      <c r="M60" s="53"/>
+      <c r="N60" s="52">
         <f t="shared" ref="N60" si="13">SUM(N50:O59)</f>
         <v>0</v>
       </c>
-      <c r="O60" s="58"/>
-      <c r="P60" s="57">
+      <c r="O60" s="53"/>
+      <c r="P60" s="52">
         <f t="shared" ref="P60" si="14">SUM(P50:Q59)</f>
         <v>0</v>
       </c>
-      <c r="Q60" s="58"/>
-      <c r="R60" s="57">
+      <c r="Q60" s="53"/>
+      <c r="R60" s="52">
         <f t="shared" ref="R60" si="15">SUM(R50:S59)</f>
         <v>0</v>
       </c>
-      <c r="S60" s="58"/>
-      <c r="T60" s="57">
+      <c r="S60" s="53"/>
+      <c r="T60" s="52">
         <f t="shared" ref="T60" si="16">SUM(T50:U59)</f>
         <v>0</v>
       </c>
-      <c r="U60" s="58"/>
-      <c r="V60" s="57">
+      <c r="U60" s="53"/>
+      <c r="V60" s="52">
         <f t="shared" ref="V60" si="17">SUM(V50:W59)</f>
         <v>0</v>
       </c>
-      <c r="W60" s="58"/>
-      <c r="X60" s="57">
+      <c r="W60" s="53"/>
+      <c r="X60" s="52">
         <f t="shared" ref="X60" si="18">SUM(X50:Y59)</f>
         <v>0</v>
       </c>
-      <c r="Y60" s="58"/>
-      <c r="Z60" s="57">
+      <c r="Y60" s="53"/>
+      <c r="Z60" s="52">
         <f t="shared" ref="Z60" si="19">SUM(Z50:AA59)</f>
         <v>0</v>
       </c>
-      <c r="AA60" s="58"/>
-      <c r="AB60" s="57">
+      <c r="AA60" s="53"/>
+      <c r="AB60" s="52">
         <f t="shared" ref="AB60" si="20">SUM(AB50:AC59)</f>
         <v>0</v>
       </c>
-      <c r="AC60" s="58"/>
-      <c r="AD60" s="57">
+      <c r="AC60" s="53"/>
+      <c r="AD60" s="52">
         <f t="shared" ref="AD60" si="21">SUM(AD50:AE59)</f>
         <v>0</v>
       </c>
-      <c r="AE60" s="58"/>
-      <c r="AF60" s="59">
+      <c r="AE60" s="53"/>
+      <c r="AF60" s="54">
         <f>SUM(H60:AE60)</f>
         <v>0</v>
       </c>
-      <c r="AG60" s="59"/>
-      <c r="AH60" s="59" t="s">
+      <c r="AG60" s="54"/>
+      <c r="AH60" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="AI60" s="59"/>
-      <c r="AJ60" s="59"/>
-      <c r="AK60" s="59"/>
-      <c r="AL60" s="59"/>
-      <c r="AM60" s="59"/>
-    </row>
-    <row r="61" spans="1:39" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A62" s="60" t="s">
+      <c r="AI60" s="54"/>
+      <c r="AJ60" s="54"/>
+      <c r="AK60" s="54"/>
+      <c r="AL60" s="54"/>
+      <c r="AM60" s="54"/>
+    </row>
+    <row r="61" spans="1:39" ht="2.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A62" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="61"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="62"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="62"/>
-      <c r="O62" s="62"/>
-      <c r="P62" s="62"/>
-      <c r="Q62" s="62"/>
-      <c r="R62" s="62"/>
-      <c r="S62" s="62"/>
-      <c r="T62" s="62"/>
-      <c r="U62" s="62"/>
-      <c r="V62" s="62"/>
-      <c r="W62" s="62"/>
-      <c r="X62" s="62"/>
-      <c r="Y62" s="62"/>
-      <c r="Z62" s="62"/>
-      <c r="AA62" s="62"/>
-      <c r="AB62" s="62"/>
-      <c r="AC62" s="63"/>
-      <c r="AD62" s="54" t="s">
+      <c r="B62" s="56"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="56"/>
+      <c r="J62" s="56"/>
+      <c r="K62" s="57"/>
+      <c r="L62" s="57"/>
+      <c r="M62" s="57"/>
+      <c r="N62" s="57"/>
+      <c r="O62" s="57"/>
+      <c r="P62" s="57"/>
+      <c r="Q62" s="57"/>
+      <c r="R62" s="57"/>
+      <c r="S62" s="57"/>
+      <c r="T62" s="57"/>
+      <c r="U62" s="57"/>
+      <c r="V62" s="57"/>
+      <c r="W62" s="57"/>
+      <c r="X62" s="57"/>
+      <c r="Y62" s="57"/>
+      <c r="Z62" s="57"/>
+      <c r="AA62" s="57"/>
+      <c r="AB62" s="57"/>
+      <c r="AC62" s="58"/>
+      <c r="AD62" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="AE62" s="55"/>
-      <c r="AF62" s="55"/>
-      <c r="AG62" s="55"/>
-      <c r="AH62" s="55"/>
-      <c r="AI62" s="55"/>
-      <c r="AJ62" s="55"/>
-      <c r="AK62" s="55"/>
-      <c r="AL62" s="55"/>
-      <c r="AM62" s="56"/>
-    </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A63" s="47"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="48"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="48"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="48"/>
-      <c r="P63" s="48"/>
-      <c r="Q63" s="48"/>
-      <c r="R63" s="48"/>
-      <c r="S63" s="48"/>
-      <c r="T63" s="48"/>
-      <c r="U63" s="48"/>
-      <c r="V63" s="48"/>
-      <c r="W63" s="48"/>
-      <c r="X63" s="48"/>
-      <c r="Y63" s="48"/>
-      <c r="Z63" s="48"/>
-      <c r="AA63" s="48"/>
-      <c r="AB63" s="48"/>
-      <c r="AC63" s="49"/>
+      <c r="AE62" s="50"/>
+      <c r="AF62" s="50"/>
+      <c r="AG62" s="50"/>
+      <c r="AH62" s="50"/>
+      <c r="AI62" s="50"/>
+      <c r="AJ62" s="50"/>
+      <c r="AK62" s="50"/>
+      <c r="AL62" s="50"/>
+      <c r="AM62" s="51"/>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A63" s="43"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="44"/>
+      <c r="V63" s="44"/>
+      <c r="W63" s="44"/>
+      <c r="X63" s="44"/>
+      <c r="Y63" s="44"/>
+      <c r="Z63" s="44"/>
+      <c r="AA63" s="44"/>
+      <c r="AB63" s="44"/>
+      <c r="AC63" s="45"/>
       <c r="AD63" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AE63" s="40"/>
       <c r="AF63" s="40"/>
-      <c r="AG63" s="41"/>
-      <c r="AH63" s="41"/>
-      <c r="AI63" s="41"/>
-      <c r="AJ63" s="41"/>
-      <c r="AK63" s="41"/>
-      <c r="AL63" s="41"/>
-      <c r="AM63" s="42"/>
-    </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A64" s="47"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="48"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="48"/>
-      <c r="M64" s="48"/>
-      <c r="N64" s="48"/>
-      <c r="O64" s="48"/>
-      <c r="P64" s="48"/>
-      <c r="Q64" s="48"/>
-      <c r="R64" s="48"/>
-      <c r="S64" s="48"/>
-      <c r="T64" s="48"/>
-      <c r="U64" s="48"/>
-      <c r="V64" s="48"/>
-      <c r="W64" s="48"/>
-      <c r="X64" s="48"/>
-      <c r="Y64" s="48"/>
-      <c r="Z64" s="48"/>
-      <c r="AA64" s="48"/>
-      <c r="AB64" s="48"/>
-      <c r="AC64" s="49"/>
+      <c r="AG63" s="40"/>
+      <c r="AH63" s="40"/>
+      <c r="AI63" s="40"/>
+      <c r="AJ63" s="40"/>
+      <c r="AK63" s="40"/>
+      <c r="AL63" s="40"/>
+      <c r="AM63" s="143"/>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A64" s="43"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="44"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="44"/>
+      <c r="V64" s="44"/>
+      <c r="W64" s="44"/>
+      <c r="X64" s="44"/>
+      <c r="Y64" s="44"/>
+      <c r="Z64" s="44"/>
+      <c r="AA64" s="44"/>
+      <c r="AB64" s="44"/>
+      <c r="AC64" s="45"/>
       <c r="AD64" s="39" t="s">
         <v>70</v>
       </c>
       <c r="AE64" s="40"/>
       <c r="AF64" s="40"/>
-      <c r="AG64" s="41"/>
-      <c r="AH64" s="41"/>
-      <c r="AI64" s="41"/>
-      <c r="AJ64" s="41"/>
-      <c r="AK64" s="41"/>
-      <c r="AL64" s="41"/>
-      <c r="AM64" s="42"/>
-    </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A65" s="47"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="48"/>
-      <c r="L65" s="48"/>
-      <c r="M65" s="48"/>
-      <c r="N65" s="48"/>
-      <c r="O65" s="48"/>
-      <c r="P65" s="48"/>
-      <c r="Q65" s="48"/>
-      <c r="R65" s="48"/>
-      <c r="S65" s="48"/>
-      <c r="T65" s="48"/>
-      <c r="U65" s="48"/>
-      <c r="V65" s="48"/>
-      <c r="W65" s="48"/>
-      <c r="X65" s="48"/>
-      <c r="Y65" s="48"/>
-      <c r="Z65" s="48"/>
-      <c r="AA65" s="48"/>
-      <c r="AB65" s="48"/>
-      <c r="AC65" s="49"/>
-      <c r="AD65" s="43" t="s">
+      <c r="AG64" s="40"/>
+      <c r="AH64" s="40"/>
+      <c r="AI64" s="40"/>
+      <c r="AJ64" s="40"/>
+      <c r="AK64" s="40"/>
+      <c r="AL64" s="40"/>
+      <c r="AM64" s="143"/>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A65" s="43"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="44"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
+      <c r="U65" s="44"/>
+      <c r="V65" s="44"/>
+      <c r="W65" s="44"/>
+      <c r="X65" s="44"/>
+      <c r="Y65" s="44"/>
+      <c r="Z65" s="44"/>
+      <c r="AA65" s="44"/>
+      <c r="AB65" s="44"/>
+      <c r="AC65" s="45"/>
+      <c r="AD65" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AE65" s="44"/>
-      <c r="AF65" s="44"/>
-      <c r="AG65" s="53"/>
-      <c r="AH65" s="45"/>
-      <c r="AI65" s="45"/>
-      <c r="AJ65" s="45"/>
-      <c r="AK65" s="45"/>
-      <c r="AL65" s="45"/>
-      <c r="AM65" s="46"/>
-    </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A66" s="47"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="48"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="48"/>
-      <c r="P66" s="48"/>
-      <c r="Q66" s="48"/>
-      <c r="R66" s="48"/>
-      <c r="S66" s="48"/>
-      <c r="T66" s="48"/>
-      <c r="U66" s="48"/>
-      <c r="V66" s="48"/>
-      <c r="W66" s="48"/>
-      <c r="X66" s="48"/>
-      <c r="Y66" s="48"/>
-      <c r="Z66" s="48"/>
-      <c r="AA66" s="48"/>
-      <c r="AB66" s="48"/>
-      <c r="AC66" s="49"/>
-      <c r="AD66" s="54" t="s">
+      <c r="AE65" s="42"/>
+      <c r="AF65" s="42"/>
+      <c r="AG65" s="144"/>
+      <c r="AH65" s="42"/>
+      <c r="AI65" s="42"/>
+      <c r="AJ65" s="42"/>
+      <c r="AK65" s="42"/>
+      <c r="AL65" s="42"/>
+      <c r="AM65" s="145"/>
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A66" s="43"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="44"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="44"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="44"/>
+      <c r="V66" s="44"/>
+      <c r="W66" s="44"/>
+      <c r="X66" s="44"/>
+      <c r="Y66" s="44"/>
+      <c r="Z66" s="44"/>
+      <c r="AA66" s="44"/>
+      <c r="AB66" s="44"/>
+      <c r="AC66" s="45"/>
+      <c r="AD66" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="AE66" s="55"/>
-      <c r="AF66" s="55"/>
-      <c r="AG66" s="55"/>
-      <c r="AH66" s="55"/>
-      <c r="AI66" s="55"/>
-      <c r="AJ66" s="55"/>
-      <c r="AK66" s="55"/>
-      <c r="AL66" s="55"/>
-      <c r="AM66" s="56"/>
-    </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A67" s="47"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
-      <c r="F67" s="48"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="48"/>
-      <c r="N67" s="48"/>
-      <c r="O67" s="48"/>
-      <c r="P67" s="48"/>
-      <c r="Q67" s="48"/>
-      <c r="R67" s="48"/>
-      <c r="S67" s="48"/>
-      <c r="T67" s="48"/>
-      <c r="U67" s="48"/>
-      <c r="V67" s="48"/>
-      <c r="W67" s="48"/>
-      <c r="X67" s="48"/>
-      <c r="Y67" s="48"/>
-      <c r="Z67" s="48"/>
-      <c r="AA67" s="48"/>
-      <c r="AB67" s="48"/>
-      <c r="AC67" s="49"/>
+      <c r="AE66" s="50"/>
+      <c r="AF66" s="50"/>
+      <c r="AG66" s="50"/>
+      <c r="AH66" s="50"/>
+      <c r="AI66" s="50"/>
+      <c r="AJ66" s="50"/>
+      <c r="AK66" s="50"/>
+      <c r="AL66" s="50"/>
+      <c r="AM66" s="51"/>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A67" s="43"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="44"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="44"/>
+      <c r="V67" s="44"/>
+      <c r="W67" s="44"/>
+      <c r="X67" s="44"/>
+      <c r="Y67" s="44"/>
+      <c r="Z67" s="44"/>
+      <c r="AA67" s="44"/>
+      <c r="AB67" s="44"/>
+      <c r="AC67" s="45"/>
       <c r="AD67" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AE67" s="40"/>
       <c r="AF67" s="40"/>
-      <c r="AG67" s="41"/>
-      <c r="AH67" s="41"/>
-      <c r="AI67" s="41"/>
-      <c r="AJ67" s="41"/>
-      <c r="AK67" s="41"/>
-      <c r="AL67" s="41"/>
-      <c r="AM67" s="42"/>
-    </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A68" s="47"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
-      <c r="O68" s="48"/>
-      <c r="P68" s="48"/>
-      <c r="Q68" s="48"/>
-      <c r="R68" s="48"/>
-      <c r="S68" s="48"/>
-      <c r="T68" s="48"/>
-      <c r="U68" s="48"/>
-      <c r="V68" s="48"/>
-      <c r="W68" s="48"/>
-      <c r="X68" s="48"/>
-      <c r="Y68" s="48"/>
-      <c r="Z68" s="48"/>
-      <c r="AA68" s="48"/>
-      <c r="AB68" s="48"/>
-      <c r="AC68" s="49"/>
+      <c r="AG67" s="40"/>
+      <c r="AH67" s="40"/>
+      <c r="AI67" s="40"/>
+      <c r="AJ67" s="40"/>
+      <c r="AK67" s="40"/>
+      <c r="AL67" s="40"/>
+      <c r="AM67" s="143"/>
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A68" s="43"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="44"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="44"/>
+      <c r="V68" s="44"/>
+      <c r="W68" s="44"/>
+      <c r="X68" s="44"/>
+      <c r="Y68" s="44"/>
+      <c r="Z68" s="44"/>
+      <c r="AA68" s="44"/>
+      <c r="AB68" s="44"/>
+      <c r="AC68" s="45"/>
       <c r="AD68" s="39" t="s">
         <v>70</v>
       </c>
       <c r="AE68" s="40"/>
       <c r="AF68" s="40"/>
-      <c r="AG68" s="41"/>
-      <c r="AH68" s="41"/>
-      <c r="AI68" s="41"/>
-      <c r="AJ68" s="41"/>
-      <c r="AK68" s="41"/>
-      <c r="AL68" s="41"/>
-      <c r="AM68" s="42"/>
-    </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="51"/>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="51"/>
-      <c r="N69" s="51"/>
-      <c r="O69" s="51"/>
-      <c r="P69" s="51"/>
-      <c r="Q69" s="51"/>
-      <c r="R69" s="51"/>
-      <c r="S69" s="51"/>
-      <c r="T69" s="51"/>
-      <c r="U69" s="51"/>
-      <c r="V69" s="51"/>
-      <c r="W69" s="51"/>
-      <c r="X69" s="51"/>
-      <c r="Y69" s="51"/>
-      <c r="Z69" s="51"/>
-      <c r="AA69" s="51"/>
-      <c r="AB69" s="51"/>
-      <c r="AC69" s="52"/>
-      <c r="AD69" s="43" t="s">
+      <c r="AG68" s="40"/>
+      <c r="AH68" s="40"/>
+      <c r="AI68" s="40"/>
+      <c r="AJ68" s="40"/>
+      <c r="AK68" s="40"/>
+      <c r="AL68" s="40"/>
+      <c r="AM68" s="143"/>
+    </row>
+    <row r="69" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="A69" s="46"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="47"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="47"/>
+      <c r="Q69" s="47"/>
+      <c r="R69" s="47"/>
+      <c r="S69" s="47"/>
+      <c r="T69" s="47"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="47"/>
+      <c r="X69" s="47"/>
+      <c r="Y69" s="47"/>
+      <c r="Z69" s="47"/>
+      <c r="AA69" s="47"/>
+      <c r="AB69" s="47"/>
+      <c r="AC69" s="48"/>
+      <c r="AD69" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AE69" s="44"/>
-      <c r="AF69" s="44"/>
-      <c r="AG69" s="45"/>
-      <c r="AH69" s="45"/>
-      <c r="AI69" s="45"/>
-      <c r="AJ69" s="45"/>
-      <c r="AK69" s="45"/>
-      <c r="AL69" s="45"/>
-      <c r="AM69" s="46"/>
+      <c r="AE69" s="42"/>
+      <c r="AF69" s="42"/>
+      <c r="AG69" s="42"/>
+      <c r="AH69" s="42"/>
+      <c r="AI69" s="42"/>
+      <c r="AJ69" s="42"/>
+      <c r="AK69" s="42"/>
+      <c r="AL69" s="42"/>
+      <c r="AM69" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="688">
@@ -6333,21 +6332,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D262036FF67A5D43BF6E290DEB360352" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="807eb2660dd8ce2169584ac47dcb7049">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e744003-367c-4be8-bc40-2385cb622540" xmlns:ns3="0930cf9b-719b-4120-8db4-f84070340397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ff3b9ec0591c1e5bf852b570c8721a7" ns2:_="" ns3:_="">
     <xsd:import namespace="4e744003-367c-4be8-bc40-2385cb622540"/>
@@ -6570,15 +6560,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F684C6C5-02CE-40D8-A2BB-94FA59A65EC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8C5D41E4-2A39-40C7-9176-CC6563CCC4C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6587,7 +6578,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6297D3BE-4F95-432E-A602-A4763FE84874}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6604,4 +6595,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F684C6C5-02CE-40D8-A2BB-94FA59A65EC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>